--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="339">
   <si>
     <t>nazev</t>
   </si>
@@ -37,39 +37,39 @@
     <t>Geometrie</t>
   </si>
   <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
     <t>Diplomová práce I</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
     <t>Didaktická a laboratorní technika</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
     <t>Exkurze</t>
   </si>
   <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
     <t>Proseminář řešení fyzikálních úloh A</t>
   </si>
   <si>
-    <t>Průběžná pedagogická praxe ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
-  </si>
-  <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
@@ -82,48 +82,48 @@
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
     <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
+    <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
     <t>Seminář katedry II</t>
   </si>
   <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
     <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
@@ -139,54 +139,54 @@
     <t>Dějiny chemie</t>
   </si>
   <si>
+    <t>Vybrané matematické metody ve fyzice</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
     <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
-    <t>Řešení obvodu RLC</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
-    <t>VK-Programování ATMEL I</t>
-  </si>
-  <si>
-    <t>Praktikum mikrovlnné techniky - aplikace</t>
-  </si>
-  <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
+    <t>Počítačové modelování III</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>VK-Fyzikální seminář</t>
+  </si>
+  <si>
     <t>Programování A</t>
   </si>
   <si>
-    <t>Počítačové modelování III</t>
-  </si>
-  <si>
-    <t>Počítačové modelování II</t>
-  </si>
-  <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
-    <t>Počítačové modelování I</t>
-  </si>
-  <si>
-    <t>Programování B</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -217,16 +217,19 @@
     <t>Obecná parazitologie</t>
   </si>
   <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
     <t>Ekofyziologie</t>
   </si>
   <si>
-    <t>Biologie a ekologie člověka I</t>
+    <t>Biologie parazitů</t>
   </si>
   <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Biologie parazitů</t>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
@@ -236,21 +239,18 @@
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Metody analýz materiálů</t>
-  </si>
-  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
+    <t>Limnobiologie</t>
+  </si>
+  <si>
+    <t>Environmentální legislativa</t>
+  </si>
+  <si>
     <t>Algologie</t>
   </si>
   <si>
-    <t>Limnobiologie</t>
-  </si>
-  <si>
-    <t>Environmentální legislativa</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
@@ -266,30 +266,33 @@
     <t>Anglický jazyk II</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe I SŠ</t>
+  </si>
+  <si>
     <t>VK-Česká republika a EU</t>
   </si>
   <si>
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>VK-Němčina pro geografy</t>
+  </si>
+  <si>
     <t>VK - Konverzace němčiny pro geografy</t>
   </si>
   <si>
-    <t>VK-Němčina pro geografy</t>
-  </si>
-  <si>
     <t>Medicína katastrof</t>
   </si>
   <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
     <t>Počítačová kriminalita</t>
   </si>
   <si>
@@ -326,12 +329,12 @@
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
     <t>Moderní elektroanal. met. - prakt. kurz</t>
   </si>
   <si>
-    <t>PVK - Fyzikálně chemická cvičení A</t>
-  </si>
-  <si>
     <t>Laboratorní cvičení z fyzikální chemie</t>
   </si>
   <si>
@@ -350,12 +353,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -374,13 +377,16 @@
     <t>Životní prostředí a udržitelný rozvoj</t>
   </si>
   <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
+    <t>Terénní cvičení ze SG</t>
+  </si>
+  <si>
     <t>English for Science</t>
   </si>
   <si>
-    <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
-    <t>Terénní cvičení ze SG</t>
+    <t>Ornitologie</t>
   </si>
   <si>
     <t>Zoologické terénní cvičení</t>
@@ -389,9 +395,6 @@
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
-    <t>Ornitologie</t>
-  </si>
-  <si>
     <t>Biomedicínské mat.- přípr., char., a vl.</t>
   </si>
   <si>
@@ -416,34 +419,40 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe I - SŠ</t>
-  </si>
-  <si>
     <t>Doučování</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+  </si>
+  <si>
     <t>Biologie půdních mikroorganismů</t>
   </si>
   <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Machine Learning Based on R Software</t>
@@ -458,12 +467,6 @@
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
     <t>Vybrané partie z matematiky</t>
   </si>
   <si>
@@ -497,45 +500,45 @@
     <t>K312</t>
   </si>
   <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
     <t>N028</t>
   </si>
   <si>
-    <t>KB502</t>
+    <t>N016</t>
   </si>
   <si>
     <t>M200</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>PB502</t>
+    <t>P732</t>
+  </si>
+  <si>
+    <t>K622</t>
   </si>
   <si>
     <t>PA31</t>
   </si>
   <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>P736</t>
+  </si>
+  <si>
+    <t>K521</t>
+  </si>
+  <si>
     <t>P841</t>
   </si>
   <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>K622</t>
-  </si>
-  <si>
     <t>P622</t>
   </si>
   <si>
-    <t>P732</t>
-  </si>
-  <si>
-    <t>P736</t>
-  </si>
-  <si>
-    <t>KA35</t>
-  </si>
-  <si>
     <t>P365</t>
   </si>
   <si>
@@ -545,72 +548,72 @@
     <t>K414</t>
   </si>
   <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
     <t>P427</t>
   </si>
   <si>
-    <t>TEP</t>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>K602</t>
   </si>
   <si>
     <t>P938</t>
   </si>
   <si>
-    <t>P531</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>KM</t>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>PD203</t>
   </si>
   <si>
     <t>PA52</t>
   </si>
   <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>P952</t>
+    <t>K522</t>
   </si>
   <si>
     <t>P602</t>
   </si>
   <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
     <t>M214</t>
   </si>
   <si>
@@ -620,75 +623,75 @@
     <t>0101</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
     <t>KN16</t>
   </si>
   <si>
-    <t>KN22</t>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0211</t>
   </si>
   <si>
     <t>0218</t>
   </si>
   <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>0175</t>
-  </si>
-  <si>
-    <t>0207</t>
+    <t>K305</t>
   </si>
   <si>
     <t>P422</t>
   </si>
   <si>
-    <t>K305</t>
-  </si>
-  <si>
     <t>P522</t>
   </si>
   <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>P401</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
     <t>K103</t>
   </si>
   <si>
-    <t>P401</t>
-  </si>
-  <si>
-    <t>P206</t>
+    <t>P103</t>
   </si>
   <si>
     <t>P406</t>
   </si>
   <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
-    <t>K107</t>
-  </si>
-  <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -698,37 +701,40 @@
     <t>0109</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
     <t>K409</t>
   </si>
   <si>
+    <t>BP423</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
     <t>P323</t>
   </si>
   <si>
-    <t>BP423</t>
+    <t>P303</t>
   </si>
   <si>
     <t>N051</t>
   </si>
   <si>
-    <t>P303</t>
+    <t>N032</t>
   </si>
   <si>
     <t>K110</t>
   </si>
   <si>
-    <t>N032</t>
+    <t>AP05</t>
   </si>
   <si>
     <t>PD202</t>
@@ -737,39 +743,36 @@
     <t>AP03</t>
   </si>
   <si>
-    <t>AP05</t>
+    <t>ME200</t>
   </si>
   <si>
     <t>N023</t>
   </si>
   <si>
-    <t>ME200</t>
+    <t>P328</t>
+  </si>
+  <si>
+    <t>P525</t>
   </si>
   <si>
     <t>P420</t>
   </si>
   <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
     <t>N036</t>
   </si>
   <si>
-    <t>BK108</t>
-  </si>
-  <si>
     <t>K507</t>
   </si>
   <si>
-    <t>K311</t>
-  </si>
-  <si>
-    <t>P525</t>
-  </si>
-  <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>P328</t>
-  </si>
-  <si>
     <t>N001</t>
   </si>
   <si>
@@ -788,42 +791,45 @@
     <t>K411</t>
   </si>
   <si>
+    <t>P706</t>
+  </si>
+  <si>
     <t>0116</t>
   </si>
   <si>
     <t>PD107</t>
   </si>
   <si>
+    <t>0126</t>
+  </si>
+  <si>
     <t>0130</t>
   </si>
   <si>
-    <t>0126</t>
-  </si>
-  <si>
     <t>P518</t>
   </si>
   <si>
     <t>P414</t>
   </si>
   <si>
+    <t>P534</t>
+  </si>
+  <si>
     <t>N109</t>
   </si>
   <si>
-    <t>P534</t>
-  </si>
-  <si>
     <t>0141</t>
   </si>
   <si>
     <t>E133</t>
   </si>
   <si>
+    <t>K403</t>
+  </si>
+  <si>
     <t>P416</t>
   </si>
   <si>
-    <t>K403</t>
-  </si>
-  <si>
     <t>P419</t>
   </si>
   <si>
@@ -857,15 +863,15 @@
     <t>P527</t>
   </si>
   <si>
+    <t>P506</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
     <t>N029</t>
   </si>
   <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>P506</t>
-  </si>
-  <si>
     <t>P517</t>
   </si>
   <si>
@@ -890,12 +896,12 @@
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>PD101</t>
   </si>
   <si>
@@ -911,28 +917,31 @@
     <t>M208</t>
   </si>
   <si>
+    <t>P839</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>P839</t>
+    <t>M203</t>
   </si>
   <si>
     <t>BK401</t>
   </si>
   <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
     <t>B401</t>
   </si>
   <si>
     <t>E403</t>
   </si>
   <si>
-    <t>M203</t>
-  </si>
-  <si>
-    <t>M101</t>
-  </si>
-  <si>
-    <t>M312</t>
+    <t>MA205</t>
   </si>
   <si>
     <t>KB427</t>
@@ -944,9 +953,6 @@
     <t>PB427</t>
   </si>
   <si>
-    <t>MA205</t>
-  </si>
-  <si>
     <t>M317</t>
   </si>
   <si>
@@ -968,24 +974,24 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P707B</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>P707A</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P707B</t>
-  </si>
-  <si>
-    <t>P707A</t>
-  </si>
-  <si>
     <t>DOUC</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P705</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -995,6 +1001,12 @@
     <t>ME301</t>
   </si>
   <si>
+    <t>APR1</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>EMLR</t>
   </si>
   <si>
@@ -1007,12 +1019,6 @@
     <t>EDAV</t>
   </si>
   <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>APR1</t>
-  </si>
-  <si>
     <t>P232</t>
   </si>
   <si>
@@ -1022,10 +1028,10 @@
     <t>PEK</t>
   </si>
   <si>
+    <t>OONV</t>
+  </si>
+  <si>
     <t>KOONV</t>
-  </si>
-  <si>
-    <t>OONV</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C206" totalsRowShown="0">
-  <autoFilter ref="A1:C206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C207" totalsRowShown="0">
+  <autoFilter ref="A1:C207"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1383,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
@@ -1416,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
@@ -1427,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
@@ -1438,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2">
         <v>130</v>
@@ -1449,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2">
         <v>269</v>
@@ -1460,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2">
         <v>269</v>
@@ -1471,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2">
         <v>281</v>
@@ -1479,10 +1485,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2">
         <v>281</v>
@@ -1490,10 +1496,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2">
         <v>281</v>
@@ -1504,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2">
         <v>281</v>
@@ -1515,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2">
         <v>281</v>
@@ -1526,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2">
         <v>302</v>
@@ -1537,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2">
         <v>302</v>
@@ -1548,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2">
         <v>302</v>
@@ -1559,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2">
         <v>302</v>
@@ -1570,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2">
         <v>302</v>
@@ -1581,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2">
         <v>302</v>
@@ -1592,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2">
         <v>302</v>
@@ -1603,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2">
         <v>302</v>
@@ -1614,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2">
         <v>306</v>
@@ -1625,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2">
         <v>306</v>
@@ -1636,7 +1642,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2">
         <v>306</v>
@@ -1644,10 +1650,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2">
         <v>307</v>
@@ -1655,10 +1661,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" s="2">
         <v>307</v>
@@ -1666,10 +1672,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26" s="2">
         <v>307</v>
@@ -1677,10 +1683,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2">
         <v>307</v>
@@ -1688,10 +1694,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2">
         <v>307</v>
@@ -1699,10 +1705,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2">
         <v>307</v>
@@ -1710,10 +1716,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2">
         <v>307</v>
@@ -1721,10 +1727,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2">
         <v>307</v>
@@ -1735,7 +1741,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2">
         <v>307</v>
@@ -1746,7 +1752,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2">
         <v>307</v>
@@ -1754,10 +1760,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2">
         <v>307</v>
@@ -1765,10 +1771,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" s="2">
         <v>307</v>
@@ -1776,10 +1782,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2">
         <v>307</v>
@@ -1787,10 +1793,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2">
         <v>307</v>
@@ -1798,10 +1804,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="2">
         <v>307</v>
@@ -1809,10 +1815,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2">
         <v>307</v>
@@ -1820,10 +1826,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2">
         <v>307</v>
@@ -1831,10 +1837,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2">
         <v>307</v>
@@ -1842,10 +1848,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C42" s="2">
         <v>307</v>
@@ -1856,7 +1862,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C43" s="2">
         <v>307</v>
@@ -1864,10 +1870,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2">
         <v>307</v>
@@ -1875,10 +1881,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C45" s="2">
         <v>307</v>
@@ -1889,7 +1895,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C46" s="2">
         <v>313</v>
@@ -1900,7 +1906,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2">
         <v>313</v>
@@ -1911,7 +1917,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48" s="2">
         <v>317</v>
@@ -1922,7 +1928,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C49" s="2">
         <v>336</v>
@@ -1930,10 +1936,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="2">
         <v>336</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" s="2">
         <v>336</v>
@@ -1955,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2">
         <v>605</v>
@@ -1966,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2">
         <v>605</v>
@@ -1977,7 +1983,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C54" s="2">
         <v>605</v>
@@ -1988,7 +1994,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2">
         <v>605</v>
@@ -1999,7 +2005,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2">
         <v>605</v>
@@ -2010,7 +2016,7 @@
         <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2">
         <v>605</v>
@@ -2021,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C58" s="2">
         <v>605</v>
@@ -2029,10 +2035,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C59" s="2">
         <v>606</v>
@@ -2040,10 +2046,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60" s="2">
         <v>606</v>
@@ -2054,7 +2060,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C61" s="2">
         <v>606</v>
@@ -2065,7 +2071,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2">
         <v>612</v>
@@ -2076,7 +2082,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C63" s="2">
         <v>612</v>
@@ -2087,7 +2093,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="2">
         <v>612</v>
@@ -2098,7 +2104,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2">
         <v>612</v>
@@ -2106,10 +2112,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2">
         <v>612</v>
@@ -2120,7 +2126,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C67" s="2">
         <v>612</v>
@@ -2128,10 +2134,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C68" s="2">
         <v>612</v>
@@ -2139,10 +2145,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C69" s="2">
         <v>612</v>
@@ -2153,7 +2159,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C70" s="2">
         <v>612</v>
@@ -2161,10 +2167,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71" s="2">
         <v>612</v>
@@ -2175,7 +2181,7 @@
         <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C72" s="2">
         <v>719</v>
@@ -2186,7 +2192,7 @@
         <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C73" s="2">
         <v>816</v>
@@ -2197,7 +2203,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74" s="2">
         <v>827</v>
@@ -2208,7 +2214,7 @@
         <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C75" s="2">
         <v>929</v>
@@ -2219,7 +2225,7 @@
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C76" s="2">
         <v>929</v>
@@ -2230,7 +2236,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2">
         <v>1108</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>228</v>
@@ -2252,7 +2258,7 @@
         <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C79" s="2">
         <v>1456</v>
@@ -2263,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C80" s="2">
         <v>1537</v>
@@ -2274,7 +2280,7 @@
         <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C81" s="2">
         <v>1546</v>
@@ -2282,10 +2288,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C82" s="2">
         <v>1546</v>
@@ -2293,10 +2299,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2">
         <v>1546</v>
@@ -2307,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C84" s="2">
         <v>1546</v>
@@ -2318,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C85" s="2">
         <v>1546</v>
@@ -2329,7 +2335,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C86" s="2">
         <v>1546</v>
@@ -2340,7 +2346,7 @@
         <v>70</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" s="2">
         <v>1546</v>
@@ -2351,7 +2357,7 @@
         <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C88" s="2">
         <v>1590</v>
@@ -2359,10 +2365,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2373,7 +2379,7 @@
         <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2">
         <v>1590</v>
@@ -2384,7 +2390,7 @@
         <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C91" s="2">
         <v>1590</v>
@@ -2395,7 +2401,7 @@
         <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C92" s="2">
         <v>1986</v>
@@ -2406,7 +2412,7 @@
         <v>74</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C93" s="2">
         <v>1986</v>
@@ -2417,7 +2423,7 @@
         <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C94" s="2">
         <v>1999</v>
@@ -2425,10 +2431,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C95" s="2">
         <v>1999</v>
@@ -2436,10 +2442,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C96" s="2">
         <v>1999</v>
@@ -2447,10 +2453,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C97" s="2">
         <v>1999</v>
@@ -2458,10 +2464,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C98" s="2">
         <v>1999</v>
@@ -2469,10 +2475,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C99" s="2">
         <v>1999</v>
@@ -2480,10 +2486,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C100" s="2">
         <v>1999</v>
@@ -2494,7 +2500,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C101" s="2">
         <v>1999</v>
@@ -2505,7 +2511,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C102" s="2">
         <v>2232</v>
@@ -2516,7 +2522,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C103" s="2">
         <v>2232</v>
@@ -2527,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2">
         <v>2441</v>
@@ -2538,7 +2544,7 @@
         <v>80</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C105" s="2">
         <v>2441</v>
@@ -2549,7 +2555,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C106" s="2">
         <v>2450</v>
@@ -2560,7 +2566,7 @@
         <v>82</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C107" s="2">
         <v>2591</v>
@@ -2568,7 +2574,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>235</v>
@@ -2582,10 +2588,10 @@
         <v>83</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C109" s="2">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2593,10 +2599,10 @@
         <v>84</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C110" s="2">
-        <v>2787</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2604,10 +2610,10 @@
         <v>85</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C111" s="2">
-        <v>2812</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2615,7 +2621,7 @@
         <v>86</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C112" s="2">
         <v>2812</v>
@@ -2623,13 +2629,13 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C113" s="2">
-        <v>2997</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2645,13 +2651,13 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C115" s="2">
-        <v>3066</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2659,10 +2665,10 @@
         <v>88</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C116" s="2">
-        <v>3175</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2670,10 +2676,10 @@
         <v>89</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C117" s="2">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2681,7 +2687,7 @@
         <v>90</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" s="2">
         <v>3176</v>
@@ -2692,10 +2698,10 @@
         <v>91</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C119" s="2">
-        <v>3458</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2703,10 +2709,10 @@
         <v>92</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C120" s="2">
-        <v>3796</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2714,18 +2720,18 @@
         <v>93</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C121" s="2">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C122" s="2">
         <v>3797</v>
@@ -2733,10 +2739,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C123" s="2">
         <v>3797</v>
@@ -2744,21 +2750,21 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C124" s="2">
-        <v>3798</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C125" s="2">
         <v>3798</v>
@@ -2766,10 +2772,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C126" s="2">
         <v>3798</v>
@@ -2780,10 +2786,10 @@
         <v>94</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2">
-        <v>4175</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2791,10 +2797,10 @@
         <v>95</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C128" s="2">
-        <v>4176</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2802,10 +2808,10 @@
         <v>96</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C129" s="2">
-        <v>4177</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2813,10 +2819,10 @@
         <v>97</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C130" s="2">
-        <v>4190</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2824,40 +2830,40 @@
         <v>98</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C131" s="2">
-        <v>4195</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="C132" s="2">
-        <v>4208</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C133" s="2">
-        <v>4221</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="C134" s="2">
         <v>4221</v>
@@ -2868,7 +2874,7 @@
         <v>100</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C135" s="2">
         <v>4221</v>
@@ -2876,10 +2882,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C136" s="2">
         <v>4221</v>
@@ -2890,10 +2896,10 @@
         <v>101</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C137" s="2">
-        <v>4227</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2901,10 +2907,10 @@
         <v>102</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C138" s="2">
-        <v>4258</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2912,7 +2918,7 @@
         <v>103</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C139" s="2">
         <v>4258</v>
@@ -2920,10 +2926,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" s="2">
         <v>4258</v>
@@ -2931,10 +2937,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C141" s="2">
         <v>4258</v>
@@ -2942,10 +2948,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C142" s="2">
         <v>4258</v>
@@ -2953,10 +2959,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C143" s="2">
         <v>4258</v>
@@ -2967,10 +2973,10 @@
         <v>106</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C144" s="2">
-        <v>4302</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2978,10 +2984,10 @@
         <v>107</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C145" s="2">
-        <v>4380</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2989,10 +2995,10 @@
         <v>108</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C146" s="2">
-        <v>4390</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3000,18 +3006,18 @@
         <v>109</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C147" s="2">
-        <v>4581</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C148" s="2">
         <v>4581</v>
@@ -3022,10 +3028,10 @@
         <v>110</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C149" s="2">
-        <v>4685</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3033,10 +3039,10 @@
         <v>111</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C150" s="2">
-        <v>4746</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3044,7 +3050,7 @@
         <v>112</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C151" s="2">
         <v>4746</v>
@@ -3055,32 +3061,32 @@
         <v>113</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C152" s="2">
-        <v>4747</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C153" s="2">
-        <v>4757</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C154" s="2">
-        <v>5039</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3088,10 +3094,10 @@
         <v>115</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C155" s="2">
-        <v>5062</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3099,10 +3105,10 @@
         <v>116</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C156" s="2">
-        <v>5131</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3110,21 +3116,21 @@
         <v>117</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C157" s="2">
-        <v>5135</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C158" s="2">
-        <v>5201</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3132,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C159" s="2">
         <v>5201</v>
@@ -3140,21 +3146,21 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C160" s="2">
-        <v>5240</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C161" s="2">
         <v>5240</v>
@@ -3165,7 +3171,7 @@
         <v>119</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C162" s="2">
         <v>5240</v>
@@ -3173,10 +3179,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C163" s="2">
         <v>5240</v>
@@ -3184,10 +3190,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C164" s="2">
         <v>5240</v>
@@ -3195,10 +3201,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C165" s="2">
         <v>5240</v>
@@ -3209,10 +3215,10 @@
         <v>122</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C166" s="2">
-        <v>5472</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3220,7 +3226,7 @@
         <v>123</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C167" s="2">
         <v>5472</v>
@@ -3228,10 +3234,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C168" s="2">
         <v>5472</v>
@@ -3239,10 +3245,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C169" s="2">
         <v>5472</v>
@@ -3250,24 +3256,24 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C170" s="2">
-        <v>5754</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="C171" s="2">
-        <v>5854</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3275,10 +3281,10 @@
         <v>126</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="C172" s="2">
-        <v>5886</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3286,10 +3292,10 @@
         <v>127</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C173" s="2">
-        <v>5924</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3297,40 +3303,40 @@
         <v>128</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C174" s="2">
-        <v>5927</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="C175" s="2">
-        <v>6120</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="C176" s="2">
-        <v>6886</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C177" s="2">
         <v>6886</v>
@@ -3341,10 +3347,10 @@
         <v>130</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C178" s="2">
-        <v>7307</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3352,10 +3358,10 @@
         <v>131</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C179" s="2">
-        <v>7416</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3363,10 +3369,10 @@
         <v>132</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C180" s="2">
-        <v>7805</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3374,10 +3380,10 @@
         <v>133</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C181" s="2">
-        <v>8021</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3385,7 +3391,7 @@
         <v>134</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C182" s="2">
         <v>8021</v>
@@ -3396,7 +3402,7 @@
         <v>135</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C183" s="2">
         <v>8021</v>
@@ -3407,7 +3413,7 @@
         <v>136</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C184" s="2">
         <v>8021</v>
@@ -3418,7 +3424,7 @@
         <v>137</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C185" s="2">
         <v>8021</v>
@@ -3429,7 +3435,7 @@
         <v>138</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C186" s="2">
         <v>8021</v>
@@ -3440,10 +3446,10 @@
         <v>139</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C187" s="2">
-        <v>8074</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3451,10 +3457,10 @@
         <v>140</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C188" s="2">
-        <v>8075</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3462,10 +3468,10 @@
         <v>141</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C189" s="2">
-        <v>8154</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3473,7 +3479,7 @@
         <v>142</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C190" s="2">
         <v>8154</v>
@@ -3481,21 +3487,21 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="C191" s="2">
-        <v>8310</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C192" s="2">
         <v>8310</v>
@@ -3503,24 +3509,24 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="C193" s="2">
-        <v>8316</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="C194" s="2">
-        <v>8514</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3528,7 +3534,7 @@
         <v>144</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C195" s="2">
         <v>8514</v>
@@ -3539,7 +3545,7 @@
         <v>145</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C196" s="2">
         <v>8514</v>
@@ -3550,7 +3556,7 @@
         <v>146</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C197" s="2">
         <v>8514</v>
@@ -3561,7 +3567,7 @@
         <v>147</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C198" s="2">
         <v>8514</v>
@@ -3572,7 +3578,7 @@
         <v>148</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C199" s="2">
         <v>8514</v>
@@ -3583,10 +3589,10 @@
         <v>149</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C200" s="2">
-        <v>8677</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3594,7 +3600,7 @@
         <v>150</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C201" s="2">
         <v>8677</v>
@@ -3616,10 +3622,10 @@
         <v>151</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C203" s="2">
-        <v>8749</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3627,10 +3633,10 @@
         <v>152</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="C204" s="2">
-        <v>8750</v>
+        <v>8749</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3638,20 +3644,31 @@
         <v>153</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>335</v>
+        <v>190</v>
       </c>
       <c r="C205" s="2">
-        <v>8753</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C206" s="2">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" s="2">
         <v>8753</v>
       </c>
     </row>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -25,12 +25,12 @@
     <t>cviciciUcitIdno</t>
   </si>
   <si>
+    <t>Fyzika pevných látek I</t>
+  </si>
+  <si>
     <t>Základy počítačové fyziky</t>
   </si>
   <si>
-    <t>Fyzika pevných látek I</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
@@ -49,27 +49,27 @@
     <t>Průběžná pedagogická praxe ZŠ</t>
   </si>
   <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
     <t>Proseminář řešení fyzikálních úloh</t>
   </si>
   <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
     <t>Didaktická a laboratorní technika</t>
   </si>
   <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
     <t>Souvislá pedagogická praxe II - ZŠ</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Exkurze</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
@@ -82,6 +82,18 @@
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
@@ -91,39 +103,27 @@
     <t>Odborný seminář katedry A</t>
   </si>
   <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
     <t>Seminář katedry II</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
@@ -133,60 +133,60 @@
     <t>VK - Geografická exkurze v ČR (5 dní)</t>
   </si>
   <si>
+    <t>Dějiny chemie</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
-    <t>Dějiny chemie</t>
+    <t>Experimentální využití elmg. vln B</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln F</t>
   </si>
   <si>
     <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
-    <t>Řešení obvodu RLC</t>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
   </si>
   <si>
     <t>Praktikum mikrovlnné techniky - aplikace</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln B</t>
-  </si>
-  <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
+    <t>Počítačové modelování III</t>
+  </si>
+  <si>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
+    <t>Programování A</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>VK-Fyzikální seminář</t>
+  </si>
+  <si>
     <t>Počítačové modelování II</t>
   </si>
   <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
-    <t>Počítačové modelování III</t>
-  </si>
-  <si>
-    <t>Počítačové modelování I</t>
-  </si>
-  <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
-    <t>Programování A</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Základy financí</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -220,16 +220,13 @@
     <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
     <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
@@ -239,18 +236,21 @@
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
+    <t>Algologie</t>
+  </si>
+  <si>
     <t>Limnobiologie</t>
   </si>
   <si>
     <t>Environmentální legislativa</t>
   </si>
   <si>
-    <t>Algologie</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
@@ -317,24 +317,24 @@
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
+    <t>Matematika I</t>
+  </si>
+  <si>
     <t>Úvod do fyziky</t>
   </si>
   <si>
-    <t>Matematika I</t>
-  </si>
-  <si>
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Moderní elektroanal. met. - prakt. kurz</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
-    <t>PVK - Fyzikálně chemická cvičení A</t>
-  </si>
-  <si>
-    <t>Moderní elektroanal. met. - prakt. kurz</t>
-  </si>
-  <si>
     <t>Laboratorní cvičení z fyzikální chemie</t>
   </si>
   <si>
@@ -374,24 +374,24 @@
     <t>Praktikum validace analytických metod</t>
   </si>
   <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
     <t>Životní prostředí a udržitelný rozvoj</t>
   </si>
   <si>
-    <t>Lokální a regionální rozvoj</t>
+    <t>English for Science</t>
   </si>
   <si>
     <t>Terénní cvičení ze SG</t>
   </si>
   <si>
-    <t>English for Science</t>
+    <t>Zoologické terénní cvičení</t>
   </si>
   <si>
     <t>Ornitologie</t>
   </si>
   <si>
-    <t>Zoologické terénní cvičení</t>
-  </si>
-  <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
@@ -419,24 +419,24 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
     <t>Souvislá pedagogická praxe II - SŠ</t>
   </si>
   <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe I - SŠ</t>
-  </si>
-  <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
@@ -452,27 +452,27 @@
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
-    <t>Data Analysis and Visualisation</t>
+    <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
     <t>Vybrané partie z matematiky</t>
   </si>
   <si>
-    <t>Pravděpodobnost a statistika I</t>
-  </si>
-  <si>
     <t>Podniková ekonomika</t>
   </si>
   <si>
@@ -482,63 +482,63 @@
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
+    <t>K839</t>
+  </si>
+  <si>
     <t>K503</t>
   </si>
   <si>
-    <t>K839</t>
+    <t>5DEMO</t>
   </si>
   <si>
     <t>FDEMO</t>
   </si>
   <si>
-    <t>5DEMO</t>
-  </si>
-  <si>
     <t>P335</t>
   </si>
   <si>
     <t>K312</t>
   </si>
   <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
     <t>KB502</t>
   </si>
   <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N028</t>
-  </si>
-  <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>M200</t>
-  </si>
-  <si>
     <t>P732</t>
   </si>
   <si>
+    <t>P841</t>
+  </si>
+  <si>
     <t>K622</t>
   </si>
   <si>
+    <t>K521</t>
+  </si>
+  <si>
     <t>PA31</t>
   </si>
   <si>
+    <t>P736</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
     <t>KA35</t>
   </si>
   <si>
-    <t>P736</t>
-  </si>
-  <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>P841</t>
-  </si>
-  <si>
-    <t>P622</t>
-  </si>
-  <si>
     <t>P365</t>
   </si>
   <si>
@@ -548,72 +548,72 @@
     <t>K414</t>
   </si>
   <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>K602</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
     <t>TEP</t>
   </si>
   <si>
-    <t>KKM</t>
-  </si>
-  <si>
     <t>P952</t>
   </si>
   <si>
     <t>P531</t>
   </si>
   <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
     <t>P607</t>
   </si>
   <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
     <t>PA52</t>
   </si>
   <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
     <t>M214</t>
   </si>
   <si>
@@ -623,75 +623,75 @@
     <t>0101</t>
   </si>
   <si>
+    <t>KN16</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
     <t>N304</t>
   </si>
   <si>
-    <t>KN16</t>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0237</t>
   </si>
   <si>
     <t>0212</t>
   </si>
   <si>
-    <t>0214</t>
+    <t>0211</t>
   </si>
   <si>
     <t>0207</t>
   </si>
   <si>
-    <t>0237</t>
-  </si>
-  <si>
     <t>0175</t>
   </si>
   <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <t>0218</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
+    <t>P522</t>
+  </si>
+  <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
+    <t>P401</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>K103</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>K206</t>
   </si>
   <si>
     <t>P206</t>
   </si>
   <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
-    <t>P401</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>K107</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>K103</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>P406</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -701,12 +701,12 @@
     <t>0109</t>
   </si>
   <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
-    <t>ZFIN</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
@@ -716,63 +716,63 @@
     <t>BP423</t>
   </si>
   <si>
+    <t>P323</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
     <t>N051</t>
   </si>
   <si>
-    <t>N032</t>
-  </si>
-  <si>
-    <t>K110</t>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>AP03</t>
   </si>
   <si>
     <t>AP05</t>
   </si>
   <si>
-    <t>PD202</t>
-  </si>
-  <si>
-    <t>AP03</t>
+    <t>N023</t>
   </si>
   <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
+    <t>P420</t>
   </si>
   <si>
     <t>P328</t>
   </si>
   <si>
+    <t>K507</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
     <t>P525</t>
   </si>
   <si>
-    <t>P420</t>
-  </si>
-  <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>BK108</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
     <t>N036</t>
   </si>
   <si>
-    <t>K507</t>
-  </si>
-  <si>
     <t>N001</t>
   </si>
   <si>
@@ -848,36 +848,36 @@
     <t>PSP</t>
   </si>
   <si>
+    <t>K106</t>
+  </si>
+  <si>
     <t>P112</t>
   </si>
   <si>
-    <t>K106</t>
-  </si>
-  <si>
     <t>P106</t>
   </si>
   <si>
     <t>0150</t>
   </si>
   <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
+    <t>P517</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
     <t>P527</t>
   </si>
   <si>
-    <t>P506</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>N029</t>
-  </si>
-  <si>
-    <t>P517</t>
-  </si>
-  <si>
-    <t>P532</t>
-  </si>
-  <si>
     <t>0152</t>
   </si>
   <si>
@@ -887,12 +887,12 @@
     <t>N049</t>
   </si>
   <si>
+    <t>KN46</t>
+  </si>
+  <si>
     <t>N005</t>
   </si>
   <si>
-    <t>KN46</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -917,10 +917,13 @@
     <t>M208</t>
   </si>
   <si>
+    <t>P861</t>
+  </si>
+  <si>
     <t>P839</t>
   </si>
   <si>
-    <t>P861</t>
+    <t>M101</t>
   </si>
   <si>
     <t>M203</t>
@@ -929,30 +932,27 @@
     <t>BK401</t>
   </si>
   <si>
-    <t>M101</t>
+    <t>E403</t>
+  </si>
+  <si>
+    <t>B401</t>
   </si>
   <si>
     <t>M312</t>
   </si>
   <si>
-    <t>B401</t>
-  </si>
-  <si>
-    <t>E403</t>
+    <t>KB427</t>
+  </si>
+  <si>
+    <t>PB427</t>
   </si>
   <si>
     <t>MA205</t>
   </si>
   <si>
-    <t>KB427</t>
-  </si>
-  <si>
     <t>N060</t>
   </si>
   <si>
-    <t>PB427</t>
-  </si>
-  <si>
     <t>M317</t>
   </si>
   <si>
@@ -974,24 +974,24 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>P108</t>
   </si>
   <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>P707A</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
     <t>P707B</t>
   </si>
   <si>
-    <t>P705</t>
-  </si>
-  <si>
-    <t>P707A</t>
-  </si>
-  <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -1004,25 +1004,25 @@
     <t>APR1</t>
   </si>
   <si>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
-    <t>EMLR</t>
-  </si>
-  <si>
-    <t>APR2</t>
-  </si>
-  <si>
     <t>EDMR</t>
   </si>
   <si>
-    <t>EDAV</t>
+    <t>K413</t>
   </si>
   <si>
     <t>P232</t>
-  </si>
-  <si>
-    <t>K413</t>
   </si>
   <si>
     <t>PEK</t>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>162</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>165</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>179</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>180</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>181</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>182</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>183</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>184</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>185</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>187</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>188</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>189</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>190</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>193</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>194</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>195</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>196</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>197</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>198</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>203</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>213</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>214</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>219</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>222</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>224</v>
@@ -2236,7 +2236,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C77" s="2">
         <v>1108</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="2">
         <v>1383</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>233</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>234</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>235</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>236</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>237</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>247</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>248</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>249</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>251</v>
@@ -2577,7 +2577,7 @@
         <v>67</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" s="2">
         <v>2757</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="C134" s="2">
         <v>4221</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C135" s="2">
         <v>4221</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C136" s="2">
         <v>4221</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="C137" s="2">
         <v>4221</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>283</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>284</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>285</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>286</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C154" s="2">
         <v>4757</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>300</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>301</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>302</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>303</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>306</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>309</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>310</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>311</v>
@@ -3281,7 +3281,7 @@
         <v>126</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C172" s="2">
         <v>5854</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C176" s="2">
         <v>6120</v>
@@ -3490,7 +3490,7 @@
         <v>143</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C191" s="2">
         <v>8154</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C192" s="2">
         <v>8310</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C193" s="2">
         <v>8310</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="C201" s="2">
         <v>8677</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="C202" s="2">
         <v>8677</v>
@@ -3644,7 +3644,7 @@
         <v>153</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C205" s="2">
         <v>8750</v>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -25,12 +25,12 @@
     <t>cviciciUcitIdno</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
@@ -40,34 +40,37 @@
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
     <t>Diplomová práce I</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
-  </si>
-  <si>
     <t>Průběžná pedagogická praxe ZŠ</t>
   </si>
   <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
     <t>Exkurze</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Didaktická a laboratorní technika</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
+    <t>Vybrané partie z fyziky</t>
   </si>
   <si>
     <t>Matematický proseminář</t>
@@ -76,54 +79,51 @@
     <t>Diplomový seminář</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
-    <t>Seminář katedry</t>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
@@ -133,10 +133,25 @@
     <t>VK - Geografická exkurze v ČR (5 dní)</t>
   </si>
   <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
     <t>Dějiny chemie</t>
   </si>
   <si>
-    <t>Didaktika chemie II - SŠ</t>
+    <t>Vybrané matematické metody ve fyzice</t>
+  </si>
+  <si>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
   </si>
   <si>
     <t>Experimentální využití elmg. vln B</t>
@@ -145,48 +160,33 @@
     <t>Řešení obvodu RLC</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
-    <t>Praktikum mikrovlnné techniky - aplikace</t>
-  </si>
-  <si>
-    <t>VK-Programování ATMEL I</t>
-  </si>
-  <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
+    <t>Programování A</t>
+  </si>
+  <si>
     <t>Počítačové modelování III</t>
   </si>
   <si>
     <t>PVK - Hromadné zpracování dat</t>
   </si>
   <si>
-    <t>Programování A</t>
-  </si>
-  <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>Počítačové modelování I</t>
-  </si>
-  <si>
     <t>VK-Fyzikální seminář</t>
   </si>
   <si>
-    <t>Počítačové modelování II</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -217,40 +217,40 @@
     <t>Obecná parazitologie</t>
   </si>
   <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
     <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
     <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
+    <t>Limnobiologie</t>
+  </si>
+  <si>
+    <t>Environmentální legislativa</t>
+  </si>
+  <si>
     <t>Algologie</t>
   </si>
   <si>
-    <t>Limnobiologie</t>
-  </si>
-  <si>
-    <t>Environmentální legislativa</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
@@ -275,12 +275,12 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>VK - Konverzace němčiny pro geografy</t>
+  </si>
+  <si>
     <t>VK-Němčina pro geografy</t>
   </si>
   <si>
-    <t>VK - Konverzace němčiny pro geografy</t>
-  </si>
-  <si>
     <t>Medicína katastrof</t>
   </si>
   <si>
@@ -317,27 +317,27 @@
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
+    <t>Úvod do fyziky</t>
+  </si>
+  <si>
     <t>Matematika I</t>
   </si>
   <si>
-    <t>Úvod do fyziky</t>
-  </si>
-  <si>
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Fyzikálně chemická cvičení</t>
+  </si>
+  <si>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
     <t>Moderní elektroanal. met. - prakt. kurz</t>
   </si>
   <si>
-    <t>PVK - Fyzikálně chemická cvičení A</t>
-  </si>
-  <si>
-    <t>Fyzikálně chemická cvičení</t>
-  </si>
-  <si>
-    <t>Laboratorní cvičení z fyzikální chemie</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly z geografie krajiny</t>
   </si>
   <si>
@@ -353,12 +353,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi II</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi I</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi II</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -374,16 +374,19 @@
     <t>Praktikum validace analytických metod</t>
   </si>
   <si>
+    <t>Životní prostředí a udržitelný rozvoj</t>
+  </si>
+  <si>
+    <t>Terénní cvičení ze SG</t>
+  </si>
+  <si>
+    <t>English for Science</t>
+  </si>
+  <si>
     <t>Lokální a regionální rozvoj</t>
   </si>
   <si>
-    <t>Životní prostředí a udržitelný rozvoj</t>
-  </si>
-  <si>
-    <t>English for Science</t>
-  </si>
-  <si>
-    <t>Terénní cvičení ze SG</t>
+    <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
     <t>Zoologické terénní cvičení</t>
@@ -392,9 +395,6 @@
     <t>Ornitologie</t>
   </si>
   <si>
-    <t>Srovnávací anatom. a morfol. obratlovců</t>
-  </si>
-  <si>
     <t>Biomedicínské mat.- přípr., char., a vl.</t>
   </si>
   <si>
@@ -419,24 +419,24 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe I - SŠ</t>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
   </si>
   <si>
     <t>Průběžná pedagogická praxe</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
@@ -449,24 +449,24 @@
     <t>Biologie půdních mikroorganismů</t>
   </si>
   <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
-    <t>Algoritmizace a programování II</t>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -482,61 +482,64 @@
     <t>Objektově orientované návrhové vzory</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
-    <t>K503</t>
+    <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
-    <t>FDEMO</t>
-  </si>
-  <si>
     <t>P335</t>
   </si>
   <si>
     <t>K312</t>
   </si>
   <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
     <t>PB502</t>
   </si>
   <si>
-    <t>M200</t>
-  </si>
-  <si>
-    <t>N028</t>
-  </si>
-  <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>KB502</t>
-  </si>
-  <si>
     <t>P732</t>
   </si>
   <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>P736</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
+    <t>K622</t>
+  </si>
+  <si>
     <t>P841</t>
   </si>
   <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>PA31</t>
-  </si>
-  <si>
-    <t>P736</t>
-  </si>
-  <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>KA35</t>
+    <t>K414</t>
   </si>
   <si>
     <t>P365</t>
@@ -545,75 +548,72 @@
     <t>K505</t>
   </si>
   <si>
-    <t>K414</t>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>PD203</t>
   </si>
   <si>
     <t>P508</t>
   </si>
   <si>
-    <t>P602</t>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>K422</t>
   </si>
   <si>
     <t>K602</t>
   </si>
   <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
     <t>P427</t>
   </si>
   <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
     <t>M214</t>
   </si>
   <si>
@@ -623,43 +623,55 @@
     <t>0101</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
     <t>KN16</t>
   </si>
   <si>
-    <t>KN22</t>
-  </si>
-  <si>
     <t>N304</t>
   </si>
   <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
     <t>0218</t>
   </si>
   <si>
     <t>0214</t>
   </si>
   <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <t>0207</t>
-  </si>
-  <si>
-    <t>0175</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P103</t>
   </si>
   <si>
     <t>P401</t>
@@ -668,30 +680,18 @@
     <t>K406</t>
   </si>
   <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
     <t>K103</t>
   </si>
   <si>
-    <t>P203</t>
-  </si>
-  <si>
     <t>P406</t>
   </si>
   <si>
-    <t>K107</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>P206</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -713,33 +713,33 @@
     <t>K409</t>
   </si>
   <si>
+    <t>BK423</t>
+  </si>
+  <si>
     <t>BP423</t>
   </si>
   <si>
     <t>P323</t>
   </si>
   <si>
+    <t>N032</t>
+  </si>
+  <si>
     <t>P303</t>
   </si>
   <si>
+    <t>N051</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
-    <t>N032</t>
-  </si>
-  <si>
-    <t>BK423</t>
-  </si>
-  <si>
-    <t>N051</t>
+    <t>AP03</t>
   </si>
   <si>
     <t>PD202</t>
   </si>
   <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>AP05</t>
   </si>
   <si>
@@ -749,36 +749,36 @@
     <t>ME200</t>
   </si>
   <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>P328</t>
+  </si>
+  <si>
+    <t>P525</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
     <t>P420</t>
   </si>
   <si>
-    <t>P328</t>
-  </si>
-  <si>
     <t>K507</t>
   </si>
   <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
-    <t>BK108</t>
-  </si>
-  <si>
-    <t>P525</t>
-  </si>
-  <si>
     <t>N036</t>
   </si>
   <si>
+    <t>M105</t>
+  </si>
+  <si>
     <t>N001</t>
   </si>
   <si>
-    <t>M105</t>
-  </si>
-  <si>
     <t>E121</t>
   </si>
   <si>
@@ -800,12 +800,12 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>0130</t>
+  </si>
+  <si>
     <t>0126</t>
   </si>
   <si>
-    <t>0130</t>
-  </si>
-  <si>
     <t>P518</t>
   </si>
   <si>
@@ -827,12 +827,12 @@
     <t>K403</t>
   </si>
   <si>
+    <t>P419</t>
+  </si>
+  <si>
     <t>P416</t>
   </si>
   <si>
-    <t>P419</t>
-  </si>
-  <si>
     <t>0088</t>
   </si>
   <si>
@@ -848,36 +848,36 @@
     <t>PSP</t>
   </si>
   <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
     <t>K106</t>
   </si>
   <si>
-    <t>P112</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>P517</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
     <t>N029</t>
   </si>
   <si>
-    <t>P506</t>
-  </si>
-  <si>
-    <t>P517</t>
-  </si>
-  <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>P527</t>
-  </si>
-  <si>
     <t>0152</t>
   </si>
   <si>
@@ -887,21 +887,21 @@
     <t>N049</t>
   </si>
   <si>
+    <t>N005</t>
+  </si>
+  <si>
     <t>KN46</t>
   </si>
   <si>
-    <t>N005</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
+    <t>0171</t>
+  </si>
+  <si>
     <t>0164</t>
   </si>
   <si>
-    <t>0171</t>
-  </si>
-  <si>
     <t>PD101</t>
   </si>
   <si>
@@ -917,42 +917,42 @@
     <t>M208</t>
   </si>
   <si>
+    <t>P839</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>P839</t>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>E403</t>
   </si>
   <si>
     <t>M101</t>
   </si>
   <si>
-    <t>M203</t>
-  </si>
-  <si>
     <t>BK401</t>
   </si>
   <si>
-    <t>E403</t>
-  </si>
-  <si>
-    <t>B401</t>
-  </si>
-  <si>
-    <t>M312</t>
+    <t>N060</t>
   </si>
   <si>
     <t>KB427</t>
   </si>
   <si>
+    <t>MA205</t>
+  </si>
+  <si>
     <t>PB427</t>
   </si>
   <si>
-    <t>MA205</t>
-  </si>
-  <si>
-    <t>N060</t>
-  </si>
-  <si>
     <t>M317</t>
   </si>
   <si>
@@ -974,24 +974,24 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P707A</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
-    <t>P707A</t>
+    <t>P707B</t>
   </si>
   <si>
     <t>P705</t>
   </si>
   <si>
-    <t>P707B</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -1001,22 +1001,22 @@
     <t>ME301</t>
   </si>
   <si>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
     <t>APR1</t>
   </si>
   <si>
-    <t>APR2</t>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EPYR</t>
   </si>
   <si>
     <t>EMLR</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>EDMR</t>
   </si>
   <si>
     <t>K413</t>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>163</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>179</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>180</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>181</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>182</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>183</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>184</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>185</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>187</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>188</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>189</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>190</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>191</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>194</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>195</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>196</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>197</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>198</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>204</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>213</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>214</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>219</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>220</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>221</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>222</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>223</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>224</v>
@@ -2236,7 +2236,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C77" s="2">
         <v>1108</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>233</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>234</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>235</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>236</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>237</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2">
         <v>1590</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>245</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>246</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>247</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>248</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>249</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>250</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>251</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C108" s="2">
         <v>2757</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C133" s="2">
         <v>4208</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="C136" s="2">
         <v>4221</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="C137" s="2">
         <v>4221</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>283</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>284</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>286</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C154" s="2">
         <v>4757</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>300</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>301</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>302</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>303</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>306</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>307</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>309</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>310</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>311</v>
@@ -3490,7 +3490,7 @@
         <v>143</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C191" s="2">
         <v>8154</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C192" s="2">
         <v>8310</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C193" s="2">
         <v>8310</v>
@@ -3600,7 +3600,7 @@
         <v>62</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C201" s="2">
         <v>8677</v>
@@ -3644,7 +3644,7 @@
         <v>153</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C205" s="2">
         <v>8750</v>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -37,93 +37,93 @@
     <t>Geometrie</t>
   </si>
   <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
+    <t>Diplomová práce I</t>
+  </si>
+  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
-  </si>
-  <si>
-    <t>Diplomová práce I</t>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
     <t>Průběžná pedagogická praxe ZŠ</t>
   </si>
   <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Didaktická a laboratorní technika</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Exkurze</t>
+    <t>Diplomový seminář</t>
+  </si>
+  <si>
+    <t>Matematický proseminář</t>
   </si>
   <si>
     <t>Vybrané partie z fyziky</t>
   </si>
   <si>
-    <t>Matematický proseminář</t>
-  </si>
-  <si>
-    <t>Diplomový seminář</t>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
     <t>Seminář katedry</t>
   </si>
   <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
@@ -139,54 +139,54 @@
     <t>Dějiny chemie</t>
   </si>
   <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln B</t>
+  </si>
+  <si>
     <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
     <t>Praktikum mikrovlnné techniky - aplikace</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln B</t>
-  </si>
-  <si>
-    <t>Řešení obvodu RLC</t>
+    <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
-    <t>Vybrané partie z teoretické fyziky II</t>
+    <t>Programování A</t>
+  </si>
+  <si>
+    <t>Počítačové modelování III</t>
   </si>
   <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
+    <t>VK-Fyzikální seminář</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
     <t>Počítačové modelování II</t>
   </si>
   <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>Programování A</t>
-  </si>
-  <si>
-    <t>Počítačové modelování III</t>
-  </si>
-  <si>
     <t>PVK - Hromadné zpracování dat</t>
   </si>
   <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -211,43 +211,43 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
     <t>Somatologie</t>
   </si>
   <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
-    <t>Biologie a ekologie člověka I</t>
+    <t>Obecná zoologie</t>
   </si>
   <si>
     <t>Ekofyziologie</t>
   </si>
   <si>
-    <t>Obecná zoologie</t>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
-  </si>
-  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
+    <t>Environmentální legislativa</t>
+  </si>
+  <si>
     <t>Limnobiologie</t>
   </si>
   <si>
-    <t>Environmentální legislativa</t>
-  </si>
-  <si>
     <t>Algologie</t>
   </si>
   <si>
@@ -275,12 +275,12 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>VK-Němčina pro geografy</t>
+  </si>
+  <si>
     <t>VK - Konverzace němčiny pro geografy</t>
   </si>
   <si>
-    <t>VK-Němčina pro geografy</t>
-  </si>
-  <si>
     <t>Medicína katastrof</t>
   </si>
   <si>
@@ -317,27 +317,27 @@
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
+    <t>Matematika I</t>
+  </si>
+  <si>
     <t>Úvod do fyziky</t>
   </si>
   <si>
-    <t>Matematika I</t>
-  </si>
-  <si>
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
+  </si>
+  <si>
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
-    <t>Laboratorní cvičení z fyzikální chemie</t>
+    <t>Moderní elektroanal. met. - prakt. kurz</t>
   </si>
   <si>
     <t>PVK - Fyzikálně chemická cvičení A</t>
   </si>
   <si>
-    <t>Moderní elektroanal. met. - prakt. kurz</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly z geografie krajiny</t>
   </si>
   <si>
@@ -389,12 +389,12 @@
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
+    <t>Ornitologie</t>
+  </si>
+  <si>
     <t>Zoologické terénní cvičení</t>
   </si>
   <si>
-    <t>Ornitologie</t>
-  </si>
-  <si>
     <t>Biomedicínské mat.- přípr., char., a vl.</t>
   </si>
   <si>
@@ -419,21 +419,21 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Souvislá pedagogická praxe I - SŠ</t>
   </si>
   <si>
-    <t>Doučování</t>
-  </si>
-  <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
     <t>Průběžná pedagogická praxe</t>
   </si>
   <si>
@@ -443,10 +443,16 @@
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Biologie půdních mikroorganismů</t>
+  </si>
+  <si>
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
-    <t>Biologie půdních mikroorganismů</t>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
   </si>
   <si>
     <t>Algoritmizace a programování II</t>
@@ -455,18 +461,12 @@
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
     <t>Algoritmizace a programování I</t>
   </si>
   <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -488,132 +488,132 @@
     <t>K839</t>
   </si>
   <si>
+    <t>5DEMO</t>
+  </si>
+  <si>
     <t>FDEMO</t>
   </si>
   <si>
-    <t>5DEMO</t>
-  </si>
-  <si>
     <t>P335</t>
   </si>
   <si>
     <t>K312</t>
   </si>
   <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
     <t>KB502</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>M200</t>
-  </si>
-  <si>
-    <t>N028</t>
-  </si>
-  <si>
-    <t>PB502</t>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>P841</t>
+  </si>
+  <si>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>P736</t>
   </si>
   <si>
     <t>P732</t>
   </si>
   <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>PA31</t>
-  </si>
-  <si>
-    <t>KA35</t>
-  </si>
-  <si>
-    <t>P736</t>
-  </si>
-  <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>P841</t>
+    <t>K505</t>
+  </si>
+  <si>
+    <t>P365</t>
   </si>
   <si>
     <t>K414</t>
   </si>
   <si>
-    <t>P365</t>
-  </si>
-  <si>
-    <t>K505</t>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P427</t>
   </si>
   <si>
     <t>P602</t>
   </si>
   <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
     <t>P607</t>
   </si>
   <si>
+    <t>K602</t>
+  </si>
+  <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
     <t>PD203</t>
   </si>
   <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
     <t>K724</t>
   </si>
   <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
     <t>M214</t>
   </si>
   <si>
@@ -632,66 +632,66 @@
     <t>N304</t>
   </si>
   <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
     <t>0212</t>
   </si>
   <si>
     <t>0175</t>
   </si>
   <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
     <t>0207</t>
   </si>
   <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <t>0218</t>
-  </si>
-  <si>
-    <t>0214</t>
+    <t>P522</t>
+  </si>
+  <si>
+    <t>P422</t>
   </si>
   <si>
     <t>K305</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
-    <t>P522</t>
+    <t>K103</t>
+  </si>
+  <si>
+    <t>P401</t>
   </si>
   <si>
     <t>K107</t>
   </si>
   <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
     <t>K206</t>
   </si>
   <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>P401</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>P206</t>
-  </si>
-  <si>
-    <t>K103</t>
-  </si>
-  <si>
-    <t>P406</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -701,78 +701,78 @@
     <t>0109</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
     <t>K409</t>
   </si>
   <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>BP423</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>BP423</t>
-  </si>
-  <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>N032</t>
-  </si>
-  <si>
-    <t>P303</t>
+    <t>K110</t>
   </si>
   <si>
     <t>N051</t>
   </si>
   <si>
-    <t>K110</t>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>AP05</t>
   </si>
   <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>PD202</t>
-  </si>
-  <si>
-    <t>AP05</t>
-  </si>
-  <si>
     <t>N023</t>
   </si>
   <si>
     <t>ME200</t>
   </si>
   <si>
+    <t>P525</t>
+  </si>
+  <si>
     <t>BK108</t>
   </si>
   <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
     <t>P328</t>
   </si>
   <si>
-    <t>P525</t>
+    <t>K507</t>
   </si>
   <si>
     <t>P528</t>
   </si>
   <si>
-    <t>K311</t>
-  </si>
-  <si>
     <t>P420</t>
   </si>
   <si>
-    <t>K507</t>
-  </si>
-  <si>
-    <t>N036</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
@@ -800,12 +800,12 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>0126</t>
+  </si>
+  <si>
     <t>0130</t>
   </si>
   <si>
-    <t>0126</t>
-  </si>
-  <si>
     <t>P518</t>
   </si>
   <si>
@@ -824,15 +824,15 @@
     <t>E133</t>
   </si>
   <si>
+    <t>P416</t>
+  </si>
+  <si>
     <t>K403</t>
   </si>
   <si>
     <t>P419</t>
   </si>
   <si>
-    <t>P416</t>
-  </si>
-  <si>
     <t>0088</t>
   </si>
   <si>
@@ -848,36 +848,36 @@
     <t>PSP</t>
   </si>
   <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>K106</t>
+  </si>
+  <si>
     <t>P112</t>
   </si>
   <si>
-    <t>P106</t>
-  </si>
-  <si>
-    <t>K106</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>P517</t>
+  </si>
+  <si>
     <t>P527</t>
   </si>
   <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>P517</t>
+    <t>N029</t>
   </si>
   <si>
     <t>P506</t>
   </si>
   <si>
-    <t>N029</t>
-  </si>
-  <si>
     <t>0152</t>
   </si>
   <si>
@@ -887,12 +887,12 @@
     <t>N049</t>
   </si>
   <si>
+    <t>KN46</t>
+  </si>
+  <si>
     <t>N005</t>
   </si>
   <si>
-    <t>KN46</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -923,33 +923,33 @@
     <t>P861</t>
   </si>
   <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>E403</t>
+  </si>
+  <si>
     <t>M203</t>
   </si>
   <si>
-    <t>B401</t>
-  </si>
-  <si>
-    <t>M312</t>
-  </si>
-  <si>
-    <t>E403</t>
+    <t>BK401</t>
   </si>
   <si>
     <t>M101</t>
   </si>
   <si>
-    <t>BK401</t>
-  </si>
-  <si>
     <t>N060</t>
   </si>
   <si>
+    <t>MA205</t>
+  </si>
+  <si>
     <t>KB427</t>
   </si>
   <si>
-    <t>MA205</t>
-  </si>
-  <si>
     <t>PB427</t>
   </si>
   <si>
@@ -974,21 +974,21 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P707B</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P707A</t>
   </si>
   <si>
-    <t>DOUC</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>P707B</t>
-  </si>
-  <si>
     <t>P705</t>
   </si>
   <si>
@@ -1001,24 +1001,24 @@
     <t>ME301</t>
   </si>
   <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
     <t>APR2</t>
   </si>
   <si>
     <t>EDMR</t>
   </si>
   <si>
+    <t>EDAV</t>
+  </si>
+  <si>
     <t>APR1</t>
   </si>
   <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>EMLR</t>
-  </si>
-  <si>
     <t>K413</t>
   </si>
   <si>
@@ -1028,10 +1028,10 @@
     <t>PEK</t>
   </si>
   <si>
+    <t>KOONV</t>
+  </si>
+  <si>
     <t>OONV</t>
-  </si>
-  <si>
-    <t>KOONV</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>164</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>165</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>178</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>179</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>180</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>181</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>182</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>183</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>184</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>185</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>187</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>188</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>189</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>190</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>192</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>193</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>194</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>197</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>198</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>213</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>222</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>223</v>
@@ -2236,7 +2236,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2">
         <v>1108</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C78" s="2">
         <v>1383</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>233</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>234</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>235</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>236</v>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C88" s="2">
         <v>1590</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2">
         <v>1590</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>245</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>247</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>248</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>249</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C108" s="2">
         <v>2757</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C133" s="2">
         <v>4208</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="C134" s="2">
         <v>4221</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C135" s="2">
         <v>4221</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="C136" s="2">
         <v>4221</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>283</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>284</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C154" s="2">
         <v>4757</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>302</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>303</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>304</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>305</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>306</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>307</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>311</v>
@@ -3281,7 +3281,7 @@
         <v>126</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C172" s="2">
         <v>5854</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C176" s="2">
         <v>6120</v>
@@ -3479,7 +3479,7 @@
         <v>142</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C190" s="2">
         <v>8154</v>
@@ -3490,7 +3490,7 @@
         <v>143</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C191" s="2">
         <v>8154</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C192" s="2">
         <v>8310</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C193" s="2">
         <v>8310</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="C201" s="2">
         <v>8677</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C202" s="2">
         <v>8677</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="C203" s="2">
         <v>8677</v>
@@ -3644,7 +3644,7 @@
         <v>153</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C205" s="2">
         <v>8750</v>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -40,10 +40,16 @@
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
     <t>Diplomová práce I</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum C</t>
   </si>
   <si>
     <t>Didaktická a laboratorní technika</t>
@@ -52,78 +58,72 @@
     <t>Souvislá pedagogická praxe II - ZŠ</t>
   </si>
   <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
     <t>Exkurze</t>
   </si>
   <si>
     <t>Proseminář řešení fyzikálních úloh</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
-  </si>
-  <si>
     <t>Průběžná pedagogická praxe ZŠ</t>
   </si>
   <si>
     <t>Diplomový seminář</t>
   </si>
   <si>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
   </si>
   <si>
     <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
@@ -142,24 +142,24 @@
     <t>Řešení obvodu RLC</t>
   </si>
   <si>
+    <t>Vybrané matematické metody ve fyzice</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
     <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
-    <t>VK-Programování ATMEL I</t>
-  </si>
-  <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
     <t>Experimentální využití elmg. vln F</t>
   </si>
   <si>
-    <t>Praktikum mikrovlnné techniky - aplikace</t>
-  </si>
-  <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
@@ -169,24 +169,24 @@
     <t>Programování A</t>
   </si>
   <si>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
+    <t>VK-Fyzikální seminář</t>
+  </si>
+  <si>
     <t>Počítačové modelování III</t>
   </si>
   <si>
-    <t>Počítačové modelování I</t>
-  </si>
-  <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>Počítačové modelování II</t>
-  </si>
-  <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
@@ -211,46 +211,46 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
     <t>Biologie parazitů</t>
   </si>
   <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
-    <t>Somatologie</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
     <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
+    <t>Limnobiologie</t>
+  </si>
+  <si>
+    <t>Algologie</t>
+  </si>
+  <si>
     <t>Environmentální legislativa</t>
   </si>
   <si>
-    <t>Limnobiologie</t>
-  </si>
-  <si>
-    <t>Algologie</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
@@ -275,12 +275,12 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>VK - Konverzace němčiny pro geografy</t>
+  </si>
+  <si>
     <t>VK-Němčina pro geografy</t>
   </si>
   <si>
-    <t>VK - Konverzace němčiny pro geografy</t>
-  </si>
-  <si>
     <t>Medicína katastrof</t>
   </si>
   <si>
@@ -326,18 +326,18 @@
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Fyzikálně chemická cvičení</t>
+  </si>
+  <si>
+    <t>Moderní elektroanal. met. - prakt. kurz</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
     <t>Laboratorní cvičení z fyzikální chemie</t>
   </si>
   <si>
-    <t>Fyzikálně chemická cvičení</t>
-  </si>
-  <si>
-    <t>Moderní elektroanal. met. - prakt. kurz</t>
-  </si>
-  <si>
-    <t>PVK - Fyzikálně chemická cvičení A</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly z geografie krajiny</t>
   </si>
   <si>
@@ -353,12 +353,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -389,12 +389,12 @@
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
+    <t>Zoologické terénní cvičení</t>
+  </si>
+  <si>
     <t>Ornitologie</t>
   </si>
   <si>
-    <t>Zoologické terénní cvičení</t>
-  </si>
-  <si>
     <t>Biomedicínské mat.- přípr., char., a vl.</t>
   </si>
   <si>
@@ -419,34 +419,46 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Souvislá pedagogická praxe II - SŠ</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Souvislá pedagogická praxe I - SŠ</t>
   </si>
   <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+  </si>
+  <si>
     <t>Biologie půdních mikroorganismů</t>
   </si>
   <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
   </si>
   <si>
     <t>Python and R for Data Science</t>
@@ -455,18 +467,6 @@
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -488,31 +488,37 @@
     <t>K839</t>
   </si>
   <si>
+    <t>FDEMO</t>
+  </si>
+  <si>
     <t>5DEMO</t>
   </si>
   <si>
-    <t>FDEMO</t>
+    <t>K312</t>
   </si>
   <si>
     <t>P335</t>
   </si>
   <si>
-    <t>K312</t>
-  </si>
-  <si>
     <t>N016</t>
   </si>
   <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>KB502</t>
+  </si>
+  <si>
     <t>M200</t>
   </si>
   <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N028</t>
-  </si>
-  <si>
-    <t>KB502</t>
+    <t>P736</t>
+  </si>
+  <si>
+    <t>K521</t>
   </si>
   <si>
     <t>PA31</t>
@@ -521,96 +527,90 @@
     <t>KA35</t>
   </si>
   <si>
+    <t>P622</t>
+  </si>
+  <si>
     <t>P841</t>
   </si>
   <si>
     <t>K622</t>
   </si>
   <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>P736</t>
-  </si>
-  <si>
     <t>P732</t>
   </si>
   <si>
     <t>K505</t>
   </si>
   <si>
+    <t>K414</t>
+  </si>
+  <si>
     <t>P365</t>
   </si>
   <si>
-    <t>K414</t>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>K512</t>
   </si>
   <si>
     <t>K422</t>
   </si>
   <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
-    <t>KKM</t>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P938</t>
   </si>
   <si>
     <t>P509</t>
   </si>
   <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>K602</t>
+  </si>
+  <si>
     <t>P607</t>
   </si>
   <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
     <t>K724</t>
   </si>
   <si>
@@ -623,75 +623,75 @@
     <t>0101</t>
   </si>
   <si>
+    <t>N304</t>
+  </si>
+  <si>
+    <t>KN16</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
-    <t>KN16</t>
-  </si>
-  <si>
-    <t>N304</t>
-  </si>
-  <si>
     <t>0214</t>
   </si>
   <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
     <t>0218</t>
   </si>
   <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0175</t>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
     <t>0237</t>
   </si>
   <si>
-    <t>0207</t>
+    <t>P422</t>
   </si>
   <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>K107</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
     <t>K103</t>
   </si>
   <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>K206</t>
+  </si>
+  <si>
     <t>P401</t>
   </si>
   <si>
-    <t>K107</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>P206</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>P406</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
     <t>N111</t>
   </si>
   <si>
@@ -713,72 +713,72 @@
     <t>K409</t>
   </si>
   <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>BP423</t>
+  </si>
+  <si>
     <t>N032</t>
   </si>
   <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>BP423</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>K110</t>
-  </si>
-  <si>
-    <t>N051</t>
-  </si>
-  <si>
     <t>PD202</t>
   </si>
   <si>
+    <t>AP03</t>
+  </si>
+  <si>
     <t>AP05</t>
   </si>
   <si>
-    <t>AP03</t>
+    <t>ME200</t>
   </si>
   <si>
     <t>N023</t>
   </si>
   <si>
-    <t>ME200</t>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>P328</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>P420</t>
   </si>
   <si>
     <t>P525</t>
   </si>
   <si>
-    <t>BK108</t>
-  </si>
-  <si>
-    <t>K311</t>
+    <t>K507</t>
   </si>
   <si>
     <t>N036</t>
   </si>
   <si>
-    <t>P328</t>
-  </si>
-  <si>
-    <t>K507</t>
-  </si>
-  <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>P420</t>
+    <t>N001</t>
   </si>
   <si>
     <t>M105</t>
   </si>
   <si>
-    <t>N001</t>
-  </si>
-  <si>
     <t>E121</t>
   </si>
   <si>
@@ -800,12 +800,12 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>0130</t>
+  </si>
+  <si>
     <t>0126</t>
   </si>
   <si>
-    <t>0130</t>
-  </si>
-  <si>
     <t>P518</t>
   </si>
   <si>
@@ -827,12 +827,12 @@
     <t>P416</t>
   </si>
   <si>
+    <t>P419</t>
+  </si>
+  <si>
     <t>K403</t>
   </si>
   <si>
-    <t>P419</t>
-  </si>
-  <si>
     <t>0088</t>
   </si>
   <si>
@@ -851,15 +851,24 @@
     <t>P106</t>
   </si>
   <si>
+    <t>P112</t>
+  </si>
+  <si>
     <t>K106</t>
   </si>
   <si>
-    <t>P112</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
     <t>P532</t>
   </si>
   <si>
@@ -869,15 +878,6 @@
     <t>P517</t>
   </si>
   <si>
-    <t>P527</t>
-  </si>
-  <si>
-    <t>N029</t>
-  </si>
-  <si>
-    <t>P506</t>
-  </si>
-  <si>
     <t>0152</t>
   </si>
   <si>
@@ -887,21 +887,21 @@
     <t>N049</t>
   </si>
   <si>
+    <t>N005</t>
+  </si>
+  <si>
     <t>KN46</t>
   </si>
   <si>
-    <t>N005</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>PD101</t>
   </si>
   <si>
@@ -923,36 +923,36 @@
     <t>P861</t>
   </si>
   <si>
+    <t>BK401</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>E403</t>
+  </si>
+  <si>
     <t>B401</t>
   </si>
   <si>
-    <t>M312</t>
-  </si>
-  <si>
-    <t>E403</t>
-  </si>
-  <si>
     <t>M203</t>
   </si>
   <si>
-    <t>BK401</t>
-  </si>
-  <si>
     <t>M101</t>
   </si>
   <si>
     <t>N060</t>
   </si>
   <si>
+    <t>PB427</t>
+  </si>
+  <si>
     <t>MA205</t>
   </si>
   <si>
     <t>KB427</t>
   </si>
   <si>
-    <t>PB427</t>
-  </si>
-  <si>
     <t>M317</t>
   </si>
   <si>
@@ -974,24 +974,24 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>P707B</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>P707A</t>
   </si>
   <si>
-    <t>P705</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -1001,24 +1001,24 @@
     <t>ME301</t>
   </si>
   <si>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
     <t>EMLR</t>
   </si>
   <si>
-    <t>APR2</t>
-  </si>
-  <si>
-    <t>EDMR</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>APR1</t>
-  </si>
-  <si>
     <t>K413</t>
   </si>
   <si>
@@ -1028,10 +1028,10 @@
     <t>PEK</t>
   </si>
   <si>
+    <t>OONV</t>
+  </si>
+  <si>
     <t>KOONV</t>
-  </si>
-  <si>
-    <t>OONV</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>178</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>183</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>184</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>185</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>187</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>188</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>189</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>190</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>191</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>193</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>194</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>195</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>196</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>197</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>198</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>212</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>213</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>219</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>220</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>221</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>222</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>223</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>224</v>
@@ -2236,7 +2236,7 @@
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C77" s="2">
         <v>1108</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>236</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>237</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>238</v>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="C88" s="2">
         <v>1590</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C89" s="2">
         <v>1590</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C90" s="2">
         <v>1590</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="C91" s="2">
         <v>1590</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>245</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>246</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>247</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>249</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>250</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>251</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C108" s="2">
         <v>2757</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C109" s="2">
         <v>2757</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="C134" s="2">
         <v>4221</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C135" s="2">
         <v>4221</v>
@@ -2885,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C136" s="2">
         <v>4221</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C137" s="2">
         <v>4221</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>283</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>284</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>285</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>286</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C154" s="2">
         <v>4757</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>305</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>306</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>311</v>
@@ -3281,7 +3281,7 @@
         <v>126</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C172" s="2">
         <v>5854</v>
@@ -3479,7 +3479,7 @@
         <v>142</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C190" s="2">
         <v>8154</v>
@@ -3490,7 +3490,7 @@
         <v>143</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C191" s="2">
         <v>8154</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C192" s="2">
         <v>8310</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C193" s="2">
         <v>8310</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>334</v>
+        <v>215</v>
       </c>
       <c r="C201" s="2">
         <v>8677</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C202" s="2">
         <v>8677</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="C203" s="2">
         <v>8677</v>
@@ -3644,7 +3644,7 @@
         <v>153</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C205" s="2">
         <v>8750</v>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="649">
   <si>
     <t>nazev</t>
   </si>
@@ -25,111 +25,141 @@
     <t>cviciciUcitIdno</t>
   </si>
   <si>
+    <t>Fyzika pevných látek I</t>
+  </si>
+  <si>
     <t>Základy počítačové fyziky</t>
   </si>
   <si>
-    <t>Fyzika pevných látek I</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
+    <t>Technologie ochrany životního prostředí</t>
+  </si>
+  <si>
     <t>Geometrie</t>
   </si>
   <si>
+    <t>Aktuální biologický seminář I</t>
+  </si>
+  <si>
+    <t>Vědecká komunikace v biologii</t>
+  </si>
+  <si>
+    <t>Zoologické terénní cvičení</t>
+  </si>
+  <si>
+    <t>Diplomový seminář</t>
+  </si>
+  <si>
+    <t>Fylogeneze a systém bezobratlých</t>
+  </si>
+  <si>
+    <t>Botanické terénní cvičení</t>
+  </si>
+  <si>
+    <t>Fylogeneze a systém vyšších rostlin</t>
+  </si>
+  <si>
+    <t>Obecná botanika</t>
+  </si>
+  <si>
+    <t>Geobotanika</t>
+  </si>
+  <si>
+    <t>Bioindikátory</t>
+  </si>
+  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
+    <t>Diplomová práce I</t>
+  </si>
+  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
-    <t>Diplomová práce I</t>
+    <t>Didaktická a laboratorní technika</t>
   </si>
   <si>
     <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
     <t>Fyzikální praktikum C</t>
   </si>
   <si>
-    <t>Didaktická a laboratorní technika</t>
+    <t>Proseminář řešení fyzikálních úloh A</t>
   </si>
   <si>
     <t>Souvislá pedagogická praxe II - ZŠ</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Exkurze</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe ZŠ</t>
-  </si>
-  <si>
-    <t>Diplomový seminář</t>
+    <t>Matematický proseminář</t>
   </si>
   <si>
     <t>Vybrané partie z fyziky</t>
   </si>
   <si>
-    <t>Matematický proseminář</t>
+    <t>Kvantová fyzika I</t>
   </si>
   <si>
     <t>Kvantová fyzika</t>
   </si>
   <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
+    <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
     <t>VK - Geografická exkurze v ČR (5 dní)</t>
   </si>
   <si>
@@ -139,67 +169,268 @@
     <t>Dějiny chemie</t>
   </si>
   <si>
+    <t>Characterization of surface layers using</t>
+  </si>
+  <si>
+    <t>Úvod do fyziky energet. svazků iontů</t>
+  </si>
+  <si>
+    <t>Laboratorní praktikum III</t>
+  </si>
+  <si>
+    <t>Jaderné analytické metody</t>
+  </si>
+  <si>
+    <t>Simulation of the charged particle</t>
+  </si>
+  <si>
+    <t>Fyzika energetických svazků iontů</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum D</t>
+  </si>
+  <si>
+    <t>Iontové analytické metody</t>
+  </si>
+  <si>
+    <t>Atomová a jaderná fyzika</t>
+  </si>
+  <si>
+    <t>Pokr. studium povrchů pomocí jader. met.</t>
+  </si>
+  <si>
+    <t>Simulace průchodu nabitých částic</t>
+  </si>
+  <si>
+    <t>Studium povrchů pomocí jaderných metod</t>
+  </si>
+  <si>
+    <t>Atomic and Nuclear Physics</t>
+  </si>
+  <si>
+    <t>Ion Analytic Methods</t>
+  </si>
+  <si>
+    <t>Příprava mikro a nanostruktur</t>
+  </si>
+  <si>
+    <t>Advanced Numerical Methods</t>
+  </si>
+  <si>
+    <t>Optimalizace v Excelu</t>
+  </si>
+  <si>
+    <t>Automata and Formal Language Theory</t>
+  </si>
+  <si>
+    <t>Praktikum z teor. zákl. informatiky</t>
+  </si>
+  <si>
+    <t>Teorie automatů a formálních jazyků</t>
+  </si>
+  <si>
+    <t>Stochastické Petriho sítě</t>
+  </si>
+  <si>
+    <t>Theory of Automata and Formal Languages</t>
+  </si>
+  <si>
+    <t>Petriho sítě</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Repetitorium matematiky</t>
+  </si>
+  <si>
+    <t>Anglická konverzace</t>
+  </si>
+  <si>
+    <t>Pokročilá instrumentální analýza II</t>
+  </si>
+  <si>
+    <t>Pokročilé instrumentální metody</t>
+  </si>
+  <si>
+    <t>Analytická chemie ŽP NMgr.</t>
+  </si>
+  <si>
+    <t>Stopová organická analýza</t>
+  </si>
+  <si>
+    <t>Diplomový seminář II</t>
+  </si>
+  <si>
+    <t>Pokročilá instrumentální analýza I</t>
+  </si>
+  <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Metody studia speciace polutantů</t>
+  </si>
+  <si>
     <t>Řešení obvodu RLC</t>
   </si>
   <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Experimentální využití elmg. vln B</t>
+  </si>
+  <si>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
     <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
-    <t>Praktikum mikrovlnné techniky - aplikace</t>
-  </si>
-  <si>
-    <t>VK-Programování ATMEL I</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln B</t>
-  </si>
-  <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
+    <t>Počítačové modelování I</t>
+  </si>
+  <si>
     <t>Programování A</t>
   </si>
   <si>
     <t>PVK - Hromadné zpracování dat</t>
   </si>
   <si>
-    <t>Počítačové modelování I</t>
-  </si>
-  <si>
     <t>Programování B</t>
   </si>
   <si>
     <t>Počítačové modelování II</t>
   </si>
   <si>
+    <t>Počítačové modelování III</t>
+  </si>
+  <si>
     <t>VK-Fyzikální seminář</t>
   </si>
   <si>
-    <t>Počítačové modelování III</t>
-  </si>
-  <si>
-    <t>Systém kvality a vyhodnocování dat</t>
-  </si>
-  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Datová úložiště a nástroje pro Big Data</t>
+  </si>
+  <si>
+    <t>Databázové systémy</t>
+  </si>
+  <si>
+    <t>Úvod do relačních databází</t>
+  </si>
+  <si>
+    <t>Základy kryptologie</t>
+  </si>
+  <si>
+    <t>Datová úložiště a zpracování dat</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Samoopravné kódy</t>
+  </si>
+  <si>
+    <t>Praktikum z algoritmů a dat. struktur</t>
+  </si>
+  <si>
+    <t>Relační databázové systémy</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Relační databáze</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Didaktika informatiky II</t>
+  </si>
+  <si>
+    <t>Aplikovaná kryptologie</t>
+  </si>
+  <si>
+    <t>Introduction to Relational Databases</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Úvod do kryptografie</t>
+  </si>
+  <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Základy financí</t>
+    <t>Heterocyklické a organokovové sloučeniny</t>
+  </si>
+  <si>
+    <t>Organická chemie I</t>
+  </si>
+  <si>
+    <t>Organická chemie</t>
+  </si>
+  <si>
+    <t>Souborný seminář</t>
+  </si>
+  <si>
+    <t>Úvod do spektr. metod v organické chemii</t>
+  </si>
+  <si>
+    <t>Organická chemie Nmgr.</t>
+  </si>
+  <si>
+    <t>Prezentace katedry</t>
+  </si>
+  <si>
+    <t>Organická chemie Nmgr. - ZŠ</t>
+  </si>
+  <si>
+    <t>Příprava k bakalářské práci</t>
+  </si>
+  <si>
+    <t>Organická chemie Nmgr. - SŠ</t>
+  </si>
+  <si>
+    <t>Thesis Progress Seminar II</t>
+  </si>
+  <si>
+    <t>Thesis Progress Seminar I</t>
+  </si>
+  <si>
+    <t>VK - Odborná angličtina II</t>
   </si>
   <si>
     <t>Základy matematiky</t>
@@ -211,32 +442,32 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
-    <t>Somatologie</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
     <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Metody analýz materiálů</t>
+    <t>Migrace, transf. a persistence polutantů</t>
   </si>
   <si>
     <t>Metody molekulární biologie</t>
@@ -251,15 +482,93 @@
     <t>Environmentální legislativa</t>
   </si>
   <si>
+    <t>Veřejná správa</t>
+  </si>
+  <si>
+    <t>Výpočetní geometrie</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice II</t>
+  </si>
+  <si>
+    <t>Analýza a vizualizace dat</t>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Projektové řízení a firemní IS</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
+  </si>
+  <si>
+    <t>Numerical Methods</t>
+  </si>
+  <si>
+    <t>Advanced Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>Matematika v mikroekonomii</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Praktikum z numerických metod</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice I</t>
+  </si>
+  <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Analytická chemie Nmgr.</t>
+  </si>
+  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
+    <t>Internet Programming</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Programování pro Internet</t>
+  </si>
+  <si>
+    <t>Dependability of Information Systems</t>
+  </si>
+  <si>
+    <t>Dependabilita informačních systémů</t>
+  </si>
+  <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Dependability of Software Systems</t>
+  </si>
+  <si>
+    <t>Dependability of Hardware Systems</t>
+  </si>
+  <si>
+    <t>Microscopy Techniques in Biology</t>
+  </si>
+  <si>
     <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
-    <t>Microscopy Techniques in Biology</t>
-  </si>
-  <si>
     <t>Eliminace polutantů z fluidních systémů</t>
   </si>
   <si>
@@ -281,13 +590,7 @@
     <t>VK-Němčina pro geografy</t>
   </si>
   <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
-    <t>Technologie ochrany životního prostředí</t>
-  </si>
-  <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
+    <t>Anglický jazyk</t>
   </si>
   <si>
     <t>Ekotoxikologie</t>
@@ -329,24 +632,33 @@
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
+  </si>
+  <si>
     <t>Moderní elektroanal. met. - prakt. kurz</t>
   </si>
   <si>
     <t>PVK - Fyzikálně chemická cvičení A</t>
   </si>
   <si>
-    <t>Laboratorní cvičení z fyzikální chemie</t>
+    <t>Cvičení z experiment. biologie rostlin</t>
+  </si>
+  <si>
+    <t>Fyziologie a mol. biologie rostl. buňky</t>
   </si>
   <si>
     <t>Vybrané kapitoly z geografie krajiny</t>
   </si>
   <si>
-    <t>Anglický jazyk A</t>
-  </si>
-  <si>
     <t>Explantátové kultury rostlin I</t>
   </si>
   <si>
+    <t>Geografický potenciál cestovního ruchu</t>
+  </si>
+  <si>
+    <t>Časové řady</t>
+  </si>
+  <si>
     <t>Právní aspekty vzdělávání a předpisy</t>
   </si>
   <si>
@@ -362,6 +674,9 @@
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
+    <t>Materiály a jejich mezní stavy</t>
+  </si>
+  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
@@ -371,127 +686,181 @@
     <t>Ochrana přírody</t>
   </si>
   <si>
-    <t>Praktikum validace analytických metod</t>
+    <t>Terénní cvičení ze SG</t>
   </si>
   <si>
     <t>Životní prostředí a udržitelný rozvoj</t>
   </si>
   <si>
-    <t>Terénní cvičení ze SG</t>
-  </si>
-  <si>
-    <t>English for Science</t>
-  </si>
-  <si>
     <t>Lokální a regionální rozvoj</t>
   </si>
   <si>
+    <t>Environmental Biotechnology</t>
+  </si>
+  <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
-    <t>Zoologické terénní cvičení</t>
+    <t>Biomedicínské mat.- přípr., char., a vl.</t>
+  </si>
+  <si>
+    <t>Identif. a hodnocení ekosystém. služeb</t>
+  </si>
+  <si>
+    <t>Geografie a dědictví krajiny</t>
+  </si>
+  <si>
+    <t>Programování - Fortran 2</t>
+  </si>
+  <si>
+    <t>Poč. mod. - zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Programování - Fortran</t>
+  </si>
+  <si>
+    <t>Praktikum počítačového modelování I</t>
+  </si>
+  <si>
+    <t>Paralelní programování II</t>
+  </si>
+  <si>
+    <t>Počítačové metody Monte Carlo</t>
+  </si>
+  <si>
+    <t>Programming - Fortran</t>
+  </si>
+  <si>
+    <t>Poč. mod. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Termika a molekulová fyzika</t>
+  </si>
+  <si>
+    <t>Počítačové model. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Počítačové zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Poč. modelování částicových soustav II</t>
+  </si>
+  <si>
+    <t>Molekulární simulace metodou Monte Carlo</t>
+  </si>
+  <si>
+    <t>Počítačová grafika a zpracování obrazu</t>
+  </si>
+  <si>
+    <t>Biophysics</t>
+  </si>
+  <si>
+    <t>Desktop Publishing in Chemistry</t>
+  </si>
+  <si>
+    <t>Nekovové anorganické materiály</t>
+  </si>
+  <si>
+    <t>Úvod do modelování průmyslových procesů</t>
+  </si>
+  <si>
+    <t>Strukturní analýza organických sloučenin</t>
+  </si>
+  <si>
+    <t>Přípr. a využití nanovlákenných struktur</t>
+  </si>
+  <si>
+    <t>Laboratorní cvičení z anorganické chemie</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe II - SŠ</t>
+  </si>
+  <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Doučování</t>
+  </si>
+  <si>
+    <t>Kompozity nanočástic kovů a jejich oxidů</t>
+  </si>
+  <si>
+    <t>Nanokompozitní materiály na bázi uhlíku</t>
+  </si>
+  <si>
+    <t>Biologie půdních mikroorganismů</t>
+  </si>
+  <si>
+    <t>Analýza organických látek v ŽP</t>
+  </si>
+  <si>
+    <t>Zelená chemie a technologie</t>
+  </si>
+  <si>
+    <t>Vybrané partie matematiky</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
+    <t>Pravděpodobnost a statistika I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z matematiky</t>
+  </si>
+  <si>
+    <t>Pravděpodobnost a statistika II</t>
+  </si>
+  <si>
+    <t>Objektově orientované návrhové vzory</t>
+  </si>
+  <si>
+    <t>Optimální rozhodování</t>
+  </si>
+  <si>
+    <t>Optimiz. for Mach. Learning with MATLAB</t>
+  </si>
+  <si>
+    <t>Optimal Decision Making</t>
+  </si>
+  <si>
+    <t>Optimization for ML with MATLAB</t>
   </si>
   <si>
     <t>Ornitologie</t>
   </si>
   <si>
-    <t>Biomedicínské mat.- přípr., char., a vl.</t>
-  </si>
-  <si>
-    <t>Identif. a hodnocení ekosystém. služeb</t>
-  </si>
-  <si>
-    <t>Geografie a dědictví krajiny</t>
-  </si>
-  <si>
-    <t>Environmental Biotechnology</t>
-  </si>
-  <si>
-    <t>Nekovové anorganické materiály</t>
-  </si>
-  <si>
-    <t>Úvod do modelování průmyslových procesů</t>
-  </si>
-  <si>
-    <t>Odběr, příprava a analýza vzorků</t>
-  </si>
-  <si>
-    <t>Přípr. a využití nanovlákenných struktur</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - SŠ</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe I - SŠ</t>
-  </si>
-  <si>
-    <t>Kompozity nanočástic kovů a jejich oxidů</t>
-  </si>
-  <si>
-    <t>Nanokompozitní materiály na bázi uhlíku</t>
-  </si>
-  <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
-  </si>
-  <si>
-    <t>Biologie půdních mikroorganismů</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
-    <t>Pravděpodobnost a statistika I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z matematiky</t>
-  </si>
-  <si>
-    <t>Podniková ekonomika</t>
-  </si>
-  <si>
-    <t>Pravděpodobnost a statistika II</t>
-  </si>
-  <si>
-    <t>Objektově orientované návrhové vzory</t>
+    <t>K839</t>
   </si>
   <si>
     <t>K503</t>
   </si>
   <si>
-    <t>K839</t>
+    <t>5DEMO</t>
   </si>
   <si>
     <t>FDEMO</t>
   </si>
   <si>
-    <t>5DEMO</t>
+    <t>BK315</t>
+  </si>
+  <si>
+    <t>P414</t>
+  </si>
+  <si>
+    <t>B315</t>
   </si>
   <si>
     <t>K312</t>
@@ -500,9 +869,75 @@
     <t>P335</t>
   </si>
   <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>K412</t>
+  </si>
+  <si>
+    <t>KB427</t>
+  </si>
+  <si>
+    <t>PB427</t>
+  </si>
+  <si>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>MA203</t>
+  </si>
+  <si>
+    <t>PB219</t>
+  </si>
+  <si>
+    <t>KB219</t>
+  </si>
+  <si>
+    <t>K102</t>
+  </si>
+  <si>
+    <t>PB405</t>
+  </si>
+  <si>
+    <t>MA200</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>MA401</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>KB405</t>
+  </si>
+  <si>
     <t>N016</t>
   </si>
   <si>
+    <t>M200</t>
+  </si>
+  <si>
     <t>PB502</t>
   </si>
   <si>
@@ -512,199 +947,481 @@
     <t>KB502</t>
   </si>
   <si>
-    <t>M200</t>
+    <t>PA31</t>
   </si>
   <si>
     <t>P736</t>
   </si>
   <si>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>P841</t>
+  </si>
+  <si>
+    <t>P732</t>
+  </si>
+  <si>
     <t>K521</t>
   </si>
   <si>
-    <t>PA31</t>
+    <t>P622</t>
   </si>
   <si>
     <t>KA35</t>
   </si>
   <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>P841</t>
-  </si>
-  <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>P732</t>
-  </si>
-  <si>
     <t>K505</t>
   </si>
   <si>
+    <t>P365</t>
+  </si>
+  <si>
     <t>K414</t>
   </si>
   <si>
-    <t>P365</t>
+    <t>K512</t>
   </si>
   <si>
     <t>P737</t>
   </si>
   <si>
-    <t>P427</t>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>KKM</t>
   </si>
   <si>
     <t>PD203</t>
   </si>
   <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>K602</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>K724</t>
+    <t>M409</t>
   </si>
   <si>
     <t>M214</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
     <t>0101</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>KN16</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
-    <t>KN16</t>
-  </si>
-  <si>
-    <t>KN22</t>
+    <t>CM203</t>
+  </si>
+  <si>
+    <t>AP09</t>
+  </si>
+  <si>
+    <t>LB3</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>CM306</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>FPD</t>
+  </si>
+  <si>
+    <t>PD200</t>
+  </si>
+  <si>
+    <t>KATOM</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>PM306</t>
+  </si>
+  <si>
+    <t>PM203</t>
+  </si>
+  <si>
+    <t>KFPD</t>
+  </si>
+  <si>
+    <t>K401</t>
+  </si>
+  <si>
+    <t>P511</t>
+  </si>
+  <si>
+    <t>E511</t>
+  </si>
+  <si>
+    <t>E293</t>
+  </si>
+  <si>
+    <t>PMNS</t>
+  </si>
+  <si>
+    <t>EPNUM</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>ETFI</t>
+  </si>
+  <si>
+    <t>PTZI</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>EAFJ</t>
+  </si>
+  <si>
+    <t>AFJ</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>EOTT</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>K113</t>
+  </si>
+  <si>
+    <t>N101</t>
+  </si>
+  <si>
+    <t>N311</t>
+  </si>
+  <si>
+    <t>N108</t>
+  </si>
+  <si>
+    <t>KN04</t>
+  </si>
+  <si>
+    <t>N409</t>
+  </si>
+  <si>
+    <t>N214</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N320</t>
   </si>
   <si>
     <t>0214</t>
   </si>
   <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
     <t>0212</t>
   </si>
   <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <t>0207</t>
-  </si>
-  <si>
-    <t>0175</t>
-  </si>
-  <si>
-    <t>0218</t>
-  </si>
-  <si>
-    <t>0237</t>
+    <t>P522</t>
   </si>
   <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
     <t>K107</t>
   </si>
   <si>
+    <t>K103</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
     <t>P203</t>
   </si>
   <si>
-    <t>K103</t>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>P401</t>
+  </si>
+  <si>
+    <t>0204</t>
   </si>
   <si>
     <t>P206</t>
   </si>
   <si>
-    <t>P406</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>P401</t>
-  </si>
-  <si>
-    <t>N111</t>
-  </si>
-  <si>
     <t>P366</t>
   </si>
   <si>
     <t>0109</t>
   </si>
   <si>
+    <t>KBIG</t>
+  </si>
+  <si>
+    <t>KDSY</t>
+  </si>
+  <si>
+    <t>URD</t>
+  </si>
+  <si>
+    <t>KKRY</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>KAPR1</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>PDSA</t>
+  </si>
+  <si>
+    <t>KDUL</t>
+  </si>
+  <si>
+    <t>SOK</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>RDBS</t>
+  </si>
+  <si>
+    <t>EDSA</t>
+  </si>
+  <si>
+    <t>YRDB</t>
+  </si>
+  <si>
+    <t>ZKR</t>
+  </si>
+  <si>
+    <t>URDB</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>KRY</t>
+  </si>
+  <si>
+    <t>XNME</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>KZKR</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>KDI2</t>
+  </si>
+  <si>
+    <t>EURDB</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>YAPR</t>
+  </si>
+  <si>
+    <t>KRDBS</t>
+  </si>
+  <si>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>KAPR2</t>
+  </si>
+  <si>
+    <t>KURDB</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>KOPT</t>
+  </si>
+  <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
-    <t>ZFIN</t>
+    <t>BK306</t>
+  </si>
+  <si>
+    <t>K301</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>N414</t>
+  </si>
+  <si>
+    <t>P411</t>
+  </si>
+  <si>
+    <t>KN32</t>
+  </si>
+  <si>
+    <t>P321</t>
+  </si>
+  <si>
+    <t>BK107</t>
+  </si>
+  <si>
+    <t>B306</t>
+  </si>
+  <si>
+    <t>N413</t>
+  </si>
+  <si>
+    <t>N323</t>
+  </si>
+  <si>
+    <t>BK200</t>
+  </si>
+  <si>
+    <t>P521</t>
+  </si>
+  <si>
+    <t>KN323</t>
+  </si>
+  <si>
+    <t>KN37</t>
+  </si>
+  <si>
+    <t>KN41</t>
+  </si>
+  <si>
+    <t>P301</t>
+  </si>
+  <si>
+    <t>N402</t>
+  </si>
+  <si>
+    <t>M206</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>M203</t>
   </si>
   <si>
     <t>K516</t>
@@ -713,64 +1430,133 @@
     <t>K409</t>
   </si>
   <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
-    <t>N051</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>BP423</t>
-  </si>
-  <si>
-    <t>N032</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
-    <t>BK423</t>
-  </si>
-  <si>
     <t>PD202</t>
   </si>
   <si>
+    <t>AP05</t>
+  </si>
+  <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>AP05</t>
+    <t>N307</t>
+  </si>
+  <si>
+    <t>N023</t>
   </si>
   <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
+    <t>P328</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>N036</t>
   </si>
   <si>
     <t>P528</t>
   </si>
   <si>
-    <t>P328</t>
-  </si>
-  <si>
-    <t>K311</t>
+    <t>P525</t>
   </si>
   <si>
     <t>BK108</t>
   </si>
   <si>
+    <t>K507</t>
+  </si>
+  <si>
     <t>P420</t>
   </si>
   <si>
-    <t>P525</t>
-  </si>
-  <si>
-    <t>K507</t>
-  </si>
-  <si>
-    <t>N036</t>
+    <t>VSP</t>
+  </si>
+  <si>
+    <t>KNME</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>IVF2</t>
+  </si>
+  <si>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>KSOC</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>PNUM</t>
+  </si>
+  <si>
+    <t>ENME</t>
+  </si>
+  <si>
+    <t>EPDSA</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>KAVD</t>
+  </si>
+  <si>
+    <t>KFIS</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>IVF1</t>
+  </si>
+  <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>KN40</t>
   </si>
   <si>
     <t>N001</t>
@@ -779,15 +1565,54 @@
     <t>M105</t>
   </si>
   <si>
+    <t>EPIN</t>
+  </si>
+  <si>
+    <t>ESWI</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
+    <t>KDEP</t>
+  </si>
+  <si>
+    <t>EDSY</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>KPIN</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>EDHW</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>E120</t>
+  </si>
+  <si>
     <t>E121</t>
   </si>
   <si>
-    <t>E120</t>
-  </si>
-  <si>
-    <t>N021</t>
-  </si>
-  <si>
     <t>K411</t>
   </si>
   <si>
@@ -806,13 +1631,7 @@
     <t>0126</t>
   </si>
   <si>
-    <t>P518</t>
-  </si>
-  <si>
-    <t>P414</t>
-  </si>
-  <si>
-    <t>P534</t>
+    <t>PD103</t>
   </si>
   <si>
     <t>N109</t>
@@ -824,15 +1643,15 @@
     <t>E133</t>
   </si>
   <si>
+    <t>K403</t>
+  </si>
+  <si>
+    <t>P419</t>
+  </si>
+  <si>
     <t>P416</t>
   </si>
   <si>
-    <t>P419</t>
-  </si>
-  <si>
-    <t>K403</t>
-  </si>
-  <si>
     <t>0088</t>
   </si>
   <si>
@@ -851,15 +1670,21 @@
     <t>P106</t>
   </si>
   <si>
-    <t>P112</t>
-  </si>
-  <si>
     <t>K106</t>
   </si>
   <si>
     <t>0150</t>
   </si>
   <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>P517</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
     <t>P527</t>
   </si>
   <si>
@@ -869,30 +1694,36 @@
     <t>P506</t>
   </si>
   <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>P517</t>
+    <t>K513</t>
+  </si>
+  <si>
+    <t>ME201</t>
+  </si>
+  <si>
+    <t>ME303</t>
   </si>
   <si>
     <t>0152</t>
   </si>
   <si>
-    <t>K100</t>
-  </si>
-  <si>
     <t>N049</t>
   </si>
   <si>
+    <t>M407</t>
+  </si>
+  <si>
+    <t>M209</t>
+  </si>
+  <si>
+    <t>KCAS</t>
+  </si>
+  <si>
+    <t>KN46</t>
+  </si>
+  <si>
     <t>N005</t>
   </si>
   <si>
-    <t>KN46</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -902,7 +1733,7 @@
     <t>0171</t>
   </si>
   <si>
-    <t>PD101</t>
+    <t>M112</t>
   </si>
   <si>
     <t>AUC</t>
@@ -914,124 +1745,223 @@
     <t>P312</t>
   </si>
   <si>
-    <t>M208</t>
+    <t>P861</t>
   </si>
   <si>
     <t>P839</t>
   </si>
   <si>
-    <t>P861</t>
+    <t>M312</t>
   </si>
   <si>
     <t>BK401</t>
   </si>
   <si>
-    <t>M312</t>
-  </si>
-  <si>
-    <t>E403</t>
-  </si>
-  <si>
     <t>B401</t>
   </si>
   <si>
-    <t>M203</t>
-  </si>
-  <si>
     <t>M101</t>
   </si>
   <si>
+    <t>M102</t>
+  </si>
+  <si>
     <t>N060</t>
   </si>
   <si>
-    <t>PB427</t>
+    <t>M317</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>M303</t>
+  </si>
+  <si>
+    <t>FORT2</t>
+  </si>
+  <si>
+    <t>K220</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>PPM1</t>
+  </si>
+  <si>
+    <t>M400</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>EFORT</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>P237</t>
+  </si>
+  <si>
+    <t>K215</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>P523</t>
+  </si>
+  <si>
+    <t>KPMC</t>
+  </si>
+  <si>
+    <t>K115</t>
+  </si>
+  <si>
+    <t>P233</t>
+  </si>
+  <si>
+    <t>KPPM1</t>
+  </si>
+  <si>
+    <t>PZOS</t>
+  </si>
+  <si>
+    <t>FORT</t>
+  </si>
+  <si>
+    <t>KFORT</t>
+  </si>
+  <si>
+    <t>KTERM</t>
+  </si>
+  <si>
+    <t>KPZOS</t>
+  </si>
+  <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>K117</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>P364</t>
+  </si>
+  <si>
+    <t>E126</t>
+  </si>
+  <si>
+    <t>M114</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>M211</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>BK314</t>
+  </si>
+  <si>
+    <t>PD55</t>
+  </si>
+  <si>
+    <t>LBA</t>
+  </si>
+  <si>
+    <t>P707B</t>
+  </si>
+  <si>
+    <t>P707A</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>DOUC</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>PD08</t>
+  </si>
+  <si>
+    <t>N418</t>
+  </si>
+  <si>
+    <t>M118</t>
+  </si>
+  <si>
+    <t>PD66</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>K413</t>
+  </si>
+  <si>
+    <t>P232</t>
+  </si>
+  <si>
+    <t>OONV</t>
+  </si>
+  <si>
+    <t>KOONV</t>
+  </si>
+  <si>
+    <t>OPR</t>
+  </si>
+  <si>
+    <t>EOMLM</t>
+  </si>
+  <si>
+    <t>KOPR</t>
+  </si>
+  <si>
+    <t>EOPR</t>
+  </si>
+  <si>
+    <t>OMLM</t>
   </si>
   <si>
     <t>MA205</t>
   </si>
   <si>
-    <t>KB427</t>
-  </si>
-  <si>
-    <t>M317</t>
-  </si>
-  <si>
-    <t>0156</t>
-  </si>
-  <si>
-    <t>M303</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>M211</t>
-  </si>
-  <si>
-    <t>N112</t>
-  </si>
-  <si>
-    <t>PD55</t>
-  </si>
-  <si>
-    <t>P705</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>P707B</t>
-  </si>
-  <si>
-    <t>P707A</t>
-  </si>
-  <si>
-    <t>PD12</t>
-  </si>
-  <si>
-    <t>PD08</t>
-  </si>
-  <si>
-    <t>ME301</t>
-  </si>
-  <si>
-    <t>APR2</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EDMR</t>
-  </si>
-  <si>
-    <t>APR1</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>EMLR</t>
-  </si>
-  <si>
-    <t>K413</t>
-  </si>
-  <si>
-    <t>P232</t>
-  </si>
-  <si>
-    <t>PEK</t>
-  </si>
-  <si>
-    <t>OONV</t>
-  </si>
-  <si>
-    <t>KOONV</t>
+    <t>BK302</t>
+  </si>
+  <si>
+    <t>KB302</t>
+  </si>
+  <si>
+    <t>PB302</t>
+  </si>
+  <si>
+    <t>BP302</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +2023,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C207" totalsRowShown="0">
-  <autoFilter ref="A1:C207"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C432" totalsRowShown="0">
+  <autoFilter ref="A1:C432"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1389,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
@@ -1422,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
@@ -1433,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
@@ -1444,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="C5" s="2">
         <v>130</v>
@@ -1455,10 +2385,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="C6" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1466,43 +2396,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="C7" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="C8" s="2">
-        <v>281</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="C9" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="C10" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1510,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1521,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="C12" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1532,1231 +2462,1231 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="C13" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="C14" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="C15" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="C16" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="C17" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="C18" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="C19" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="C20" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="C21" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="C22" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="C23" s="2">
-        <v>306</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="C24" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="C25" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="C26" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C47" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="C50" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="C52" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="C53" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="C54" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="C55" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2">
-        <v>605</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="C59" s="2">
-        <v>606</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="C60" s="2">
-        <v>606</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2">
-        <v>606</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="C62" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="C63" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="C64" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="C65" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="C66" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="C67" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="C68" s="2">
-        <v>612</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="C69" s="2">
-        <v>612</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="C70" s="2">
-        <v>612</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="C71" s="2">
-        <v>612</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="C72" s="2">
-        <v>719</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="C73" s="2">
-        <v>816</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="C74" s="2">
-        <v>827</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="C75" s="2">
-        <v>929</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2">
-        <v>929</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="C77" s="2">
-        <v>1108</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="C78" s="2">
-        <v>1383</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2">
-        <v>1456</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="C80" s="2">
-        <v>1537</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="C81" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="C82" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="C83" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="C84" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="C85" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="C86" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="C87" s="2">
-        <v>1546</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="C88" s="2">
-        <v>1590</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="C89" s="2">
-        <v>1590</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="C90" s="2">
-        <v>1590</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>194</v>
+        <v>363</v>
       </c>
       <c r="C91" s="2">
-        <v>1590</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="C92" s="2">
-        <v>1986</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="C93" s="2">
-        <v>1986</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="C94" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="C95" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="C96" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="C97" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="C98" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>249</v>
+        <v>371</v>
       </c>
       <c r="C99" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="C100" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="C101" s="2">
-        <v>1999</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="C102" s="2">
-        <v>2232</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="C103" s="2">
-        <v>2232</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="C104" s="2">
-        <v>2441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="C105" s="2">
-        <v>2441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="C106" s="2">
-        <v>2450</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="C107" s="2">
-        <v>2591</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="C108" s="2">
-        <v>2757</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="C109" s="2">
-        <v>2757</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="C110" s="2">
-        <v>2758</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="C111" s="2">
-        <v>2787</v>
+        <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>261</v>
+        <v>383</v>
       </c>
       <c r="C112" s="2">
-        <v>2812</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="C113" s="2">
-        <v>2812</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="C114" s="2">
-        <v>2997</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="C115" s="2">
-        <v>2997</v>
+        <v>605</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="C116" s="2">
-        <v>3066</v>
+        <v>605</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="C117" s="2">
-        <v>3175</v>
+        <v>605</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="C118" s="2">
-        <v>3176</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="C119" s="2">
-        <v>3176</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>267</v>
+        <v>391</v>
       </c>
       <c r="C120" s="2">
-        <v>3458</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>268</v>
+        <v>392</v>
       </c>
       <c r="C121" s="2">
-        <v>3796</v>
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>269</v>
+        <v>393</v>
       </c>
       <c r="C122" s="2">
-        <v>3797</v>
+        <v>606</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="C123" s="2">
-        <v>3797</v>
+        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="C124" s="2">
-        <v>3797</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2764,32 +3694,32 @@
         <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="C125" s="2">
-        <v>3798</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="C126" s="2">
-        <v>3798</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="C127" s="2">
-        <v>3798</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2797,10 +3727,10 @@
         <v>95</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C128" s="2">
-        <v>4175</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2808,10 +3738,10 @@
         <v>96</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C129" s="2">
-        <v>4176</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2819,10 +3749,10 @@
         <v>97</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="C130" s="2">
-        <v>4177</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2830,10 +3760,10 @@
         <v>98</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C131" s="2">
-        <v>4190</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2841,263 +3771,263 @@
         <v>99</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="C132" s="2">
-        <v>4195</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="C133" s="2">
-        <v>4208</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="C134" s="2">
-        <v>4221</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="C135" s="2">
-        <v>4221</v>
+        <v>719</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>279</v>
+        <v>404</v>
       </c>
       <c r="C136" s="2">
-        <v>4221</v>
+        <v>816</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="C137" s="2">
-        <v>4221</v>
+        <v>827</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="C138" s="2">
-        <v>4227</v>
+        <v>835</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="C139" s="2">
-        <v>4258</v>
+        <v>835</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>282</v>
+        <v>408</v>
       </c>
       <c r="C140" s="2">
-        <v>4258</v>
+        <v>835</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>283</v>
+        <v>409</v>
       </c>
       <c r="C141" s="2">
-        <v>4258</v>
+        <v>835</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="C142" s="2">
-        <v>4258</v>
+        <v>835</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="C143" s="2">
-        <v>4258</v>
+        <v>835</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="C144" s="2">
-        <v>4258</v>
+        <v>835</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="C145" s="2">
-        <v>4302</v>
+        <v>835</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="C146" s="2">
-        <v>4380</v>
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="C147" s="2">
-        <v>4390</v>
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="C148" s="2">
-        <v>4581</v>
+        <v>835</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="C149" s="2">
-        <v>4581</v>
+        <v>835</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="C150" s="2">
-        <v>4685</v>
+        <v>835</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="C151" s="2">
-        <v>4746</v>
+        <v>835</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="C152" s="2">
-        <v>4746</v>
+        <v>835</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="C153" s="2">
-        <v>4747</v>
+        <v>835</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
       <c r="C154" s="2">
-        <v>4757</v>
+        <v>835</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
       <c r="C155" s="2">
-        <v>5039</v>
+        <v>835</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3105,10 +4035,10 @@
         <v>116</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="C156" s="2">
-        <v>5062</v>
+        <v>835</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3116,10 +4046,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>298</v>
+        <v>425</v>
       </c>
       <c r="C157" s="2">
-        <v>5131</v>
+        <v>835</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3127,32 +4057,32 @@
         <v>118</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>299</v>
+        <v>426</v>
       </c>
       <c r="C158" s="2">
-        <v>5135</v>
+        <v>835</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="C159" s="2">
-        <v>5201</v>
+        <v>835</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>301</v>
+        <v>428</v>
       </c>
       <c r="C160" s="2">
-        <v>5201</v>
+        <v>835</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3160,516 +4090,2991 @@
         <v>119</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="C161" s="2">
-        <v>5240</v>
+        <v>835</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>303</v>
+        <v>430</v>
       </c>
       <c r="C162" s="2">
-        <v>5240</v>
+        <v>835</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="C163" s="2">
-        <v>5240</v>
+        <v>835</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>305</v>
+        <v>432</v>
       </c>
       <c r="C164" s="2">
-        <v>5240</v>
+        <v>835</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>306</v>
+        <v>433</v>
       </c>
       <c r="C165" s="2">
-        <v>5240</v>
+        <v>835</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>307</v>
+        <v>434</v>
       </c>
       <c r="C166" s="2">
-        <v>5240</v>
+        <v>835</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>308</v>
+        <v>435</v>
       </c>
       <c r="C167" s="2">
-        <v>5472</v>
+        <v>835</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>309</v>
+        <v>436</v>
       </c>
       <c r="C168" s="2">
-        <v>5472</v>
+        <v>835</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>310</v>
+        <v>437</v>
       </c>
       <c r="C169" s="2">
-        <v>5472</v>
+        <v>835</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="C170" s="2">
-        <v>5472</v>
+        <v>835</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="C171" s="2">
-        <v>5754</v>
+        <v>835</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="C172" s="2">
-        <v>5854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
       <c r="C173" s="2">
-        <v>5886</v>
+        <v>835</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="C174" s="2">
-        <v>5924</v>
+        <v>835</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>314</v>
+        <v>443</v>
       </c>
       <c r="C175" s="2">
-        <v>5927</v>
+        <v>835</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>229</v>
+        <v>444</v>
       </c>
       <c r="C176" s="2">
-        <v>6120</v>
+        <v>835</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>315</v>
+        <v>445</v>
       </c>
       <c r="C177" s="2">
-        <v>6886</v>
+        <v>929</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>315</v>
+        <v>446</v>
       </c>
       <c r="C178" s="2">
-        <v>6886</v>
+        <v>929</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="C179" s="2">
-        <v>7307</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="C180" s="2">
-        <v>7416</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="C181" s="2">
-        <v>7805</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>319</v>
+        <v>450</v>
       </c>
       <c r="C182" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
       <c r="C183" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="C184" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="C185" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>323</v>
+        <v>454</v>
       </c>
       <c r="C186" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="C187" s="2">
-        <v>8021</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="C188" s="2">
-        <v>8074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="C189" s="2">
-        <v>8075</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="C190" s="2">
-        <v>8154</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>307</v>
+        <v>459</v>
       </c>
       <c r="C191" s="2">
-        <v>8154</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>182</v>
+        <v>460</v>
       </c>
       <c r="C192" s="2">
-        <v>8310</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="C193" s="2">
-        <v>8310</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>255</v>
+        <v>462</v>
       </c>
       <c r="C194" s="2">
-        <v>8316</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
       <c r="C195" s="2">
-        <v>8514</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
       <c r="C196" s="2">
-        <v>8514</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>330</v>
+        <v>465</v>
       </c>
       <c r="C197" s="2">
-        <v>8514</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
       <c r="C198" s="2">
-        <v>8514</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>332</v>
+        <v>467</v>
       </c>
       <c r="C199" s="2">
-        <v>8514</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="C200" s="2">
-        <v>8514</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="C201" s="2">
-        <v>8677</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="C202" s="2">
-        <v>8677</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>335</v>
+        <v>446</v>
       </c>
       <c r="C203" s="2">
-        <v>8677</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>336</v>
+        <v>469</v>
       </c>
       <c r="C204" s="2">
-        <v>8749</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>185</v>
+        <v>470</v>
       </c>
       <c r="C205" s="2">
-        <v>8750</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>337</v>
+        <v>471</v>
       </c>
       <c r="C206" s="2">
-        <v>8753</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C211" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C213" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C207" s="2">
+      <c r="B222" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C226" s="2">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C228" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C229" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C230" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C232" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C233" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C234" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C235" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C236" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C237" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C238" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C239" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C240" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C241" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C242" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C243" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C244" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C246" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C248" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C249" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C250" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C251" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C252" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C253" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C254" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C255" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C256" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C257" s="2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C258" s="2">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C259" s="2">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C260" s="2">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C261" s="2">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C262" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C263" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C264" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C265" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C266" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C267" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C268" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C269" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C270" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C271" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C272" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C273" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C274" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C275" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C276" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C277" s="2">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C278" s="2">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C279" s="2">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C280" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C281" s="2">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C282" s="2">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C283" s="2">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C284" s="2">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C285" s="2">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C286" s="2">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C287" s="2">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C288" s="2">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C289" s="2">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C290" s="2">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C291" s="2">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C292" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C293" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C294" s="2">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C295" s="2">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C296" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C297" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C298" s="2">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C299" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C300" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C301" s="2">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C302" s="2">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C303" s="2">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C304" s="2">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C305" s="2">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C306" s="2">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C307" s="2">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C308" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C309" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C310" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C311" s="2">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C312" s="2">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C313" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C314" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C315" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C316" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C317" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C318" s="2">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C319" s="2">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C320" s="2">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C321" s="2">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C322" s="2">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C323" s="2">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C324" s="2">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C325" s="2">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C326" s="2">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C327" s="2">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C328" s="2">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C329" s="2">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C330" s="2">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C331" s="2">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C332" s="2">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C333" s="2">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C334" s="2">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C335" s="2">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C336" s="2">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C337" s="2">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C338" s="2">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C339" s="2">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C340" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C341" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C342" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C343" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C344" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C345" s="2">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C346" s="2">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C347" s="2">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C348" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C349" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C350" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C351" s="2">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C352" s="2">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C353" s="2">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C354" s="2">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C355" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C356" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C357" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C358" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C359" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C360" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C361" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C362" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C363" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C364" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C365" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C366" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C367" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C368" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C369" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C370" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C371" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C372" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C373" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C374" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C375" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C376" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C377" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C378" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C379" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C380" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C381" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C382" s="2">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C383" s="2">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C384" s="2">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C385" s="2">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C386" s="2">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C387" s="2">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C388" s="2">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C389" s="2">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C390" s="2">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C391" s="2">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C392" s="2">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C393" s="2">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C394" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C395" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C396" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C397" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C398" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C399" s="2">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C400" s="2">
+        <v>8074</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C401" s="2">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C402" s="2">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C403" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C404" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C405" s="2">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C406" s="2">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C407" s="2">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C408" s="2">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C409" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C410" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C411" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C412" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C413" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C414" s="2">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C415" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C416" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C417" s="2">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C418" s="2">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C419" s="2">
         <v>8753</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C420" s="2">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C421" s="2">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C422" s="2">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C423" s="2">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C424" s="2">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C425" s="2">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C426" s="2">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C427" s="2">
+        <v>9304</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C428" s="2">
+        <v>9608</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C429" s="2">
+        <v>9624</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C430" s="2">
+        <v>9624</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C431" s="2">
+        <v>9624</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C432" s="2">
+        <v>9624</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="619">
   <si>
     <t>nazev</t>
   </si>
@@ -43,31 +43,34 @@
     <t>Aktuální biologický seminář I</t>
   </si>
   <si>
+    <t>Zoologické terénní cvičení</t>
+  </si>
+  <si>
+    <t>Diplomový seminář</t>
+  </si>
+  <si>
     <t>Vědecká komunikace v biologii</t>
   </si>
   <si>
-    <t>Zoologické terénní cvičení</t>
-  </si>
-  <si>
-    <t>Diplomový seminář</t>
-  </si>
-  <si>
     <t>Fylogeneze a systém bezobratlých</t>
   </si>
   <si>
+    <t>Obecná botanika</t>
+  </si>
+  <si>
+    <t>Fylogeneze a systém vyšších rostlin</t>
+  </si>
+  <si>
+    <t>Geobotanika</t>
+  </si>
+  <si>
+    <t>Bioindikátory</t>
+  </si>
+  <si>
     <t>Botanické terénní cvičení</t>
   </si>
   <si>
-    <t>Fylogeneze a systém vyšších rostlin</t>
-  </si>
-  <si>
-    <t>Obecná botanika</t>
-  </si>
-  <si>
-    <t>Geobotanika</t>
-  </si>
-  <si>
-    <t>Bioindikátory</t>
+    <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
@@ -76,84 +79,81 @@
     <t>Diplomová práce I</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
+    <t>Exkurze</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum C</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh</t>
   </si>
   <si>
     <t>Didaktická a laboratorní technika</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
     <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Exkurze</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe ZŠ</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum C</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
-  </si>
-  <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
     <t>Vybrané partie z fyziky</t>
   </si>
   <si>
+    <t>Souhrnný seminář - počítačové modelování</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
     <t>Kvantová fyzika I</t>
   </si>
   <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Kvantová fyzika</t>
   </si>
   <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
     <t>Teorie elektromagnetického pole</t>
   </si>
   <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
     <t>Fyzika I</t>
   </si>
   <si>
-    <t>Souhrnný seminář - počítačové modelování</t>
-  </si>
-  <si>
-    <t>Seminář katedry</t>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
     <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
@@ -169,223 +169,226 @@
     <t>Dějiny chemie</t>
   </si>
   <si>
+    <t>Simulation of the charged particle</t>
+  </si>
+  <si>
+    <t>Atomová a jaderná fyzika</t>
+  </si>
+  <si>
+    <t>Fyzikální praktikum D</t>
+  </si>
+  <si>
+    <t>Fyzika energetických svazků iontů</t>
+  </si>
+  <si>
+    <t>Pokr. studium povrchů pomocí jader. met.</t>
+  </si>
+  <si>
+    <t>Iontové analytické metody</t>
+  </si>
+  <si>
+    <t>Simulace průchodu nabitých částic</t>
+  </si>
+  <si>
+    <t>Laboratorní praktikum III</t>
+  </si>
+  <si>
+    <t>Ion Analytic Methods</t>
+  </si>
+  <si>
+    <t>Atomic and Nuclear Physics</t>
+  </si>
+  <si>
+    <t>Úvod do fyziky energet. svazků iontů</t>
+  </si>
+  <si>
     <t>Characterization of surface layers using</t>
   </si>
   <si>
-    <t>Úvod do fyziky energet. svazků iontů</t>
-  </si>
-  <si>
-    <t>Laboratorní praktikum III</t>
-  </si>
-  <si>
     <t>Jaderné analytické metody</t>
   </si>
   <si>
-    <t>Simulation of the charged particle</t>
-  </si>
-  <si>
-    <t>Fyzika energetických svazků iontů</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum D</t>
-  </si>
-  <si>
-    <t>Iontové analytické metody</t>
-  </si>
-  <si>
-    <t>Atomová a jaderná fyzika</t>
-  </si>
-  <si>
-    <t>Pokr. studium povrchů pomocí jader. met.</t>
-  </si>
-  <si>
-    <t>Simulace průchodu nabitých částic</t>
+    <t>Příprava mikro a nanostruktur</t>
   </si>
   <si>
     <t>Studium povrchů pomocí jaderných metod</t>
   </si>
   <si>
-    <t>Atomic and Nuclear Physics</t>
-  </si>
-  <si>
-    <t>Ion Analytic Methods</t>
-  </si>
-  <si>
-    <t>Příprava mikro a nanostruktur</t>
+    <t>Teorie automatů a formálních jazyků</t>
+  </si>
+  <si>
+    <t>Repetitorium matematiky</t>
+  </si>
+  <si>
+    <t>Theory of Automata and Formal Languages</t>
+  </si>
+  <si>
+    <t>Praktikum z teor. zákl. informatiky</t>
+  </si>
+  <si>
+    <t>Optimalizace v Excelu</t>
+  </si>
+  <si>
+    <t>Petriho sítě</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Automata and Formal Language Theory</t>
   </si>
   <si>
     <t>Advanced Numerical Methods</t>
   </si>
   <si>
-    <t>Optimalizace v Excelu</t>
-  </si>
-  <si>
-    <t>Automata and Formal Language Theory</t>
-  </si>
-  <si>
-    <t>Praktikum z teor. zákl. informatiky</t>
-  </si>
-  <si>
-    <t>Teorie automatů a formálních jazyků</t>
-  </si>
-  <si>
     <t>Stochastické Petriho sítě</t>
   </si>
   <si>
-    <t>Theory of Automata and Formal Languages</t>
-  </si>
-  <si>
-    <t>Petriho sítě</t>
-  </si>
-  <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t>Repetitorium matematiky</t>
-  </si>
-  <si>
     <t>Anglická konverzace</t>
   </si>
   <si>
+    <t>Metody studia speciace polutantů</t>
+  </si>
+  <si>
+    <t>Analytická chemie ŽP NMgr.</t>
+  </si>
+  <si>
+    <t>Diplomový seminář II</t>
+  </si>
+  <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Stopová organická analýza</t>
+  </si>
+  <si>
+    <t>Pokročilá instrumentální analýza I</t>
+  </si>
+  <si>
+    <t>Pokročilé instrumentální metody</t>
+  </si>
+  <si>
     <t>Pokročilá instrumentální analýza II</t>
   </si>
   <si>
-    <t>Pokročilé instrumentální metody</t>
-  </si>
-  <si>
-    <t>Analytická chemie ŽP NMgr.</t>
-  </si>
-  <si>
-    <t>Stopová organická analýza</t>
-  </si>
-  <si>
-    <t>Diplomový seminář II</t>
-  </si>
-  <si>
-    <t>Pokročilá instrumentální analýza I</t>
-  </si>
-  <si>
-    <t>Systém kvality a vyhodnocování dat</t>
-  </si>
-  <si>
-    <t>Metody studia speciace polutantů</t>
+    <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
     <t>Řešení obvodu RLC</t>
   </si>
   <si>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
     <t>Experimentální využití elmg. vln F</t>
   </si>
   <si>
-    <t>Praktikum mikrovlnné techniky - aplikace</t>
+    <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
     <t>VK- Praktikum mikrovlnné techniky D</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln B</t>
-  </si>
-  <si>
-    <t>VK-Programování ATMEL I</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
+    <t>VK-Fyzikální seminář</t>
+  </si>
+  <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
+    <t>Programování B</t>
+  </si>
+  <si>
     <t>Programování A</t>
   </si>
   <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
+    <t>Počítačové modelování III</t>
+  </si>
+  <si>
     <t>PVK - Hromadné zpracování dat</t>
   </si>
   <si>
-    <t>Programování B</t>
-  </si>
-  <si>
-    <t>Počítačové modelování II</t>
-  </si>
-  <si>
-    <t>Počítačové modelování III</t>
-  </si>
-  <si>
-    <t>VK-Fyzikální seminář</t>
-  </si>
-  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Introduction to Relational Databases</t>
+  </si>
+  <si>
+    <t>Samoopravné kódy</t>
+  </si>
+  <si>
+    <t>Didaktika informatiky II</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
+    <t>Úvod do relačních databází</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Relační databáze</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Datová úložiště a zpracování dat</t>
+  </si>
+  <si>
+    <t>Základy kryptologie</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Databázové systémy</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Aplikovaná kryptologie</t>
+  </si>
+  <si>
+    <t>Úvod do kryptografie</t>
+  </si>
+  <si>
+    <t>Praktikum z algoritmů a dat. struktur</t>
+  </si>
+  <si>
+    <t>Relační databázové systémy</t>
+  </si>
+  <si>
     <t>Datová úložiště a nástroje pro Big Data</t>
   </si>
   <si>
-    <t>Databázové systémy</t>
-  </si>
-  <si>
-    <t>Úvod do relačních databází</t>
-  </si>
-  <si>
-    <t>Základy kryptologie</t>
-  </si>
-  <si>
-    <t>Datová úložiště a zpracování dat</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
-    <t>Pokročilé datové struktury a algoritmy</t>
-  </si>
-  <si>
-    <t>Samoopravné kódy</t>
-  </si>
-  <si>
-    <t>Praktikum z algoritmů a dat. struktur</t>
-  </si>
-  <si>
-    <t>Relační databázové systémy</t>
-  </si>
-  <si>
-    <t>Algorithms and Data Structures</t>
-  </si>
-  <si>
-    <t>Relační databáze</t>
-  </si>
-  <si>
-    <t>Numerické metody</t>
-  </si>
-  <si>
-    <t>Optimalizace</t>
-  </si>
-  <si>
-    <t>Didaktika informatiky II</t>
-  </si>
-  <si>
-    <t>Aplikovaná kryptologie</t>
-  </si>
-  <si>
-    <t>Introduction to Relational Databases</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
-    <t>Úvod do kryptografie</t>
+    <t>Paleontologie a paleoekologie</t>
   </si>
   <si>
     <t>Základy financí</t>
@@ -394,45 +397,6 @@
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Heterocyklické a organokovové sloučeniny</t>
-  </si>
-  <si>
-    <t>Organická chemie I</t>
-  </si>
-  <si>
-    <t>Organická chemie</t>
-  </si>
-  <si>
-    <t>Souborný seminář</t>
-  </si>
-  <si>
-    <t>Úvod do spektr. metod v organické chemii</t>
-  </si>
-  <si>
-    <t>Organická chemie Nmgr.</t>
-  </si>
-  <si>
-    <t>Prezentace katedry</t>
-  </si>
-  <si>
-    <t>Organická chemie Nmgr. - ZŠ</t>
-  </si>
-  <si>
-    <t>Příprava k bakalářské práci</t>
-  </si>
-  <si>
-    <t>Organická chemie Nmgr. - SŠ</t>
-  </si>
-  <si>
-    <t>Thesis Progress Seminar II</t>
-  </si>
-  <si>
-    <t>Thesis Progress Seminar I</t>
-  </si>
-  <si>
-    <t>VK - Odborná angličtina II</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -442,31 +406,31 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
     <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
-    <t>Obecná parazitologie</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Migrace, transf. a persistence polutantů</t>
   </si>
   <si>
@@ -485,48 +449,48 @@
     <t>Veřejná správa</t>
   </si>
   <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Praktikum z numerických metod</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice II</t>
+  </si>
+  <si>
+    <t>Matematika v mikroekonomii</t>
+  </si>
+  <si>
+    <t>Analýza a vizualizace dat</t>
+  </si>
+  <si>
+    <t>Projektové řízení a firemní IS</t>
+  </si>
+  <si>
     <t>Výpočetní geometrie</t>
   </si>
   <si>
-    <t>Informatika ve fyzice II</t>
-  </si>
-  <si>
-    <t>Analýza a vizualizace dat</t>
-  </si>
-  <si>
-    <t>Soft Computing</t>
-  </si>
-  <si>
-    <t>Projektové řízení a firemní IS</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
-    <t>Pokročilé numerické metody</t>
-  </si>
-  <si>
     <t>Numerical Methods</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice I</t>
+  </si>
+  <si>
     <t>Advanced Data Structures and Algorithms</t>
   </si>
   <si>
-    <t>Computational Geometry</t>
-  </si>
-  <si>
-    <t>Matematika v mikroekonomii</t>
-  </si>
-  <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Praktikum z numerických metod</t>
-  </si>
-  <si>
-    <t>Informatika ve fyzice I</t>
-  </si>
-  <si>
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
@@ -536,33 +500,33 @@
     <t>Didaktika geografie I</t>
   </si>
   <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Dependability of Information Systems</t>
+  </si>
+  <si>
+    <t>Dependability of Hardware Systems</t>
+  </si>
+  <si>
+    <t>Dependabilita informačních systémů</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Programování pro Internet</t>
+  </si>
+  <si>
+    <t>Dependability of Software Systems</t>
+  </si>
+  <si>
     <t>Internet Programming</t>
   </si>
   <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>Programování pro Internet</t>
-  </si>
-  <si>
-    <t>Dependability of Information Systems</t>
-  </si>
-  <si>
-    <t>Dependabilita informačních systémů</t>
-  </si>
-  <si>
-    <t>Database Systems</t>
-  </si>
-  <si>
-    <t>Programování pro internet</t>
-  </si>
-  <si>
-    <t>Dependability of Software Systems</t>
-  </si>
-  <si>
-    <t>Dependability of Hardware Systems</t>
-  </si>
-  <si>
     <t>Microscopy Techniques in Biology</t>
   </si>
   <si>
@@ -584,12 +548,12 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>VK-Němčina pro geografy</t>
+  </si>
+  <si>
     <t>VK - Konverzace němčiny pro geografy</t>
   </si>
   <si>
-    <t>VK-Němčina pro geografy</t>
-  </si>
-  <si>
     <t>Anglický jazyk</t>
   </si>
   <si>
@@ -632,12 +596,12 @@
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
+    <t>Moderní elektroanal. met. - prakt. kurz</t>
+  </si>
+  <si>
     <t>Laboratorní cvičení z fyzikální chemie</t>
   </si>
   <si>
-    <t>Moderní elektroanal. met. - prakt. kurz</t>
-  </si>
-  <si>
     <t>PVK - Fyzikálně chemická cvičení A</t>
   </si>
   <si>
@@ -665,12 +629,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi II</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi I</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi II</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -686,15 +650,15 @@
     <t>Ochrana přírody</t>
   </si>
   <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
     <t>Terénní cvičení ze SG</t>
   </si>
   <si>
     <t>Životní prostředí a udržitelný rozvoj</t>
   </si>
   <si>
-    <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
     <t>Environmental Biotechnology</t>
   </si>
   <si>
@@ -710,48 +674,48 @@
     <t>Geografie a dědictví krajiny</t>
   </si>
   <si>
+    <t>Programming - Fortran</t>
+  </si>
+  <si>
+    <t>Poč. mod. - zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Počítačové zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Poč. modelování částicových soustav II</t>
+  </si>
+  <si>
+    <t>Počítačové metody Monte Carlo</t>
+  </si>
+  <si>
+    <t>Molekulární simulace metodou Monte Carlo</t>
+  </si>
+  <si>
+    <t>Programování - Fortran</t>
+  </si>
+  <si>
+    <t>Termika a molekulová fyzika</t>
+  </si>
+  <si>
+    <t>Praktikum počítačového modelování I</t>
+  </si>
+  <si>
+    <t>Paralelní programování II</t>
+  </si>
+  <si>
+    <t>Počítačová grafika a zpracování obrazu</t>
+  </si>
+  <si>
+    <t>Počítačové model. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Poč. mod. - částicové modelování</t>
+  </si>
+  <si>
     <t>Programování - Fortran 2</t>
   </si>
   <si>
-    <t>Poč. mod. - zpracování obrazu a signálu</t>
-  </si>
-  <si>
-    <t>Programování - Fortran</t>
-  </si>
-  <si>
-    <t>Praktikum počítačového modelování I</t>
-  </si>
-  <si>
-    <t>Paralelní programování II</t>
-  </si>
-  <si>
-    <t>Počítačové metody Monte Carlo</t>
-  </si>
-  <si>
-    <t>Programming - Fortran</t>
-  </si>
-  <si>
-    <t>Poč. mod. - částicové modelování</t>
-  </si>
-  <si>
-    <t>Termika a molekulová fyzika</t>
-  </si>
-  <si>
-    <t>Počítačové model. - částicové modelování</t>
-  </si>
-  <si>
-    <t>Počítačové zpracování obrazu a signálu</t>
-  </si>
-  <si>
-    <t>Poč. modelování částicových soustav II</t>
-  </si>
-  <si>
-    <t>Molekulární simulace metodou Monte Carlo</t>
-  </si>
-  <si>
-    <t>Počítačová grafika a zpracování obrazu</t>
-  </si>
-  <si>
     <t>Biophysics</t>
   </si>
   <si>
@@ -770,7 +734,25 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
-    <t>Laboratorní cvičení z anorganické chemie</t>
+    <t>Ekologie</t>
+  </si>
+  <si>
+    <t>Kryptobióza</t>
+  </si>
+  <si>
+    <t>Animal and Plant Models in Biology</t>
+  </si>
+  <si>
+    <t>Průběžná pedagogická praxe</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Doučování</t>
   </si>
   <si>
     <t>Souvislá pedagogická praxe II - SŠ</t>
@@ -779,18 +761,6 @@
     <t>Souvislá pedagogická praxe I - SŠ</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
-    <t>Průběžná pedagogická praxe</t>
-  </si>
-  <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
@@ -806,15 +776,12 @@
     <t>Zelená chemie a technologie</t>
   </si>
   <si>
-    <t>Vybrané partie matematiky</t>
+    <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -830,15 +797,15 @@
     <t>Optimální rozhodování</t>
   </si>
   <si>
+    <t>Optimization for ML with MATLAB</t>
+  </si>
+  <si>
     <t>Optimiz. for Mach. Learning with MATLAB</t>
   </si>
   <si>
     <t>Optimal Decision Making</t>
   </si>
   <si>
-    <t>Optimization for ML with MATLAB</t>
-  </si>
-  <si>
     <t>Ornitologie</t>
   </si>
   <si>
@@ -854,19 +821,28 @@
     <t>FDEMO</t>
   </si>
   <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>P414</t>
+  </si>
+  <si>
     <t>BK315</t>
   </si>
   <si>
-    <t>P414</t>
-  </si>
-  <si>
-    <t>B315</t>
+    <t>P335</t>
   </si>
   <si>
     <t>K312</t>
   </si>
   <si>
-    <t>P335</t>
+    <t>K412</t>
+  </si>
+  <si>
+    <t>KB427</t>
+  </si>
+  <si>
+    <t>N035</t>
   </si>
   <si>
     <t>0001</t>
@@ -875,171 +851,162 @@
     <t>N021</t>
   </si>
   <si>
+    <t>K406</t>
+  </si>
+  <si>
+    <t>PB427</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>P302</t>
+  </si>
+  <si>
     <t>P427</t>
   </si>
   <si>
-    <t>M100</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
-    <t>N035</t>
-  </si>
-  <si>
-    <t>K412</t>
-  </si>
-  <si>
-    <t>KB427</t>
-  </si>
-  <si>
-    <t>PB427</t>
-  </si>
-  <si>
-    <t>P302</t>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>PB219</t>
+  </si>
+  <si>
+    <t>MA200</t>
+  </si>
+  <si>
+    <t>MA401</t>
+  </si>
+  <si>
+    <t>KB219</t>
+  </si>
+  <si>
+    <t>K102</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>KB405</t>
   </si>
   <si>
     <t>MA203</t>
   </si>
   <si>
-    <t>PB219</t>
-  </si>
-  <si>
-    <t>KB219</t>
-  </si>
-  <si>
-    <t>K102</t>
+    <t>P112</t>
   </si>
   <si>
     <t>PB405</t>
   </si>
   <si>
-    <t>MA200</t>
-  </si>
-  <si>
-    <t>P103</t>
-  </si>
-  <si>
-    <t>P112</t>
-  </si>
-  <si>
-    <t>MA401</t>
-  </si>
-  <si>
-    <t>N025</t>
-  </si>
-  <si>
-    <t>KB405</t>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>KB502</t>
   </si>
   <si>
     <t>N016</t>
   </si>
   <si>
+    <t>N028</t>
+  </si>
+  <si>
     <t>M200</t>
   </si>
   <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N028</t>
-  </si>
-  <si>
-    <t>KB502</t>
+    <t>P841</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
+    <t>K521</t>
+  </si>
+  <si>
+    <t>P732</t>
+  </si>
+  <si>
+    <t>K622</t>
   </si>
   <si>
     <t>PA31</t>
   </si>
   <si>
+    <t>KA35</t>
+  </si>
+  <si>
     <t>P736</t>
   </si>
   <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>P841</t>
-  </si>
-  <si>
-    <t>P732</t>
-  </si>
-  <si>
-    <t>K521</t>
-  </si>
-  <si>
-    <t>P622</t>
-  </si>
-  <si>
-    <t>KA35</t>
+    <t>P365</t>
+  </si>
+  <si>
+    <t>K414</t>
   </si>
   <si>
     <t>K505</t>
   </si>
   <si>
-    <t>P365</t>
-  </si>
-  <si>
-    <t>K414</t>
+    <t>KSPM</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>P509</t>
   </si>
   <si>
     <t>K512</t>
   </si>
   <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
     <t>P737</t>
   </si>
   <si>
+    <t>P531</t>
+  </si>
+  <si>
     <t>TEP</t>
   </si>
   <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
     <t>K222</t>
   </si>
   <si>
-    <t>KSPM</t>
-  </si>
-  <si>
-    <t>P602</t>
+    <t>K422</t>
   </si>
   <si>
     <t>K522</t>
   </si>
   <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
     <t>P607</t>
   </si>
   <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
     <t>K724</t>
   </si>
   <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
@@ -1058,174 +1025,174 @@
     <t>N304</t>
   </si>
   <si>
+    <t>CM306</t>
+  </si>
+  <si>
+    <t>P511</t>
+  </si>
+  <si>
+    <t>KFPD</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>PD200</t>
+  </si>
+  <si>
+    <t>K401</t>
+  </si>
+  <si>
+    <t>PM306</t>
+  </si>
+  <si>
+    <t>LB3</t>
+  </si>
+  <si>
+    <t>E293</t>
+  </si>
+  <si>
+    <t>E511</t>
+  </si>
+  <si>
+    <t>FPD</t>
+  </si>
+  <si>
+    <t>KATOM</t>
+  </si>
+  <si>
+    <t>AP09</t>
+  </si>
+  <si>
     <t>CM203</t>
   </si>
   <si>
-    <t>AP09</t>
-  </si>
-  <si>
-    <t>LB3</t>
-  </si>
-  <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>CM306</t>
-  </si>
-  <si>
-    <t>PD101</t>
-  </si>
-  <si>
-    <t>FPD</t>
-  </si>
-  <si>
-    <t>PD200</t>
-  </si>
-  <si>
-    <t>KATOM</t>
-  </si>
-  <si>
-    <t>ATOM</t>
-  </si>
-  <si>
-    <t>AP14</t>
-  </si>
-  <si>
-    <t>PM306</t>
+    <t>PMNS</t>
   </si>
   <si>
     <t>PM203</t>
   </si>
   <si>
-    <t>KFPD</t>
-  </si>
-  <si>
-    <t>K401</t>
-  </si>
-  <si>
-    <t>P511</t>
-  </si>
-  <si>
-    <t>E511</t>
-  </si>
-  <si>
-    <t>E293</t>
-  </si>
-  <si>
-    <t>PMNS</t>
+    <t>AFJ</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>EAFJ</t>
+  </si>
+  <si>
+    <t>PTZI</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>K113</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
+  </si>
+  <si>
+    <t>EOTT</t>
+  </si>
+  <si>
+    <t>ETFI</t>
   </si>
   <si>
     <t>EPNUM</t>
   </si>
   <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>ETFI</t>
-  </si>
-  <si>
-    <t>PTZI</t>
-  </si>
-  <si>
-    <t>KAFJ</t>
-  </si>
-  <si>
     <t>0158</t>
   </si>
   <si>
-    <t>EAFJ</t>
-  </si>
-  <si>
-    <t>AFJ</t>
-  </si>
-  <si>
-    <t>0144</t>
-  </si>
-  <si>
-    <t>EOTT</t>
-  </si>
-  <si>
-    <t>P113</t>
-  </si>
-  <si>
-    <t>K113</t>
-  </si>
-  <si>
     <t>N101</t>
   </si>
   <si>
+    <t>N320</t>
+  </si>
+  <si>
+    <t>KN04</t>
+  </si>
+  <si>
+    <t>N409</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N214</t>
+  </si>
+  <si>
+    <t>N108</t>
+  </si>
+  <si>
     <t>N311</t>
   </si>
   <si>
-    <t>N108</t>
-  </si>
-  <si>
-    <t>KN04</t>
-  </si>
-  <si>
-    <t>N409</t>
-  </si>
-  <si>
-    <t>N214</t>
-  </si>
-  <si>
-    <t>N111</t>
-  </si>
-  <si>
-    <t>N320</t>
+    <t>0218</t>
   </si>
   <si>
     <t>0214</t>
   </si>
   <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
     <t>0237</t>
   </si>
   <si>
-    <t>0207</t>
+    <t>0212</t>
   </si>
   <si>
     <t>0211</t>
   </si>
   <si>
-    <t>0218</t>
-  </si>
-  <si>
-    <t>0175</t>
-  </si>
-  <si>
-    <t>0212</t>
+    <t>P422</t>
   </si>
   <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
+    <t>0204</t>
+  </si>
+  <si>
     <t>K107</t>
   </si>
   <si>
+    <t>P203</t>
+  </si>
+  <si>
     <t>K103</t>
   </si>
   <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>P401</t>
+  </si>
+  <si>
     <t>P406</t>
   </si>
   <si>
-    <t>P203</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
-    <t>P401</t>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
     <t>P206</t>
   </si>
   <si>
@@ -1235,121 +1202,127 @@
     <t>0109</t>
   </si>
   <si>
+    <t>EURDB</t>
+  </si>
+  <si>
+    <t>SOK</t>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>URD</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>KDI2</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>EDSA</t>
+  </si>
+  <si>
+    <t>YRDB</t>
+  </si>
+  <si>
+    <t>YAPR</t>
+  </si>
+  <si>
+    <t>URDB</t>
+  </si>
+  <si>
+    <t>PDSA</t>
+  </si>
+  <si>
+    <t>KDUL</t>
+  </si>
+  <si>
+    <t>KRY</t>
+  </si>
+  <si>
+    <t>XNME</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>KAPR2</t>
+  </si>
+  <si>
+    <t>KAPR1</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>KZKR</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>ZKR</t>
+  </si>
+  <si>
+    <t>KURDB</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>KDSY</t>
+  </si>
+  <si>
+    <t>KOPT</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>RDBS</t>
+  </si>
+  <si>
+    <t>KKRY</t>
+  </si>
+  <si>
+    <t>KRDBS</t>
+  </si>
+  <si>
     <t>KBIG</t>
   </si>
   <si>
-    <t>KDSY</t>
-  </si>
-  <si>
-    <t>URD</t>
-  </si>
-  <si>
-    <t>KKRY</t>
-  </si>
-  <si>
-    <t>DUL</t>
-  </si>
-  <si>
-    <t>KAPR1</t>
-  </si>
-  <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>PDSA</t>
-  </si>
-  <si>
-    <t>KDUL</t>
-  </si>
-  <si>
-    <t>SOK</t>
-  </si>
-  <si>
-    <t>0174</t>
-  </si>
-  <si>
-    <t>RDBS</t>
-  </si>
-  <si>
-    <t>EDSA</t>
-  </si>
-  <si>
-    <t>YRDB</t>
-  </si>
-  <si>
-    <t>ZKR</t>
-  </si>
-  <si>
-    <t>URDB</t>
-  </si>
-  <si>
-    <t>DSY</t>
-  </si>
-  <si>
-    <t>KRY</t>
-  </si>
-  <si>
-    <t>XNME</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>DI2</t>
-  </si>
-  <si>
-    <t>KOTT</t>
-  </si>
-  <si>
-    <t>KZKR</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
     <t>BIG</t>
   </si>
   <si>
-    <t>KDI2</t>
-  </si>
-  <si>
-    <t>EURDB</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>NME</t>
-  </si>
-  <si>
-    <t>OPT</t>
-  </si>
-  <si>
-    <t>KPDSA</t>
-  </si>
-  <si>
-    <t>YAPR</t>
-  </si>
-  <si>
-    <t>KRDBS</t>
-  </si>
-  <si>
     <t>APR2</t>
   </si>
   <si>
-    <t>KAPR2</t>
-  </si>
-  <si>
-    <t>KURDB</t>
-  </si>
-  <si>
-    <t>APR1</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>KOPT</t>
+    <t>BK334</t>
+  </si>
+  <si>
+    <t>BP334</t>
   </si>
   <si>
     <t>ZFIN</t>
@@ -1358,397 +1331,337 @@
     <t>FINA</t>
   </si>
   <si>
-    <t>BK306</t>
-  </si>
-  <si>
-    <t>K301</t>
-  </si>
-  <si>
-    <t>P325</t>
-  </si>
-  <si>
-    <t>N414</t>
-  </si>
-  <si>
-    <t>P411</t>
-  </si>
-  <si>
-    <t>KN32</t>
-  </si>
-  <si>
-    <t>P321</t>
-  </si>
-  <si>
-    <t>BK107</t>
-  </si>
-  <si>
-    <t>B306</t>
-  </si>
-  <si>
-    <t>N413</t>
-  </si>
-  <si>
-    <t>N323</t>
-  </si>
-  <si>
-    <t>BK200</t>
-  </si>
-  <si>
-    <t>P521</t>
-  </si>
-  <si>
-    <t>KN323</t>
-  </si>
-  <si>
-    <t>KN37</t>
-  </si>
-  <si>
-    <t>KN41</t>
-  </si>
-  <si>
-    <t>P301</t>
-  </si>
-  <si>
-    <t>N402</t>
-  </si>
-  <si>
-    <t>M206</t>
-  </si>
-  <si>
-    <t>B200</t>
-  </si>
-  <si>
-    <t>B107</t>
+    <t>K516</t>
+  </si>
+  <si>
+    <t>K409</t>
+  </si>
+  <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>AP03</t>
+  </si>
+  <si>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>AP05</t>
+  </si>
+  <si>
+    <t>N307</t>
+  </si>
+  <si>
+    <t>ME200</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>P328</t>
+  </si>
+  <si>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>P420</t>
+  </si>
+  <si>
+    <t>P525</t>
+  </si>
+  <si>
+    <t>K507</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>BK108</t>
+  </si>
+  <si>
+    <t>VSP</t>
+  </si>
+  <si>
+    <t>KSOC</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>PNUM</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>KNME</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>IVF2</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>KAVD</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>ENME</t>
+  </si>
+  <si>
+    <t>KPYR</t>
+  </si>
+  <si>
+    <t>KFIS</t>
+  </si>
+  <si>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>IVF1</t>
+  </si>
+  <si>
+    <t>EPDSA</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>KN40</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>EDSY</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
+    <t>EDHW</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>ESWI</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>EPIN</t>
+  </si>
+  <si>
+    <t>KPIN</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>KDEP</t>
+  </si>
+  <si>
+    <t>E120</t>
+  </si>
+  <si>
+    <t>E121</t>
+  </si>
+  <si>
+    <t>K411</t>
+  </si>
+  <si>
+    <t>P706</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>PD107</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>PD103</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>E133</t>
+  </si>
+  <si>
+    <t>K403</t>
+  </si>
+  <si>
+    <t>P416</t>
+  </si>
+  <si>
+    <t>P419</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>K106</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>P517</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
+    <t>K513</t>
+  </si>
+  <si>
+    <t>ME201</t>
+  </si>
+  <si>
+    <t>ME303</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>N049</t>
+  </si>
+  <si>
+    <t>M209</t>
+  </si>
+  <si>
+    <t>M407</t>
+  </si>
+  <si>
+    <t>KCAS</t>
+  </si>
+  <si>
+    <t>KN46</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>M112</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>P312</t>
+  </si>
+  <si>
+    <t>P861</t>
+  </si>
+  <si>
+    <t>P839</t>
   </si>
   <si>
     <t>M203</t>
   </si>
   <si>
-    <t>K516</t>
-  </si>
-  <si>
-    <t>K409</t>
-  </si>
-  <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>N032</t>
-  </si>
-  <si>
-    <t>N051</t>
-  </si>
-  <si>
-    <t>K110</t>
-  </si>
-  <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>PD202</t>
-  </si>
-  <si>
-    <t>AP05</t>
-  </si>
-  <si>
-    <t>AP03</t>
-  </si>
-  <si>
-    <t>N307</t>
-  </si>
-  <si>
-    <t>N023</t>
-  </si>
-  <si>
-    <t>ME200</t>
-  </si>
-  <si>
-    <t>P328</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
-    <t>N036</t>
-  </si>
-  <si>
-    <t>P528</t>
-  </si>
-  <si>
-    <t>P525</t>
-  </si>
-  <si>
-    <t>BK108</t>
-  </si>
-  <si>
-    <t>K507</t>
-  </si>
-  <si>
-    <t>P420</t>
-  </si>
-  <si>
-    <t>VSP</t>
-  </si>
-  <si>
-    <t>KNME</t>
-  </si>
-  <si>
-    <t>0192</t>
-  </si>
-  <si>
-    <t>IVF2</t>
-  </si>
-  <si>
-    <t>AVD</t>
-  </si>
-  <si>
-    <t>KSOC</t>
-  </si>
-  <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>KPYR</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
-  <si>
-    <t>PNUM</t>
-  </si>
-  <si>
-    <t>ENME</t>
-  </si>
-  <si>
-    <t>EPDSA</t>
-  </si>
-  <si>
-    <t>A192</t>
-  </si>
-  <si>
-    <t>MME</t>
-  </si>
-  <si>
-    <t>KPNUM</t>
-  </si>
-  <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>0153</t>
-  </si>
-  <si>
-    <t>KAVD</t>
-  </si>
-  <si>
-    <t>KFIS</t>
-  </si>
-  <si>
-    <t>PYR</t>
-  </si>
-  <si>
-    <t>IVF1</t>
-  </si>
-  <si>
-    <t>P534</t>
-  </si>
-  <si>
-    <t>KN40</t>
-  </si>
-  <si>
-    <t>N001</t>
-  </si>
-  <si>
-    <t>M105</t>
-  </si>
-  <si>
-    <t>EPIN</t>
-  </si>
-  <si>
-    <t>ESWI</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>EDEP</t>
-  </si>
-  <si>
-    <t>KDEP</t>
-  </si>
-  <si>
-    <t>EDSY</t>
-  </si>
-  <si>
-    <t>KDIS</t>
-  </si>
-  <si>
-    <t>KPRI</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>KPIN</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>EDHW</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>E120</t>
-  </si>
-  <si>
-    <t>E121</t>
-  </si>
-  <si>
-    <t>K411</t>
-  </si>
-  <si>
-    <t>P706</t>
-  </si>
-  <si>
-    <t>0116</t>
-  </si>
-  <si>
-    <t>PD107</t>
-  </si>
-  <si>
-    <t>0130</t>
-  </si>
-  <si>
-    <t>0126</t>
-  </si>
-  <si>
-    <t>PD103</t>
-  </si>
-  <si>
-    <t>N109</t>
-  </si>
-  <si>
-    <t>0141</t>
-  </si>
-  <si>
-    <t>E133</t>
-  </si>
-  <si>
-    <t>K403</t>
-  </si>
-  <si>
-    <t>P419</t>
-  </si>
-  <si>
-    <t>P416</t>
-  </si>
-  <si>
-    <t>0088</t>
-  </si>
-  <si>
-    <t>0089</t>
-  </si>
-  <si>
-    <t>0090</t>
-  </si>
-  <si>
-    <t>0160</t>
-  </si>
-  <si>
-    <t>PSP</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
-    <t>K106</t>
-  </si>
-  <si>
-    <t>0150</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>P517</t>
-  </si>
-  <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>P527</t>
-  </si>
-  <si>
-    <t>N029</t>
-  </si>
-  <si>
-    <t>P506</t>
-  </si>
-  <si>
-    <t>K513</t>
-  </si>
-  <si>
-    <t>ME201</t>
-  </si>
-  <si>
-    <t>ME303</t>
-  </si>
-  <si>
-    <t>0152</t>
-  </si>
-  <si>
-    <t>N049</t>
-  </si>
-  <si>
-    <t>M407</t>
-  </si>
-  <si>
-    <t>M209</t>
-  </si>
-  <si>
-    <t>KCAS</t>
-  </si>
-  <si>
-    <t>KN46</t>
-  </si>
-  <si>
-    <t>N005</t>
-  </si>
-  <si>
-    <t>0177</t>
-  </si>
-  <si>
-    <t>0164</t>
-  </si>
-  <si>
-    <t>0171</t>
-  </si>
-  <si>
-    <t>M112</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
-    <t>N020</t>
-  </si>
-  <si>
-    <t>P312</t>
-  </si>
-  <si>
-    <t>P861</t>
-  </si>
-  <si>
-    <t>P839</t>
+    <t>M101</t>
   </si>
   <si>
     <t>M312</t>
@@ -1760,9 +1673,6 @@
     <t>B401</t>
   </si>
   <si>
-    <t>M101</t>
-  </si>
-  <si>
     <t>M102</t>
   </si>
   <si>
@@ -1778,87 +1688,87 @@
     <t>M303</t>
   </si>
   <si>
+    <t>EFORT</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>PZOS</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>KPZOS</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>K115</t>
+  </si>
+  <si>
+    <t>KPMC</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>K215</t>
+  </si>
+  <si>
+    <t>PPM1</t>
+  </si>
+  <si>
+    <t>K220</t>
+  </si>
+  <si>
+    <t>KPPM1</t>
+  </si>
+  <si>
+    <t>M400</t>
+  </si>
+  <si>
+    <t>P364</t>
+  </si>
+  <si>
+    <t>P237</t>
+  </si>
+  <si>
+    <t>P523</t>
+  </si>
+  <si>
+    <t>FORT</t>
+  </si>
+  <si>
+    <t>K117</t>
+  </si>
+  <si>
+    <t>KFORT</t>
+  </si>
+  <si>
+    <t>KTERM</t>
+  </si>
+  <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>P233</t>
+  </si>
+  <si>
     <t>FORT2</t>
   </si>
   <si>
-    <t>K220</t>
-  </si>
-  <si>
-    <t>P131</t>
-  </si>
-  <si>
-    <t>PPM1</t>
-  </si>
-  <si>
-    <t>M400</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>P234</t>
-  </si>
-  <si>
-    <t>EFORT</t>
-  </si>
-  <si>
-    <t>P128</t>
-  </si>
-  <si>
-    <t>P237</t>
-  </si>
-  <si>
-    <t>K215</t>
-  </si>
-  <si>
-    <t>TERM</t>
-  </si>
-  <si>
-    <t>P523</t>
-  </si>
-  <si>
-    <t>KPMC</t>
-  </si>
-  <si>
-    <t>K115</t>
-  </si>
-  <si>
-    <t>P233</t>
-  </si>
-  <si>
-    <t>KPPM1</t>
-  </si>
-  <si>
-    <t>PZOS</t>
-  </si>
-  <si>
-    <t>FORT</t>
-  </si>
-  <si>
-    <t>KFORT</t>
-  </si>
-  <si>
-    <t>KTERM</t>
-  </si>
-  <si>
-    <t>KPZOS</t>
-  </si>
-  <si>
-    <t>P240</t>
-  </si>
-  <si>
-    <t>K117</t>
-  </si>
-  <si>
-    <t>M201</t>
-  </si>
-  <si>
-    <t>M107</t>
-  </si>
-  <si>
-    <t>P364</t>
-  </si>
-  <si>
     <t>E126</t>
   </si>
   <si>
@@ -1871,16 +1781,43 @@
     <t>M211</t>
   </si>
   <si>
+    <t>BK314</t>
+  </si>
+  <si>
     <t>B314</t>
   </si>
   <si>
-    <t>BK314</t>
-  </si>
-  <si>
     <t>PD55</t>
   </si>
   <si>
-    <t>LBA</t>
+    <t>N200</t>
+  </si>
+  <si>
+    <t>BP422</t>
+  </si>
+  <si>
+    <t>BP300</t>
+  </si>
+  <si>
+    <t>BK300</t>
+  </si>
+  <si>
+    <t>BK422</t>
+  </si>
+  <si>
+    <t>E123</t>
+  </si>
+  <si>
+    <t>P705</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>DOUC</t>
   </si>
   <si>
     <t>P707B</t>
@@ -1889,18 +1826,6 @@
     <t>P707A</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
-    <t>P705</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -1913,15 +1838,12 @@
     <t>M118</t>
   </si>
   <si>
-    <t>PD66</t>
+    <t>EDMR</t>
   </si>
   <si>
     <t>EMLR</t>
   </si>
   <si>
-    <t>EDMR</t>
-  </si>
-  <si>
     <t>K413</t>
   </si>
   <si>
@@ -1937,6 +1859,9 @@
     <t>OPR</t>
   </si>
   <si>
+    <t>OMLM</t>
+  </si>
+  <si>
     <t>EOMLM</t>
   </si>
   <si>
@@ -1946,22 +1871,7 @@
     <t>EOPR</t>
   </si>
   <si>
-    <t>OMLM</t>
-  </si>
-  <si>
     <t>MA205</t>
-  </si>
-  <si>
-    <t>BK302</t>
-  </si>
-  <si>
-    <t>KB302</t>
-  </si>
-  <si>
-    <t>PB302</t>
-  </si>
-  <si>
-    <t>BP302</t>
   </si>
 </sst>
 </file>
@@ -2023,8 +1933,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C432" totalsRowShown="0">
-  <autoFilter ref="A1:C432"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C413" totalsRowShown="0">
+  <autoFilter ref="A1:C413"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -2319,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C432"/>
+  <dimension ref="A1:C413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2341,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
@@ -2352,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
@@ -2363,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2">
         <v>130</v>
@@ -2374,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2">
         <v>130</v>
@@ -2385,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2">
         <v>199</v>
@@ -2396,7 +2306,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C7" s="2">
         <v>199</v>
@@ -2407,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2">
         <v>199</v>
@@ -2418,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C9" s="2">
         <v>269</v>
@@ -2429,7 +2339,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C10" s="2">
         <v>269</v>
@@ -2440,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C11" s="2">
         <v>278</v>
@@ -2451,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C12" s="2">
         <v>278</v>
@@ -2462,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C13" s="2">
         <v>278</v>
@@ -2470,10 +2380,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C14" s="2">
         <v>278</v>
@@ -2481,10 +2391,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C15" s="2">
         <v>278</v>
@@ -2492,10 +2402,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C16" s="2">
         <v>278</v>
@@ -2503,10 +2413,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C17" s="2">
         <v>278</v>
@@ -2514,10 +2424,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C18" s="2">
         <v>278</v>
@@ -2525,10 +2435,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C19" s="2">
         <v>278</v>
@@ -2536,10 +2446,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C20" s="2">
         <v>278</v>
@@ -2550,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C21" s="2">
         <v>279</v>
@@ -2561,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C22" s="2">
         <v>279</v>
@@ -2569,10 +2479,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C23" s="2">
         <v>279</v>
@@ -2580,10 +2490,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C24" s="2">
         <v>279</v>
@@ -2591,10 +2501,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2">
         <v>279</v>
@@ -2602,10 +2512,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2">
         <v>279</v>
@@ -2616,7 +2526,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2">
         <v>279</v>
@@ -2624,10 +2534,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2">
         <v>279</v>
@@ -2638,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2">
         <v>279</v>
@@ -2646,10 +2556,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2">
         <v>279</v>
@@ -2657,10 +2567,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2">
         <v>279</v>
@@ -2671,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2">
         <v>281</v>
@@ -2679,10 +2589,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2">
         <v>281</v>
@@ -2690,10 +2600,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2">
         <v>281</v>
@@ -2701,10 +2611,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2">
         <v>281</v>
@@ -2715,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2">
         <v>281</v>
@@ -2726,7 +2636,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2">
         <v>302</v>
@@ -2737,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2">
         <v>302</v>
@@ -2748,7 +2658,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2">
         <v>302</v>
@@ -2759,7 +2669,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2">
         <v>302</v>
@@ -2770,7 +2680,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2">
         <v>302</v>
@@ -2781,7 +2691,7 @@
         <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2">
         <v>302</v>
@@ -2792,7 +2702,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C43" s="2">
         <v>302</v>
@@ -2803,7 +2713,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2">
         <v>302</v>
@@ -2811,10 +2721,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2">
         <v>306</v>
@@ -2822,10 +2732,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2">
         <v>306</v>
@@ -2833,10 +2743,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2">
         <v>306</v>
@@ -2847,7 +2757,7 @@
         <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2">
         <v>307</v>
@@ -2858,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2">
         <v>307</v>
@@ -2869,7 +2779,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C50" s="2">
         <v>307</v>
@@ -2880,7 +2790,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2">
         <v>307</v>
@@ -2888,10 +2798,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2">
         <v>307</v>
@@ -2899,10 +2809,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C53" s="2">
         <v>307</v>
@@ -2910,10 +2820,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C54" s="2">
         <v>307</v>
@@ -2921,10 +2831,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C55" s="2">
         <v>307</v>
@@ -2932,10 +2842,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C56" s="2">
         <v>307</v>
@@ -2943,10 +2853,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C57" s="2">
         <v>307</v>
@@ -2954,10 +2864,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2">
         <v>307</v>
@@ -2965,10 +2875,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2">
         <v>307</v>
@@ -2976,10 +2886,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C60" s="2">
         <v>307</v>
@@ -2987,10 +2897,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2">
         <v>307</v>
@@ -2998,10 +2908,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C62" s="2">
         <v>307</v>
@@ -3009,10 +2919,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C63" s="2">
         <v>307</v>
@@ -3020,10 +2930,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="C64" s="2">
         <v>307</v>
@@ -3031,10 +2941,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C65" s="2">
         <v>307</v>
@@ -3042,10 +2952,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C66" s="2">
         <v>307</v>
@@ -3053,10 +2963,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C67" s="2">
         <v>307</v>
@@ -3064,10 +2974,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C68" s="2">
         <v>307</v>
@@ -3078,7 +2988,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C69" s="2">
         <v>313</v>
@@ -3089,7 +2999,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C70" s="2">
         <v>313</v>
@@ -3100,7 +3010,7 @@
         <v>48</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C71" s="2">
         <v>317</v>
@@ -3111,7 +3021,7 @@
         <v>49</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C72" s="2">
         <v>336</v>
@@ -3122,7 +3032,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C73" s="2">
         <v>336</v>
@@ -3133,7 +3043,7 @@
         <v>49</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C74" s="2">
         <v>336</v>
@@ -3144,7 +3054,7 @@
         <v>51</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C75" s="2">
         <v>423</v>
@@ -3155,7 +3065,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C76" s="2">
         <v>423</v>
@@ -3166,7 +3076,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C77" s="2">
         <v>423</v>
@@ -3174,10 +3084,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C78" s="2">
         <v>423</v>
@@ -3185,10 +3095,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C79" s="2">
         <v>423</v>
@@ -3196,10 +3106,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C80" s="2">
         <v>423</v>
@@ -3207,10 +3117,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C81" s="2">
         <v>423</v>
@@ -3218,10 +3128,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C82" s="2">
         <v>423</v>
@@ -3229,10 +3139,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C83" s="2">
         <v>423</v>
@@ -3240,10 +3150,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C84" s="2">
         <v>423</v>
@@ -3251,10 +3161,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C85" s="2">
         <v>423</v>
@@ -3262,10 +3172,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C86" s="2">
         <v>423</v>
@@ -3273,10 +3183,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C87" s="2">
         <v>423</v>
@@ -3284,10 +3194,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C88" s="2">
         <v>423</v>
@@ -3295,10 +3205,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C89" s="2">
         <v>423</v>
@@ -3306,10 +3216,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C90" s="2">
         <v>423</v>
@@ -3320,7 +3230,7 @@
         <v>63</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C91" s="2">
         <v>423</v>
@@ -3331,7 +3241,7 @@
         <v>64</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C92" s="2">
         <v>423</v>
@@ -3342,7 +3252,7 @@
         <v>65</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C93" s="2">
         <v>423</v>
@@ -3353,7 +3263,7 @@
         <v>66</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C94" s="2">
         <v>449</v>
@@ -3364,7 +3274,7 @@
         <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C95" s="2">
         <v>449</v>
@@ -3375,7 +3285,7 @@
         <v>68</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C96" s="2">
         <v>449</v>
@@ -3386,7 +3296,7 @@
         <v>69</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C97" s="2">
         <v>449</v>
@@ -3397,7 +3307,7 @@
         <v>70</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C98" s="2">
         <v>449</v>
@@ -3405,10 +3315,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C99" s="2">
         <v>449</v>
@@ -3416,10 +3326,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C100" s="2">
         <v>449</v>
@@ -3427,10 +3337,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C101" s="2">
         <v>449</v>
@@ -3438,10 +3348,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C102" s="2">
         <v>449</v>
@@ -3449,10 +3359,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C103" s="2">
         <v>449</v>
@@ -3460,10 +3370,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C104" s="2">
         <v>449</v>
@@ -3474,7 +3384,7 @@
         <v>75</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C105" s="2">
         <v>449</v>
@@ -3485,7 +3395,7 @@
         <v>76</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C106" s="2">
         <v>474</v>
@@ -3496,7 +3406,7 @@
         <v>77</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C107" s="2">
         <v>550</v>
@@ -3507,7 +3417,7 @@
         <v>78</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C108" s="2">
         <v>550</v>
@@ -3518,7 +3428,7 @@
         <v>79</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C109" s="2">
         <v>550</v>
@@ -3529,7 +3439,7 @@
         <v>80</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="C110" s="2">
         <v>550</v>
@@ -3540,7 +3450,7 @@
         <v>81</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="C111" s="2">
         <v>550</v>
@@ -3551,7 +3461,7 @@
         <v>82</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C112" s="2">
         <v>550</v>
@@ -3562,7 +3472,7 @@
         <v>83</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C113" s="2">
         <v>550</v>
@@ -3573,7 +3483,7 @@
         <v>84</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C114" s="2">
         <v>550</v>
@@ -3584,7 +3494,7 @@
         <v>85</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C115" s="2">
         <v>605</v>
@@ -3595,7 +3505,7 @@
         <v>86</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C116" s="2">
         <v>605</v>
@@ -3606,7 +3516,7 @@
         <v>87</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C117" s="2">
         <v>605</v>
@@ -3617,7 +3527,7 @@
         <v>88</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C118" s="2">
         <v>605</v>
@@ -3628,7 +3538,7 @@
         <v>89</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C119" s="2">
         <v>605</v>
@@ -3639,7 +3549,7 @@
         <v>90</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C120" s="2">
         <v>605</v>
@@ -3650,7 +3560,7 @@
         <v>91</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C121" s="2">
         <v>605</v>
@@ -3658,10 +3568,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C122" s="2">
         <v>606</v>
@@ -3669,10 +3579,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C123" s="2">
         <v>606</v>
@@ -3683,7 +3593,7 @@
         <v>93</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C124" s="2">
         <v>606</v>
@@ -3694,7 +3604,7 @@
         <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C125" s="2">
         <v>612</v>
@@ -3705,7 +3615,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C126" s="2">
         <v>612</v>
@@ -3716,7 +3626,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C127" s="2">
         <v>612</v>
@@ -3724,10 +3634,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="C128" s="2">
         <v>612</v>
@@ -3735,10 +3645,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>288</v>
+        <v>389</v>
       </c>
       <c r="C129" s="2">
         <v>612</v>
@@ -3746,10 +3656,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C130" s="2">
         <v>612</v>
@@ -3757,10 +3667,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="C131" s="2">
         <v>612</v>
@@ -3768,10 +3678,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="C132" s="2">
         <v>612</v>
@@ -3782,7 +3692,7 @@
         <v>100</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C133" s="2">
         <v>612</v>
@@ -3793,7 +3703,7 @@
         <v>98</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C134" s="2">
         <v>612</v>
@@ -3801,10 +3711,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C135" s="2">
         <v>719</v>
@@ -3815,7 +3725,7 @@
         <v>101</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C136" s="2">
         <v>816</v>
@@ -3826,7 +3736,7 @@
         <v>102</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C137" s="2">
         <v>827</v>
@@ -3837,7 +3747,7 @@
         <v>103</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C138" s="2">
         <v>835</v>
@@ -3848,7 +3758,7 @@
         <v>104</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C139" s="2">
         <v>835</v>
@@ -3859,7 +3769,7 @@
         <v>105</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C140" s="2">
         <v>835</v>
@@ -3870,7 +3780,7 @@
         <v>106</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C141" s="2">
         <v>835</v>
@@ -3881,7 +3791,7 @@
         <v>107</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C142" s="2">
         <v>835</v>
@@ -3889,10 +3799,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C143" s="2">
         <v>835</v>
@@ -3900,10 +3810,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C144" s="2">
         <v>835</v>
@@ -3911,10 +3821,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C145" s="2">
         <v>835</v>
@@ -3922,10 +3832,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C146" s="2">
         <v>835</v>
@@ -3933,10 +3843,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C147" s="2">
         <v>835</v>
@@ -3944,10 +3854,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C148" s="2">
         <v>835</v>
@@ -3955,10 +3865,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C149" s="2">
         <v>835</v>
@@ -3966,10 +3876,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C150" s="2">
         <v>835</v>
@@ -3977,10 +3887,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C151" s="2">
         <v>835</v>
@@ -3988,10 +3898,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C152" s="2">
         <v>835</v>
@@ -3999,10 +3909,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C153" s="2">
         <v>835</v>
@@ -4010,10 +3920,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C154" s="2">
         <v>835</v>
@@ -4021,10 +3931,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C155" s="2">
         <v>835</v>
@@ -4032,10 +3942,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C156" s="2">
         <v>835</v>
@@ -4043,10 +3953,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C157" s="2">
         <v>835</v>
@@ -4054,10 +3964,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C158" s="2">
         <v>835</v>
@@ -4065,10 +3975,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C159" s="2">
         <v>835</v>
@@ -4076,10 +3986,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C160" s="2">
         <v>835</v>
@@ -4087,10 +3997,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C161" s="2">
         <v>835</v>
@@ -4098,10 +4008,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C162" s="2">
         <v>835</v>
@@ -4109,10 +4019,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C163" s="2">
         <v>835</v>
@@ -4120,10 +4030,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C164" s="2">
         <v>835</v>
@@ -4131,10 +4041,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C165" s="2">
         <v>835</v>
@@ -4142,10 +4052,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C166" s="2">
         <v>835</v>
@@ -4153,10 +4063,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C167" s="2">
         <v>835</v>
@@ -4164,10 +4074,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C168" s="2">
         <v>835</v>
@@ -4175,10 +4085,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C169" s="2">
         <v>835</v>
@@ -4186,10 +4096,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C170" s="2">
         <v>835</v>
@@ -4200,7 +4110,7 @@
         <v>122</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C171" s="2">
         <v>835</v>
@@ -4208,10 +4118,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C172" s="2">
         <v>835</v>
@@ -4219,10 +4129,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C173" s="2">
         <v>835</v>
@@ -4230,10 +4140,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C174" s="2">
         <v>835</v>
@@ -4244,7 +4154,7 @@
         <v>123</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C175" s="2">
         <v>835</v>
@@ -4255,7 +4165,7 @@
         <v>117</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C176" s="2">
         <v>835</v>
@@ -4266,120 +4176,120 @@
         <v>124</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C177" s="2">
-        <v>929</v>
+        <v>839</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C178" s="2">
-        <v>929</v>
+        <v>839</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C179" s="2">
-        <v>1064</v>
+        <v>929</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C180" s="2">
-        <v>1064</v>
+        <v>929</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="C181" s="2">
-        <v>1064</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C182" s="2">
-        <v>1064</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C183" s="2">
-        <v>1064</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C184" s="2">
-        <v>1064</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C185" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C186" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C187" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4387,175 +4297,175 @@
         <v>133</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C188" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C189" s="2">
-        <v>1064</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C190" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C191" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C192" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>461</v>
+        <v>313</v>
       </c>
       <c r="C193" s="2">
-        <v>1064</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C194" s="2">
-        <v>1064</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C195" s="2">
-        <v>1064</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C196" s="2">
-        <v>1064</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C197" s="2">
-        <v>1064</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C198" s="2">
-        <v>1064</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C199" s="2">
-        <v>1064</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C200" s="2">
-        <v>1064</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="C201" s="2">
-        <v>1064</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="C202" s="2">
-        <v>1108</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C203" s="2">
-        <v>1383</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4563,43 +4473,43 @@
         <v>140</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C204" s="2">
-        <v>1456</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C205" s="2">
-        <v>1537</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C206" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>472</v>
+        <v>355</v>
       </c>
       <c r="C207" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4607,10 +4517,10 @@
         <v>144</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C208" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4618,205 +4528,205 @@
         <v>145</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C209" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>475</v>
+        <v>398</v>
       </c>
       <c r="C210" s="2">
-        <v>1546</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C211" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="C212" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C213" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
       <c r="C214" s="2">
-        <v>1590</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C215" s="2">
-        <v>1775</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C216" s="2">
-        <v>1986</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="C217" s="2">
-        <v>1986</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
       <c r="C218" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C219" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C220" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
       <c r="C221" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="C222" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C223" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C224" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>489</v>
+        <v>362</v>
       </c>
       <c r="C225" s="2">
-        <v>1999</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C226" s="2">
-        <v>2142</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C227" s="2">
         <v>2220</v>
@@ -4824,10 +4734,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>366</v>
+        <v>473</v>
       </c>
       <c r="C228" s="2">
         <v>2220</v>
@@ -4835,10 +4745,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C229" s="2">
         <v>2220</v>
@@ -4846,10 +4756,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>370</v>
+        <v>475</v>
       </c>
       <c r="C230" s="2">
         <v>2220</v>
@@ -4857,10 +4767,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="C231" s="2">
         <v>2220</v>
@@ -4868,10 +4778,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C232" s="2">
         <v>2220</v>
@@ -4879,10 +4789,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="C233" s="2">
         <v>2220</v>
@@ -4890,10 +4800,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C234" s="2">
         <v>2220</v>
@@ -4901,10 +4811,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C235" s="2">
         <v>2220</v>
@@ -4912,10 +4822,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C236" s="2">
         <v>2220</v>
@@ -4923,464 +4833,464 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="C237" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C238" s="2">
-        <v>2220</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C239" s="2">
-        <v>2220</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C240" s="2">
-        <v>2220</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="C241" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C242" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C243" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C244" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C245" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C246" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="C247" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C248" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C249" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C250" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C251" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="C252" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="C253" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C254" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="C255" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="C256" s="2">
-        <v>2220</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C257" s="2">
-        <v>2220</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C258" s="2">
-        <v>2227</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>513</v>
+        <v>277</v>
       </c>
       <c r="C259" s="2">
-        <v>2227</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C260" s="2">
-        <v>2232</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C261" s="2">
-        <v>2232</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="C262" s="2">
-        <v>2239</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C263" s="2">
-        <v>2239</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C264" s="2">
-        <v>2239</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C265" s="2">
-        <v>2239</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C266" s="2">
-        <v>2239</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="C267" s="2">
-        <v>2239</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="C268" s="2">
-        <v>2239</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C269" s="2">
-        <v>2239</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>523</v>
+        <v>269</v>
       </c>
       <c r="C270" s="2">
-        <v>2239</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="C271" s="2">
-        <v>2239</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="C272" s="2">
-        <v>2239</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C273" s="2">
-        <v>2239</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C274" s="2">
-        <v>2239</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C275" s="2">
-        <v>2239</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C276" s="2">
-        <v>2239</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C277" s="2">
-        <v>2239</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C278" s="2">
-        <v>2441</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5388,43 +5298,43 @@
         <v>183</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C279" s="2">
-        <v>2441</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>285</v>
+        <v>513</v>
       </c>
       <c r="C280" s="2">
-        <v>2450</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C281" s="2">
-        <v>2591</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="C282" s="2">
-        <v>2757</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5432,10 +5342,10 @@
         <v>186</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C283" s="2">
-        <v>2757</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5443,10 +5353,10 @@
         <v>187</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C284" s="2">
-        <v>2758</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5454,87 +5364,87 @@
         <v>188</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="C285" s="2">
-        <v>2787</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="C286" s="2">
-        <v>2812</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>537</v>
+        <v>313</v>
       </c>
       <c r="C287" s="2">
-        <v>2812</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C288" s="2">
-        <v>2997</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>481</v>
+        <v>292</v>
       </c>
       <c r="C289" s="2">
-        <v>2997</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C290" s="2">
-        <v>3096</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>280</v>
+        <v>521</v>
       </c>
       <c r="C291" s="2">
-        <v>3175</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C292" s="2">
-        <v>3176</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5542,10 +5452,10 @@
         <v>192</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C293" s="2">
-        <v>3176</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5553,32 +5463,32 @@
         <v>193</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C294" s="2">
-        <v>3458</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C295" s="2">
-        <v>3796</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C296" s="2">
-        <v>3797</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5586,362 +5496,362 @@
         <v>195</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C297" s="2">
-        <v>3797</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C298" s="2">
-        <v>3797</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C299" s="2">
-        <v>3798</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C300" s="2">
-        <v>3798</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C301" s="2">
-        <v>3798</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C302" s="2">
-        <v>4175</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C303" s="2">
-        <v>4176</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C304" s="2">
-        <v>4177</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C305" s="2">
-        <v>4190</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C306" s="2">
-        <v>4195</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>305</v>
+        <v>537</v>
       </c>
       <c r="C307" s="2">
-        <v>4208</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C308" s="2">
-        <v>4221</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>336</v>
+        <v>539</v>
       </c>
       <c r="C309" s="2">
-        <v>4221</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>301</v>
+        <v>540</v>
       </c>
       <c r="C310" s="2">
-        <v>4221</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>551</v>
+        <v>340</v>
       </c>
       <c r="C311" s="2">
-        <v>4221</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="C312" s="2">
-        <v>4227</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C313" s="2">
-        <v>4258</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C314" s="2">
-        <v>4258</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C315" s="2">
-        <v>4258</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C316" s="2">
-        <v>4258</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C317" s="2">
-        <v>4258</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C318" s="2">
-        <v>4258</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C319" s="2">
-        <v>4264</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C320" s="2">
-        <v>4264</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C321" s="2">
-        <v>4264</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C322" s="2">
-        <v>4302</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C323" s="2">
-        <v>4390</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C324" s="2">
-        <v>4397</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>565</v>
+        <v>372</v>
       </c>
       <c r="C325" s="2">
-        <v>4397</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>566</v>
+        <v>374</v>
       </c>
       <c r="C326" s="2">
-        <v>4533</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C327" s="2">
-        <v>4581</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>568</v>
+        <v>274</v>
       </c>
       <c r="C328" s="2">
-        <v>4581</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>569</v>
+        <v>279</v>
       </c>
       <c r="C329" s="2">
-        <v>4685</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5949,10 +5859,10 @@
         <v>216</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>570</v>
+        <v>451</v>
       </c>
       <c r="C330" s="2">
-        <v>4746</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5960,10 +5870,10 @@
         <v>217</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C331" s="2">
-        <v>4746</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5971,21 +5881,21 @@
         <v>218</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>352</v>
+        <v>555</v>
       </c>
       <c r="C332" s="2">
-        <v>4747</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C333" s="2">
-        <v>4757</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5993,10 +5903,10 @@
         <v>219</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="C334" s="2">
-        <v>4951</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6004,10 +5914,10 @@
         <v>220</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C335" s="2">
-        <v>5039</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6015,76 +5925,76 @@
         <v>221</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C336" s="2">
-        <v>5062</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C337" s="2">
-        <v>5131</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C338" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C339" s="2">
-        <v>5201</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>468</v>
+        <v>563</v>
       </c>
       <c r="C340" s="2">
-        <v>5240</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="C341" s="2">
-        <v>5240</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C342" s="2">
-        <v>5240</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6092,10 +6002,10 @@
         <v>224</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="C343" s="2">
-        <v>5240</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6103,54 +6013,54 @@
         <v>225</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="C344" s="2">
-        <v>5240</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>379</v>
+        <v>568</v>
       </c>
       <c r="C345" s="2">
-        <v>5449</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C346" s="2">
-        <v>5449</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>383</v>
+        <v>570</v>
       </c>
       <c r="C347" s="2">
-        <v>5449</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>291</v>
+        <v>571</v>
       </c>
       <c r="C348" s="2">
-        <v>5472</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6158,43 +6068,43 @@
         <v>227</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C349" s="2">
-        <v>5472</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>292</v>
+        <v>573</v>
       </c>
       <c r="C350" s="2">
-        <v>5472</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="C351" s="2">
-        <v>5854</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C352" s="2">
-        <v>5886</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6202,21 +6112,21 @@
         <v>230</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C353" s="2">
-        <v>5924</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C354" s="2">
-        <v>5927</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6224,7 +6134,7 @@
         <v>231</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="C355" s="2">
         <v>5958</v>
@@ -6232,10 +6142,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C356" s="2">
         <v>5958</v>
@@ -6243,10 +6153,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C357" s="2">
         <v>5958</v>
@@ -6254,10 +6164,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C358" s="2">
         <v>5958</v>
@@ -6265,10 +6175,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C359" s="2">
         <v>5958</v>
@@ -6276,10 +6186,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C360" s="2">
         <v>5958</v>
@@ -6290,7 +6200,7 @@
         <v>232</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C361" s="2">
         <v>5958</v>
@@ -6298,156 +6208,156 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>594</v>
+        <v>436</v>
       </c>
       <c r="C362" s="2">
-        <v>5958</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="C363" s="2">
-        <v>5958</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C364" s="2">
-        <v>5958</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="C365" s="2">
-        <v>5958</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="C366" s="2">
-        <v>5958</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C367" s="2">
-        <v>5958</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C368" s="2">
-        <v>5958</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C369" s="2">
-        <v>5958</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C370" s="2">
-        <v>5958</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C371" s="2">
-        <v>5958</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>603</v>
+        <v>382</v>
       </c>
       <c r="C372" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C373" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C374" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C375" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6455,43 +6365,43 @@
         <v>239</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>607</v>
+        <v>501</v>
       </c>
       <c r="C376" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C377" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C378" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C379" s="2">
-        <v>5958</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6499,10 +6409,10 @@
         <v>242</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C380" s="2">
-        <v>5958</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6510,10 +6420,10 @@
         <v>243</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C381" s="2">
-        <v>5958</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6521,560 +6431,351 @@
         <v>244</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C382" s="2">
-        <v>5958</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
       <c r="C383" s="2">
-        <v>6120</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C384" s="2">
-        <v>6543</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C385" s="2">
-        <v>6633</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="C386" s="2">
-        <v>6633</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C387" s="2">
-        <v>6886</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="C388" s="2">
-        <v>6886</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C389" s="2">
-        <v>7307</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C390" s="2">
-        <v>7776</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>619</v>
+        <v>312</v>
       </c>
       <c r="C391" s="2">
-        <v>7776</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>620</v>
+        <v>324</v>
       </c>
       <c r="C392" s="2">
-        <v>7805</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>621</v>
+        <v>499</v>
       </c>
       <c r="C393" s="2">
-        <v>7981</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>622</v>
+        <v>464</v>
       </c>
       <c r="C394" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>623</v>
+        <v>416</v>
       </c>
       <c r="C395" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C396" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C397" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="C398" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>627</v>
+        <v>433</v>
       </c>
       <c r="C399" s="2">
-        <v>8021</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>628</v>
+        <v>283</v>
       </c>
       <c r="C400" s="2">
-        <v>8074</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C401" s="2">
-        <v>8075</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="C402" s="2">
-        <v>8154</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>630</v>
+        <v>314</v>
       </c>
       <c r="C403" s="2">
-        <v>8200</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C404" s="2">
-        <v>8200</v>
+        <v>8753</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>333</v>
+        <v>612</v>
       </c>
       <c r="C405" s="2">
-        <v>8310</v>
+        <v>8753</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>339</v>
+        <v>613</v>
       </c>
       <c r="C406" s="2">
-        <v>8310</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="C407" s="2">
-        <v>8316</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>632</v>
+        <v>363</v>
       </c>
       <c r="C408" s="2">
-        <v>8438</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="C409" s="2">
-        <v>8514</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="C410" s="2">
-        <v>8514</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>506</v>
+        <v>617</v>
       </c>
       <c r="C411" s="2">
-        <v>8514</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="C412" s="2">
-        <v>8514</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>439</v>
+        <v>618</v>
       </c>
       <c r="C413" s="2">
-        <v>8514</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C414" s="2">
-        <v>8514</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="A415" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C415" s="2">
-        <v>8677</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
-      <c r="A416" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C416" s="2">
-        <v>8677</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C417" s="2">
-        <v>8677</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C418" s="2">
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="A419" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C419" s="2">
-        <v>8753</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C420" s="2">
-        <v>8753</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
-      <c r="A421" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C421" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="A422" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C422" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
-      <c r="A423" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C423" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C424" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C425" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C426" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C427" s="2">
-        <v>9304</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C428" s="2">
         <v>9608</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="A429" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C429" s="2">
-        <v>9624</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="A430" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C430" s="2">
-        <v>9624</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="A431" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C431" s="2">
-        <v>9624</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C432" s="2">
-        <v>9624</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/cvicici_bez_cviceni.xlsx
+++ b/results_xlsx/cvicici_bez_cviceni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="616">
   <si>
     <t>nazev</t>
   </si>
@@ -25,12 +25,12 @@
     <t>cviciciUcitIdno</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
@@ -43,16 +43,19 @@
     <t>Aktuální biologický seminář I</t>
   </si>
   <si>
+    <t>Fylogeneze a systém bezobratlých</t>
+  </si>
+  <si>
+    <t>Vědecká komunikace v biologii</t>
+  </si>
+  <si>
     <t>Zoologické terénní cvičení</t>
   </si>
   <si>
     <t>Diplomový seminář</t>
   </si>
   <si>
-    <t>Vědecká komunikace v biologii</t>
-  </si>
-  <si>
-    <t>Fylogeneze a systém bezobratlých</t>
+    <t>Botanické terénní cvičení</t>
   </si>
   <si>
     <t>Obecná botanika</t>
@@ -67,9 +70,6 @@
     <t>Bioindikátory</t>
   </si>
   <si>
-    <t>Botanické terénní cvičení</t>
-  </si>
-  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
@@ -79,81 +79,81 @@
     <t>Diplomová práce I</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe II - ZŠ</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A</t>
+  </si>
+  <si>
     <t>Exkurze</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh A</t>
+    <t>Proseminář řešení fyzikálních úloh</t>
+  </si>
+  <si>
+    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
   </si>
   <si>
     <t>Fyzikální praktikum C</t>
   </si>
   <si>
+    <t>Didaktická a laboratorní technika</t>
+  </si>
+  <si>
     <t>Průběžná pedagogická praxe ZŠ</t>
   </si>
   <si>
-    <t>Proseminář řešení fyzikálních úloh</t>
-  </si>
-  <si>
-    <t>Didaktická a laboratorní technika</t>
-  </si>
-  <si>
-    <t>Souvislá pedagogická praxe II - ZŠ</t>
-  </si>
-  <si>
-    <t>Proseminář řešení fyzikálních úloh A ZŠ</t>
+    <t>Vybrané partie z fyziky</t>
   </si>
   <si>
     <t>Matematický proseminář</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Seminář katedry II</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
     <t>Souhrnný seminář - počítačové modelování</t>
   </si>
   <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Odborný seminář katedry A</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>Seminář katedry I</t>
+  </si>
+  <si>
+    <t>Seminář katedry</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Odborný seminář katedry A</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Seminář katedry II</t>
-  </si>
-  <si>
-    <t>Seminář katedry</t>
-  </si>
-  <si>
-    <t>Seminář katedry I</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
@@ -163,240 +163,240 @@
     <t>VK - Geografická exkurze v ČR (5 dní)</t>
   </si>
   <si>
+    <t>Dějiny chemie</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
-    <t>Dějiny chemie</t>
+    <t>Fyzikální praktikum D</t>
+  </si>
+  <si>
+    <t>Pokr. studium povrchů pomocí jader. met.</t>
+  </si>
+  <si>
+    <t>Atomová a jaderná fyzika</t>
+  </si>
+  <si>
+    <t>Ion Analytic Methods</t>
+  </si>
+  <si>
+    <t>Iontové analytické metody</t>
+  </si>
+  <si>
+    <t>Fyzika energetických svazků iontů</t>
+  </si>
+  <si>
+    <t>Atomic and Nuclear Physics</t>
   </si>
   <si>
     <t>Simulation of the charged particle</t>
   </si>
   <si>
-    <t>Atomová a jaderná fyzika</t>
-  </si>
-  <si>
-    <t>Fyzikální praktikum D</t>
-  </si>
-  <si>
-    <t>Fyzika energetických svazků iontů</t>
-  </si>
-  <si>
-    <t>Pokr. studium povrchů pomocí jader. met.</t>
-  </si>
-  <si>
-    <t>Iontové analytické metody</t>
+    <t>Příprava mikro a nanostruktur</t>
+  </si>
+  <si>
+    <t>Studium povrchů pomocí jaderných metod</t>
   </si>
   <si>
     <t>Simulace průchodu nabitých částic</t>
   </si>
   <si>
+    <t>Úvod do fyziky energet. svazků iontů</t>
+  </si>
+  <si>
     <t>Laboratorní praktikum III</t>
   </si>
   <si>
-    <t>Ion Analytic Methods</t>
-  </si>
-  <si>
-    <t>Atomic and Nuclear Physics</t>
-  </si>
-  <si>
-    <t>Úvod do fyziky energet. svazků iontů</t>
-  </si>
-  <si>
     <t>Characterization of surface layers using</t>
   </si>
   <si>
     <t>Jaderné analytické metody</t>
   </si>
   <si>
-    <t>Příprava mikro a nanostruktur</t>
-  </si>
-  <si>
-    <t>Studium povrchů pomocí jaderných metod</t>
+    <t>Automata and Formal Language Theory</t>
+  </si>
+  <si>
+    <t>Petriho sítě</t>
   </si>
   <si>
     <t>Teorie automatů a formálních jazyků</t>
   </si>
   <si>
+    <t>Optimalizace v Excelu</t>
+  </si>
+  <si>
     <t>Repetitorium matematiky</t>
   </si>
   <si>
+    <t>Praktikum z teor. zákl. informatiky</t>
+  </si>
+  <si>
+    <t>Advanced Numerical Methods</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
     <t>Theory of Automata and Formal Languages</t>
   </si>
   <si>
-    <t>Praktikum z teor. zákl. informatiky</t>
-  </si>
-  <si>
-    <t>Optimalizace v Excelu</t>
-  </si>
-  <si>
-    <t>Petriho sítě</t>
-  </si>
-  <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t>Automata and Formal Language Theory</t>
-  </si>
-  <si>
-    <t>Advanced Numerical Methods</t>
-  </si>
-  <si>
     <t>Stochastické Petriho sítě</t>
   </si>
   <si>
     <t>Anglická konverzace</t>
   </si>
   <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Diplomový seminář II</t>
+  </si>
+  <si>
+    <t>Pokročilá instrumentální analýza I</t>
+  </si>
+  <si>
     <t>Metody studia speciace polutantů</t>
   </si>
   <si>
+    <t>Stopová organická analýza</t>
+  </si>
+  <si>
+    <t>Pokročilé instrumentální metody</t>
+  </si>
+  <si>
     <t>Analytická chemie ŽP NMgr.</t>
   </si>
   <si>
-    <t>Diplomový seminář II</t>
-  </si>
-  <si>
-    <t>Systém kvality a vyhodnocování dat</t>
-  </si>
-  <si>
-    <t>Stopová organická analýza</t>
-  </si>
-  <si>
-    <t>Pokročilá instrumentální analýza I</t>
-  </si>
-  <si>
-    <t>Pokročilé instrumentální metody</t>
-  </si>
-  <si>
     <t>Pokročilá instrumentální analýza II</t>
   </si>
   <si>
+    <t>Experimentální využití elmg. vln F</t>
+  </si>
+  <si>
+    <t>Řešení obvodu RLC</t>
+  </si>
+  <si>
+    <t>VK- Praktikum mikrovlnné techniky D</t>
+  </si>
+  <si>
+    <t>Praktikum mikrovlnné techniky - aplikace</t>
+  </si>
+  <si>
     <t>Experimentální využití elmg. vln B</t>
   </si>
   <si>
-    <t>Řešení obvodu RLC</t>
-  </si>
-  <si>
-    <t>Praktikum mikrovlnné techniky - aplikace</t>
+    <t>Vybrané matematické metody ve fyzice</t>
   </si>
   <si>
     <t>VK-Programování ATMEL I</t>
   </si>
   <si>
-    <t>Experimentální využití elmg. vln F</t>
-  </si>
-  <si>
-    <t>Vybrané matematické metody ve fyzice</t>
-  </si>
-  <si>
-    <t>VK- Praktikum mikrovlnné techniky D</t>
-  </si>
-  <si>
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
     <t>Teoretická mechanika I</t>
   </si>
   <si>
+    <t>PVK - Hromadné zpracování dat</t>
+  </si>
+  <si>
     <t>VK-Fyzikální seminář</t>
   </si>
   <si>
+    <t>Počítačové modelování II</t>
+  </si>
+  <si>
     <t>Počítačové modelování I</t>
   </si>
   <si>
+    <t>Programování A</t>
+  </si>
+  <si>
     <t>Programování B</t>
   </si>
   <si>
-    <t>Programování A</t>
-  </si>
-  <si>
-    <t>Počítačové modelování II</t>
-  </si>
-  <si>
     <t>Počítačové modelování III</t>
   </si>
   <si>
-    <t>PVK - Hromadné zpracování dat</t>
-  </si>
-  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
     <t>VK - Exkurze z regionální geologie</t>
   </si>
   <si>
+    <t>Úvod do relačních databází</t>
+  </si>
+  <si>
+    <t>Datová úložiště a zpracování dat</t>
+  </si>
+  <si>
+    <t>Didaktika informatiky II</t>
+  </si>
+  <si>
     <t>Introduction to Relational Databases</t>
   </si>
   <si>
+    <t>Praktikum z algoritmů a dat. struktur</t>
+  </si>
+  <si>
+    <t>Úvod do kryptografie</t>
+  </si>
+  <si>
+    <t>Databázové systémy</t>
+  </si>
+  <si>
+    <t>Datová úložiště a nástroje pro Big Data</t>
+  </si>
+  <si>
+    <t>Základy kryptologie</t>
+  </si>
+  <si>
+    <t>Relační databázové systémy</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování I</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
+    <t>Numerické metody</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování</t>
+  </si>
+  <si>
+    <t>Algoritmizace a programování II</t>
+  </si>
+  <si>
+    <t>Pokročilé datové struktury a algoritmy</t>
+  </si>
+  <si>
+    <t>Relační databáze</t>
+  </si>
+  <si>
+    <t>Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Aplikovaná kryptologie</t>
+  </si>
+  <si>
     <t>Samoopravné kódy</t>
   </si>
   <si>
-    <t>Didaktika informatiky II</t>
-  </si>
-  <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
-    <t>Úvod do relačních databází</t>
-  </si>
-  <si>
-    <t>Optimalizace</t>
-  </si>
-  <si>
-    <t>Algorithms and Data Structures</t>
-  </si>
-  <si>
-    <t>Relační databáze</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování</t>
-  </si>
-  <si>
-    <t>Pokročilé datové struktury a algoritmy</t>
-  </si>
-  <si>
-    <t>Datová úložiště a zpracování dat</t>
-  </si>
-  <si>
-    <t>Základy kryptologie</t>
-  </si>
-  <si>
-    <t>Numerické metody</t>
-  </si>
-  <si>
-    <t>Databázové systémy</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování II</t>
-  </si>
-  <si>
-    <t>Algoritmizace a programování I</t>
-  </si>
-  <si>
-    <t>Aplikovaná kryptologie</t>
-  </si>
-  <si>
-    <t>Úvod do kryptografie</t>
-  </si>
-  <si>
-    <t>Praktikum z algoritmů a dat. struktur</t>
-  </si>
-  <si>
-    <t>Relační databázové systémy</t>
-  </si>
-  <si>
-    <t>Datová úložiště a nástroje pro Big Data</t>
-  </si>
-  <si>
     <t>Paleontologie a paleoekologie</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
-  </si>
-  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
@@ -406,28 +406,28 @@
     <t>Matematika IV</t>
   </si>
   <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
+    <t>Biologie parazitů</t>
+  </si>
+  <si>
+    <t>Ekofyziologie</t>
+  </si>
+  <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Obecná parazitologie</t>
-  </si>
-  <si>
-    <t>Biologie parazitů</t>
-  </si>
-  <si>
-    <t>Ekofyziologie</t>
-  </si>
-  <si>
-    <t>Biologie a ekologie člověka I</t>
+    <t>Komplexní analýza materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
     <t>Metody analýz materiálů</t>
   </si>
   <si>
@@ -440,99 +440,99 @@
     <t>Limnobiologie</t>
   </si>
   <si>
+    <t>Environmentální legislativa</t>
+  </si>
+  <si>
     <t>Algologie</t>
   </si>
   <si>
-    <t>Environmentální legislativa</t>
-  </si>
-  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
+    <t>Advanced Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Projektové řízení a firemní IS</t>
+  </si>
+  <si>
     <t>Soft Computing</t>
   </si>
   <si>
+    <t>Informatika ve fyzice I</t>
+  </si>
+  <si>
+    <t>Analýza a vizualizace dat</t>
+  </si>
+  <si>
+    <t>Numerical Methods</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Pokročilé numerické metody</t>
+  </si>
+  <si>
+    <t>Matematika v mikroekonomii</t>
+  </si>
+  <si>
+    <t>Informatika ve fyzice II</t>
+  </si>
+  <si>
     <t>Praktikum z numerických metod</t>
   </si>
   <si>
-    <t>Pokročilé numerické metody</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
+    <t>Výpočetní geometrie</t>
   </si>
   <si>
     <t>Computational Geometry</t>
   </si>
   <si>
-    <t>Informatika ve fyzice II</t>
-  </si>
-  <si>
-    <t>Matematika v mikroekonomii</t>
-  </si>
-  <si>
-    <t>Analýza a vizualizace dat</t>
-  </si>
-  <si>
-    <t>Projektové řízení a firemní IS</t>
-  </si>
-  <si>
-    <t>Výpočetní geometrie</t>
-  </si>
-  <si>
-    <t>Numerical Methods</t>
-  </si>
-  <si>
-    <t>Data Analysis and Visualisation</t>
-  </si>
-  <si>
-    <t>Informatika ve fyzice I</t>
-  </si>
-  <si>
-    <t>Advanced Data Structures and Algorithms</t>
+    <t>Analytická chemie Nmgr.</t>
   </si>
   <si>
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
-    <t>Analytická chemie Nmgr.</t>
-  </si>
-  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
+    <t>Dependabilita informačních systémů</t>
+  </si>
+  <si>
+    <t>Internet Programming</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Programování pro Internet</t>
+  </si>
+  <si>
+    <t>Programování pro internet</t>
+  </si>
+  <si>
+    <t>Dependability of Information Systems</t>
+  </si>
+  <si>
     <t>Database Systems</t>
   </si>
   <si>
-    <t>Programování pro internet</t>
-  </si>
-  <si>
-    <t>Dependability of Information Systems</t>
+    <t>Dependability of Software Systems</t>
   </si>
   <si>
     <t>Dependability of Hardware Systems</t>
   </si>
   <si>
-    <t>Dependabilita informačních systémů</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>Programování pro Internet</t>
-  </si>
-  <si>
-    <t>Dependability of Software Systems</t>
-  </si>
-  <si>
-    <t>Internet Programming</t>
+    <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
     <t>Microscopy Techniques in Biology</t>
   </si>
   <si>
-    <t>Labor. Techniq. in Mol. and Cell Biology</t>
-  </si>
-  <si>
     <t>Eliminace polutantů z fluidních systémů</t>
   </si>
   <si>
@@ -548,12 +548,12 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>VK - Konverzace němčiny pro geografy</t>
+  </si>
+  <si>
     <t>VK-Němčina pro geografy</t>
   </si>
   <si>
-    <t>VK - Konverzace němčiny pro geografy</t>
-  </si>
-  <si>
     <t>Anglický jazyk</t>
   </si>
   <si>
@@ -596,15 +596,15 @@
     <t>Fyzikálně chemická cvičení</t>
   </si>
   <si>
+    <t>Laboratorní cvičení z fyzikální chemie</t>
+  </si>
+  <si>
+    <t>PVK - Fyzikálně chemická cvičení A</t>
+  </si>
+  <si>
     <t>Moderní elektroanal. met. - prakt. kurz</t>
   </si>
   <si>
-    <t>Laboratorní cvičení z fyzikální chemie</t>
-  </si>
-  <si>
-    <t>PVK - Fyzikálně chemická cvičení A</t>
-  </si>
-  <si>
     <t>Cvičení z experiment. biologie rostlin</t>
   </si>
   <si>
@@ -629,12 +629,12 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Mikroprocesory a senzory v praxi I</t>
+  </si>
+  <si>
     <t>Mikroprocesory a senzory v praxi II</t>
   </si>
   <si>
-    <t>Mikroprocesory a senzory v praxi I</t>
-  </si>
-  <si>
     <t>Scientific inquiry and reasoning</t>
   </si>
   <si>
@@ -650,15 +650,15 @@
     <t>Ochrana přírody</t>
   </si>
   <si>
+    <t>Životní prostředí a udržitelný rozvoj</t>
+  </si>
+  <si>
     <t>Lokální a regionální rozvoj</t>
   </si>
   <si>
     <t>Terénní cvičení ze SG</t>
   </si>
   <si>
-    <t>Životní prostředí a udržitelný rozvoj</t>
-  </si>
-  <si>
     <t>Environmental Biotechnology</t>
   </si>
   <si>
@@ -674,48 +674,48 @@
     <t>Geografie a dědictví krajiny</t>
   </si>
   <si>
+    <t>Poč. mod. - zpracování obrazu a signálu</t>
+  </si>
+  <si>
+    <t>Programování - Fortran 2</t>
+  </si>
+  <si>
+    <t>Termika a molekulová fyzika</t>
+  </si>
+  <si>
+    <t>Programování - Fortran</t>
+  </si>
+  <si>
+    <t>Praktikum počítačového modelování I</t>
+  </si>
+  <si>
+    <t>Počítačové metody Monte Carlo</t>
+  </si>
+  <si>
+    <t>Paralelní programování II</t>
+  </si>
+  <si>
+    <t>Počítačová grafika a zpracování obrazu</t>
+  </si>
+  <si>
+    <t>Poč. modelování částicových soustav II</t>
+  </si>
+  <si>
     <t>Programming - Fortran</t>
   </si>
   <si>
-    <t>Poč. mod. - zpracování obrazu a signálu</t>
+    <t>Molekulární simulace metodou Monte Carlo</t>
+  </si>
+  <si>
+    <t>Počítačové model. - částicové modelování</t>
+  </si>
+  <si>
+    <t>Poč. mod. - částicové modelování</t>
   </si>
   <si>
     <t>Počítačové zpracování obrazu a signálu</t>
   </si>
   <si>
-    <t>Poč. modelování částicových soustav II</t>
-  </si>
-  <si>
-    <t>Počítačové metody Monte Carlo</t>
-  </si>
-  <si>
-    <t>Molekulární simulace metodou Monte Carlo</t>
-  </si>
-  <si>
-    <t>Programování - Fortran</t>
-  </si>
-  <si>
-    <t>Termika a molekulová fyzika</t>
-  </si>
-  <si>
-    <t>Praktikum počítačového modelování I</t>
-  </si>
-  <si>
-    <t>Paralelní programování II</t>
-  </si>
-  <si>
-    <t>Počítačová grafika a zpracování obrazu</t>
-  </si>
-  <si>
-    <t>Počítačové model. - částicové modelování</t>
-  </si>
-  <si>
-    <t>Poč. mod. - částicové modelování</t>
-  </si>
-  <si>
-    <t>Programování - Fortran 2</t>
-  </si>
-  <si>
     <t>Biophysics</t>
   </si>
   <si>
@@ -734,33 +734,33 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Kryptobióza</t>
+  </si>
+  <si>
     <t>Ekologie</t>
   </si>
   <si>
-    <t>Kryptobióza</t>
-  </si>
-  <si>
     <t>Animal and Plant Models in Biology</t>
   </si>
   <si>
+    <t>Souvislá pedagogická praxe I - SŠ</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Průběžná pedagogická praxe</t>
   </si>
   <si>
+    <t>Doučování</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
-    <t>Doučování</t>
-  </si>
-  <si>
     <t>Souvislá pedagogická praxe II - SŠ</t>
   </si>
   <si>
-    <t>Souvislá pedagogická praxe I - SŠ</t>
-  </si>
-  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
@@ -776,12 +776,12 @@
     <t>Zelená chemie a technologie</t>
   </si>
   <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
     <t>Data Mining Techniq. based on R Software</t>
   </si>
   <si>
-    <t>Machine Learning Based on R Software</t>
-  </si>
-  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
@@ -809,12 +809,12 @@
     <t>Ornitologie</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>5DEMO</t>
   </si>
   <si>
@@ -824,12 +824,12 @@
     <t>B315</t>
   </si>
   <si>
+    <t>BK315</t>
+  </si>
+  <si>
     <t>P414</t>
   </si>
   <si>
-    <t>BK315</t>
-  </si>
-  <si>
     <t>P335</t>
   </si>
   <si>
@@ -839,72 +839,72 @@
     <t>K412</t>
   </si>
   <si>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
     <t>KB427</t>
   </si>
   <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>K406</t>
+  </si>
+  <si>
     <t>N035</t>
   </si>
   <si>
+    <t>P427</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
-    <t>N021</t>
-  </si>
-  <si>
-    <t>K406</t>
-  </si>
-  <si>
     <t>PB427</t>
   </si>
   <si>
-    <t>M100</t>
-  </si>
-  <si>
-    <t>P302</t>
-  </si>
-  <si>
-    <t>P427</t>
+    <t>PB405</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>KB219</t>
+  </si>
+  <si>
+    <t>K102</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>MA203</t>
+  </si>
+  <si>
+    <t>KB405</t>
+  </si>
+  <si>
+    <t>PB219</t>
+  </si>
+  <si>
+    <t>MA401</t>
+  </si>
+  <si>
+    <t>MA200</t>
   </si>
   <si>
     <t>P103</t>
   </si>
   <si>
-    <t>PB219</t>
-  </si>
-  <si>
-    <t>MA200</t>
-  </si>
-  <si>
-    <t>MA401</t>
-  </si>
-  <si>
-    <t>KB219</t>
-  </si>
-  <si>
-    <t>K102</t>
-  </si>
-  <si>
-    <t>N025</t>
-  </si>
-  <si>
-    <t>KB405</t>
-  </si>
-  <si>
-    <t>MA203</t>
-  </si>
-  <si>
-    <t>P112</t>
-  </si>
-  <si>
-    <t>PB405</t>
+    <t>KB502</t>
   </si>
   <si>
     <t>PB502</t>
   </si>
   <si>
-    <t>KB502</t>
-  </si>
-  <si>
     <t>N016</t>
   </si>
   <si>
@@ -914,99 +914,99 @@
     <t>M200</t>
   </si>
   <si>
+    <t>KA35</t>
+  </si>
+  <si>
+    <t>P622</t>
+  </si>
+  <si>
     <t>P841</t>
   </si>
   <si>
-    <t>P622</t>
+    <t>K622</t>
+  </si>
+  <si>
+    <t>P736</t>
   </si>
   <si>
     <t>K521</t>
   </si>
   <si>
+    <t>PA31</t>
+  </si>
+  <si>
     <t>P732</t>
   </si>
   <si>
-    <t>K622</t>
-  </si>
-  <si>
-    <t>PA31</t>
-  </si>
-  <si>
-    <t>KA35</t>
-  </si>
-  <si>
-    <t>P736</t>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>K505</t>
   </si>
   <si>
     <t>P365</t>
   </si>
   <si>
-    <t>K414</t>
-  </si>
-  <si>
-    <t>K505</t>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>PA52</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>K512</t>
   </si>
   <si>
     <t>KSPM</t>
   </si>
   <si>
-    <t>PD203</t>
+    <t>P531</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P952</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>P602</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>KKM</t>
   </si>
   <si>
     <t>KM</t>
   </si>
   <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>P531</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>PA52</t>
-  </si>
-  <si>
-    <t>P602</t>
-  </si>
-  <si>
-    <t>P952</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
@@ -1016,510 +1016,510 @@
     <t>0101</t>
   </si>
   <si>
+    <t>KN16</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
-    <t>KN16</t>
-  </si>
-  <si>
     <t>N304</t>
   </si>
   <si>
+    <t>FPD</t>
+  </si>
+  <si>
+    <t>AP14</t>
+  </si>
+  <si>
+    <t>KATOM</t>
+  </si>
+  <si>
+    <t>E293</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>PD200</t>
+  </si>
+  <si>
+    <t>PD101</t>
+  </si>
+  <si>
+    <t>E511</t>
+  </si>
+  <si>
     <t>CM306</t>
   </si>
   <si>
+    <t>PMNS</t>
+  </si>
+  <si>
+    <t>KFPD</t>
+  </si>
+  <si>
+    <t>PM203</t>
+  </si>
+  <si>
     <t>P511</t>
   </si>
   <si>
-    <t>KFPD</t>
-  </si>
-  <si>
-    <t>ATOM</t>
-  </si>
-  <si>
-    <t>PD101</t>
-  </si>
-  <si>
-    <t>AP14</t>
-  </si>
-  <si>
-    <t>PD200</t>
+    <t>PM306</t>
+  </si>
+  <si>
+    <t>AP09</t>
+  </si>
+  <si>
+    <t>LB3</t>
   </si>
   <si>
     <t>K401</t>
   </si>
   <si>
-    <t>PM306</t>
-  </si>
-  <si>
-    <t>LB3</t>
-  </si>
-  <si>
-    <t>E293</t>
-  </si>
-  <si>
-    <t>E511</t>
-  </si>
-  <si>
-    <t>FPD</t>
-  </si>
-  <si>
-    <t>KATOM</t>
-  </si>
-  <si>
-    <t>AP09</t>
-  </si>
-  <si>
     <t>CM203</t>
   </si>
   <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>PMNS</t>
-  </si>
-  <si>
-    <t>PM203</t>
+    <t>ETFI</t>
+  </si>
+  <si>
+    <t>0144</t>
   </si>
   <si>
     <t>AFJ</t>
   </si>
   <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>K113</t>
+  </si>
+  <si>
+    <t>PTZI</t>
+  </si>
+  <si>
+    <t>EPNUM</t>
+  </si>
+  <si>
     <t>P113</t>
   </si>
   <si>
+    <t>EOTT</t>
+  </si>
+  <si>
+    <t>KAFJ</t>
+  </si>
+  <si>
     <t>EAFJ</t>
   </si>
   <si>
-    <t>PTZI</t>
-  </si>
-  <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>K113</t>
-  </si>
-  <si>
-    <t>0144</t>
-  </si>
-  <si>
-    <t>KAFJ</t>
-  </si>
-  <si>
-    <t>EOTT</t>
-  </si>
-  <si>
-    <t>ETFI</t>
-  </si>
-  <si>
-    <t>EPNUM</t>
-  </si>
-  <si>
     <t>0158</t>
   </si>
   <si>
     <t>N101</t>
   </si>
   <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>N409</t>
+  </si>
+  <si>
+    <t>N214</t>
+  </si>
+  <si>
     <t>N320</t>
   </si>
   <si>
+    <t>N108</t>
+  </si>
+  <si>
     <t>KN04</t>
   </si>
   <si>
-    <t>N409</t>
-  </si>
-  <si>
-    <t>N111</t>
-  </si>
-  <si>
-    <t>N214</t>
-  </si>
-  <si>
-    <t>N108</t>
-  </si>
-  <si>
     <t>N311</t>
   </si>
   <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
     <t>0218</t>
   </si>
   <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>0207</t>
+    <t>0212</t>
   </si>
   <si>
     <t>0175</t>
   </si>
   <si>
-    <t>0237</t>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <t>0211</t>
+    <t>P522</t>
+  </si>
+  <si>
+    <t>K305</t>
   </si>
   <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
-  </si>
-  <si>
-    <t>K305</t>
-  </si>
-  <si>
     <t>0204</t>
   </si>
   <si>
+    <t>K206</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P406</t>
+  </si>
+  <si>
     <t>K107</t>
   </si>
   <si>
+    <t>K103</t>
+  </si>
+  <si>
     <t>P203</t>
   </si>
   <si>
-    <t>K103</t>
-  </si>
-  <si>
-    <t>K206</t>
-  </si>
-  <si>
     <t>P401</t>
   </si>
   <si>
-    <t>P406</t>
-  </si>
-  <si>
-    <t>P206</t>
-  </si>
-  <si>
     <t>P366</t>
   </si>
   <si>
     <t>0109</t>
   </si>
   <si>
+    <t>URD</t>
+  </si>
+  <si>
+    <t>KDUL</t>
+  </si>
+  <si>
+    <t>KDI2</t>
+  </si>
+  <si>
     <t>EURDB</t>
   </si>
   <si>
+    <t>KURDB</t>
+  </si>
+  <si>
+    <t>URDB</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>KDSY</t>
+  </si>
+  <si>
+    <t>KBIG</t>
+  </si>
+  <si>
+    <t>KKRY</t>
+  </si>
+  <si>
+    <t>RDBS</t>
+  </si>
+  <si>
+    <t>KRDBS</t>
+  </si>
+  <si>
+    <t>APR1</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>XNME</t>
+  </si>
+  <si>
+    <t>YAPR</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>APR2</t>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>PDSA</t>
+  </si>
+  <si>
+    <t>YRDB</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>KZKR</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>KAPR2</t>
+  </si>
+  <si>
+    <t>KAPR1</t>
+  </si>
+  <si>
+    <t>EDSA</t>
+  </si>
+  <si>
+    <t>KRY</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>KPDSA</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>KOPT</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>ZKR</t>
+  </si>
+  <si>
     <t>SOK</t>
   </si>
   <si>
-    <t>DI2</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>URD</t>
-  </si>
-  <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>KDI2</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>EDSA</t>
-  </si>
-  <si>
-    <t>YRDB</t>
-  </si>
-  <si>
-    <t>YAPR</t>
-  </si>
-  <si>
-    <t>URDB</t>
-  </si>
-  <si>
-    <t>PDSA</t>
-  </si>
-  <si>
-    <t>KDUL</t>
-  </si>
-  <si>
-    <t>KRY</t>
-  </si>
-  <si>
-    <t>XNME</t>
-  </si>
-  <si>
-    <t>DSY</t>
-  </si>
-  <si>
-    <t>KAPR2</t>
-  </si>
-  <si>
-    <t>KAPR1</t>
-  </si>
-  <si>
-    <t>OPT</t>
-  </si>
-  <si>
-    <t>KZKR</t>
-  </si>
-  <si>
-    <t>APR1</t>
-  </si>
-  <si>
-    <t>KOTT</t>
-  </si>
-  <si>
-    <t>DUL</t>
-  </si>
-  <si>
-    <t>KPDSA</t>
-  </si>
-  <si>
-    <t>NME</t>
-  </si>
-  <si>
-    <t>ZKR</t>
-  </si>
-  <si>
-    <t>KURDB</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>KDSY</t>
-  </si>
-  <si>
-    <t>KOPT</t>
-  </si>
-  <si>
-    <t>0174</t>
-  </si>
-  <si>
-    <t>RDBS</t>
-  </si>
-  <si>
-    <t>KKRY</t>
-  </si>
-  <si>
-    <t>KRDBS</t>
-  </si>
-  <si>
-    <t>KBIG</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>APR2</t>
-  </si>
-  <si>
     <t>BK334</t>
   </si>
   <si>
     <t>BP334</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
-  </si>
-  <si>
     <t>K516</t>
   </si>
   <si>
     <t>K409</t>
   </si>
   <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N051</t>
+  </si>
+  <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
-    <t>P323</t>
-  </si>
-  <si>
-    <t>N032</t>
-  </si>
-  <si>
-    <t>N051</t>
-  </si>
-  <si>
-    <t>P303</t>
+    <t>PD202</t>
   </si>
   <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>PD202</t>
-  </si>
-  <si>
     <t>AP05</t>
   </si>
   <si>
     <t>N307</t>
   </si>
   <si>
+    <t>N023</t>
+  </si>
+  <si>
     <t>ME200</t>
   </si>
   <si>
-    <t>N023</t>
+    <t>P528</t>
+  </si>
+  <si>
+    <t>K507</t>
+  </si>
+  <si>
+    <t>P525</t>
   </si>
   <si>
     <t>P328</t>
   </si>
   <si>
-    <t>P528</t>
+    <t>P420</t>
+  </si>
+  <si>
+    <t>K311</t>
+  </si>
+  <si>
+    <t>BK108</t>
   </si>
   <si>
     <t>N036</t>
   </si>
   <si>
-    <t>P420</t>
-  </si>
-  <si>
-    <t>P525</t>
-  </si>
-  <si>
-    <t>K507</t>
-  </si>
-  <si>
-    <t>K311</t>
-  </si>
-  <si>
-    <t>BK108</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
+    <t>EPDSA</t>
+  </si>
+  <si>
+    <t>KFIS</t>
+  </si>
+  <si>
     <t>KSOC</t>
   </si>
   <si>
+    <t>IVF1</t>
+  </si>
+  <si>
+    <t>KAVD</t>
+  </si>
+  <si>
+    <t>ENME</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>KNME</t>
+  </si>
+  <si>
+    <t>PNUM</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>IVF2</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
     <t>SOC</t>
   </si>
   <si>
-    <t>0153</t>
-  </si>
-  <si>
-    <t>PNUM</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
-    <t>KNME</t>
+    <t>KPNUM</t>
+  </si>
+  <si>
+    <t>KPYR</t>
   </si>
   <si>
     <t>A192</t>
   </si>
   <si>
-    <t>KPNUM</t>
-  </si>
-  <si>
-    <t>IVF2</t>
-  </si>
-  <si>
-    <t>MME</t>
-  </si>
-  <si>
-    <t>KAVD</t>
-  </si>
-  <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>0192</t>
-  </si>
-  <si>
-    <t>ENME</t>
-  </si>
-  <si>
-    <t>KPYR</t>
-  </si>
-  <si>
-    <t>KFIS</t>
-  </si>
-  <si>
     <t>AVD</t>
   </si>
   <si>
-    <t>EDAV</t>
-  </si>
-  <si>
-    <t>IVF1</t>
-  </si>
-  <si>
-    <t>EPDSA</t>
-  </si>
-  <si>
-    <t>PYR</t>
+    <t>KN40</t>
   </si>
   <si>
     <t>P534</t>
   </si>
   <si>
-    <t>KN40</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
     <t>N001</t>
   </si>
   <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>KDIS</t>
+  </si>
+  <si>
+    <t>EPIN</t>
+  </si>
+  <si>
+    <t>ESWI</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>KDEP</t>
+  </si>
+  <si>
+    <t>KPIN</t>
+  </si>
+  <si>
+    <t>KPRI</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
     <t>EDSY</t>
   </si>
   <si>
-    <t>KPRI</t>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>EDSW</t>
   </si>
   <si>
     <t>PRI</t>
   </si>
   <si>
-    <t>EDEP</t>
-  </si>
-  <si>
     <t>EDHW</t>
   </si>
   <si>
-    <t>DIS</t>
-  </si>
-  <si>
-    <t>ESWI</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
-    <t>EPIN</t>
-  </si>
-  <si>
-    <t>KPIN</t>
-  </si>
-  <si>
-    <t>KDIS</t>
-  </si>
-  <si>
-    <t>KDEP</t>
+    <t>E121</t>
   </si>
   <si>
     <t>E120</t>
   </si>
   <si>
-    <t>E121</t>
-  </si>
-  <si>
     <t>K411</t>
   </si>
   <si>
@@ -1532,12 +1532,12 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>0130</t>
+  </si>
+  <si>
     <t>0126</t>
   </si>
   <si>
-    <t>0130</t>
-  </si>
-  <si>
     <t>PD103</t>
   </si>
   <si>
@@ -1550,15 +1550,15 @@
     <t>E133</t>
   </si>
   <si>
+    <t>P416</t>
+  </si>
+  <si>
+    <t>P419</t>
+  </si>
+  <si>
     <t>K403</t>
   </si>
   <si>
-    <t>P416</t>
-  </si>
-  <si>
-    <t>P419</t>
-  </si>
-  <si>
     <t>0088</t>
   </si>
   <si>
@@ -1583,24 +1583,24 @@
     <t>0150</t>
   </si>
   <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>P532</t>
+  </si>
+  <si>
+    <t>P527</t>
+  </si>
+  <si>
+    <t>P506</t>
+  </si>
+  <si>
     <t>P517</t>
   </si>
   <si>
-    <t>K502</t>
-  </si>
-  <si>
     <t>N029</t>
   </si>
   <si>
-    <t>P527</t>
-  </si>
-  <si>
-    <t>P532</t>
-  </si>
-  <si>
-    <t>P506</t>
-  </si>
-  <si>
     <t>K513</t>
   </si>
   <si>
@@ -1634,12 +1634,12 @@
     <t>0177</t>
   </si>
   <si>
+    <t>0164</t>
+  </si>
+  <si>
     <t>0171</t>
   </si>
   <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>M112</t>
   </si>
   <si>
@@ -1661,15 +1661,15 @@
     <t>M203</t>
   </si>
   <si>
+    <t>BK401</t>
+  </si>
+  <si>
     <t>M101</t>
   </si>
   <si>
     <t>M312</t>
   </si>
   <si>
-    <t>BK401</t>
-  </si>
-  <si>
     <t>B401</t>
   </si>
   <si>
@@ -1688,87 +1688,87 @@
     <t>M303</t>
   </si>
   <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>FORT2</t>
+  </si>
+  <si>
+    <t>K220</t>
+  </si>
+  <si>
+    <t>KTERM</t>
+  </si>
+  <si>
+    <t>P233</t>
+  </si>
+  <si>
+    <t>K115</t>
+  </si>
+  <si>
+    <t>FORT</t>
+  </si>
+  <si>
+    <t>KPPM1</t>
+  </si>
+  <si>
+    <t>P237</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>M400</t>
+  </si>
+  <si>
+    <t>KFORT</t>
+  </si>
+  <si>
+    <t>PPM1</t>
+  </si>
+  <si>
+    <t>P364</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
     <t>EFORT</t>
   </si>
   <si>
-    <t>P234</t>
+    <t>TERM</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>P523</t>
+  </si>
+  <si>
+    <t>KPZOS</t>
   </si>
   <si>
     <t>PZOS</t>
   </si>
   <si>
-    <t>P128</t>
-  </si>
-  <si>
-    <t>KPZOS</t>
-  </si>
-  <si>
-    <t>M201</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>K115</t>
-  </si>
-  <si>
     <t>KPMC</t>
   </si>
   <si>
-    <t>M107</t>
-  </si>
-  <si>
-    <t>P131</t>
-  </si>
-  <si>
-    <t>TERM</t>
-  </si>
-  <si>
     <t>K215</t>
   </si>
   <si>
-    <t>PPM1</t>
-  </si>
-  <si>
-    <t>K220</t>
-  </si>
-  <si>
-    <t>KPPM1</t>
-  </si>
-  <si>
-    <t>M400</t>
-  </si>
-  <si>
-    <t>P364</t>
-  </si>
-  <si>
-    <t>P237</t>
-  </si>
-  <si>
-    <t>P523</t>
-  </si>
-  <si>
-    <t>FORT</t>
-  </si>
-  <si>
     <t>K117</t>
   </si>
   <si>
-    <t>KFORT</t>
-  </si>
-  <si>
-    <t>KTERM</t>
-  </si>
-  <si>
-    <t>P240</t>
-  </si>
-  <si>
-    <t>P233</t>
-  </si>
-  <si>
-    <t>FORT2</t>
-  </si>
-  <si>
     <t>E126</t>
   </si>
   <si>
@@ -1790,42 +1790,33 @@
     <t>PD55</t>
   </si>
   <si>
-    <t>N200</t>
-  </si>
-  <si>
-    <t>BP422</t>
-  </si>
-  <si>
     <t>BP300</t>
   </si>
   <si>
     <t>BK300</t>
   </si>
   <si>
-    <t>BK422</t>
-  </si>
-  <si>
     <t>E123</t>
   </si>
   <si>
+    <t>P707A</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P705</t>
   </si>
   <si>
+    <t>DOUC</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>DOUC</t>
-  </si>
-  <si>
     <t>P707B</t>
   </si>
   <si>
-    <t>P707A</t>
-  </si>
-  <si>
     <t>PD12</t>
   </si>
   <si>
@@ -1838,12 +1829,12 @@
     <t>M118</t>
   </si>
   <si>
+    <t>EMLR</t>
+  </si>
+  <si>
     <t>EDMR</t>
   </si>
   <si>
-    <t>EMLR</t>
-  </si>
-  <si>
     <t>K413</t>
   </si>
   <si>
@@ -1856,19 +1847,19 @@
     <t>KOONV</t>
   </si>
   <si>
+    <t>KOPR</t>
+  </si>
+  <si>
+    <t>OMLM</t>
+  </si>
+  <si>
+    <t>EOMLM</t>
+  </si>
+  <si>
+    <t>EOPR</t>
+  </si>
+  <si>
     <t>OPR</t>
-  </si>
-  <si>
-    <t>OMLM</t>
-  </si>
-  <si>
-    <t>EOMLM</t>
-  </si>
-  <si>
-    <t>KOPR</t>
-  </si>
-  <si>
-    <t>EOPR</t>
   </si>
   <si>
     <t>MA205</t>
@@ -1933,8 +1924,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C413" totalsRowShown="0">
-  <autoFilter ref="A1:C413"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C410" totalsRowShown="0">
+  <autoFilter ref="A1:C410"/>
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -2229,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C413"/>
+  <dimension ref="A1:C410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2380,7 +2371,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>276</v>
@@ -2391,7 +2382,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>277</v>
@@ -2402,7 +2393,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>278</v>
@@ -2413,7 +2404,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>279</v>
@@ -2435,7 +2426,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>281</v>
@@ -2446,7 +2437,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>282</v>
@@ -2490,7 +2481,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>286</v>
@@ -2501,7 +2492,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>287</v>
@@ -2523,7 +2514,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>289</v>
@@ -2534,7 +2525,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>290</v>
@@ -2556,7 +2547,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>292</v>
@@ -2567,7 +2558,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>293</v>
@@ -2732,7 +2723,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>308</v>
@@ -2743,7 +2734,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>309</v>
@@ -2798,10 +2789,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C52" s="2">
         <v>307</v>
@@ -2809,10 +2800,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C53" s="2">
         <v>307</v>
@@ -2820,10 +2811,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2">
         <v>307</v>
@@ -2831,10 +2822,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2">
         <v>307</v>
@@ -2842,10 +2833,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C56" s="2">
         <v>307</v>
@@ -2853,10 +2844,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2">
         <v>307</v>
@@ -2864,7 +2855,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>319</v>
@@ -2875,7 +2866,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>320</v>
@@ -2886,7 +2877,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>321</v>
@@ -2897,7 +2888,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>322</v>
@@ -2908,7 +2899,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>323</v>
@@ -2919,7 +2910,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>324</v>
@@ -2930,7 +2921,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>325</v>
@@ -2974,7 +2965,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>329</v>
@@ -3040,7 +3031,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>335</v>
@@ -3084,7 +3075,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>339</v>
@@ -3095,7 +3086,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>340</v>
@@ -3128,7 +3119,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>343</v>
@@ -3139,7 +3130,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>344</v>
@@ -3150,7 +3141,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>345</v>
@@ -3161,7 +3152,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>346</v>
@@ -3194,7 +3185,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>349</v>
@@ -3205,7 +3196,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>350</v>
@@ -3216,7 +3207,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>351</v>
@@ -3227,7 +3218,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>352</v>
@@ -3315,7 +3306,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>360</v>
@@ -3326,7 +3317,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>361</v>
@@ -3337,7 +3328,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>362</v>
@@ -3348,7 +3339,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>363</v>
@@ -3359,7 +3350,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>364</v>
@@ -3450,7 +3441,7 @@
         <v>81</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C111" s="2">
         <v>550</v>
@@ -3568,7 +3559,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>382</v>
@@ -3579,7 +3570,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>383</v>
@@ -3590,7 +3581,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>384</v>
@@ -3604,7 +3595,7 @@
         <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="C125" s="2">
         <v>612</v>
@@ -3615,7 +3606,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C126" s="2">
         <v>612</v>
@@ -3626,7 +3617,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C127" s="2">
         <v>612</v>
@@ -3634,10 +3625,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C128" s="2">
         <v>612</v>
@@ -3645,10 +3636,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C129" s="2">
         <v>612</v>
@@ -3656,10 +3647,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C130" s="2">
         <v>612</v>
@@ -3667,10 +3658,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="C131" s="2">
         <v>612</v>
@@ -3678,10 +3669,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="C132" s="2">
         <v>612</v>
@@ -3689,10 +3680,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="C133" s="2">
         <v>612</v>
@@ -3700,7 +3691,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>392</v>
@@ -3711,10 +3702,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C135" s="2">
         <v>719</v>
@@ -3788,7 +3779,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>399</v>
@@ -3799,7 +3790,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>400</v>
@@ -3810,7 +3801,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>401</v>
@@ -3865,7 +3856,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>406</v>
@@ -3931,7 +3922,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>412</v>
@@ -3942,7 +3933,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>413</v>
@@ -3953,7 +3944,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>414</v>
@@ -3964,7 +3955,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>415</v>
@@ -3975,7 +3966,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>416</v>
@@ -3986,7 +3977,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>417</v>
@@ -3997,7 +3988,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>418</v>
@@ -4008,7 +3999,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>419</v>
@@ -4030,7 +4021,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>421</v>
@@ -4041,7 +4032,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>422</v>
@@ -4052,7 +4043,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>423</v>
@@ -4063,7 +4054,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>424</v>
@@ -4074,7 +4065,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>425</v>
@@ -4085,7 +4076,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>426</v>
@@ -4107,7 +4098,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>428</v>
@@ -4118,7 +4109,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>429</v>
@@ -4129,7 +4120,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>430</v>
@@ -4140,7 +4131,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>431</v>
@@ -4151,7 +4142,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>432</v>
@@ -4162,7 +4153,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>433</v>
@@ -4220,7 +4211,7 @@
         <v>127</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C181" s="2">
         <v>1108</v>
@@ -4228,10 +4219,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C182" s="2">
         <v>1383</v>
@@ -4349,10 +4340,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C193" s="2">
         <v>1590</v>
@@ -4404,7 +4395,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>452</v>
@@ -4426,7 +4417,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>454</v>
@@ -4448,7 +4439,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>456</v>
@@ -4470,7 +4461,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>458</v>
@@ -4503,10 +4494,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="C207" s="2">
         <v>2220</v>
@@ -4514,10 +4505,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C208" s="2">
         <v>2220</v>
@@ -4525,10 +4516,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C209" s="2">
         <v>2220</v>
@@ -4536,10 +4527,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="C210" s="2">
         <v>2220</v>
@@ -4547,10 +4538,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C211" s="2">
         <v>2220</v>
@@ -4558,10 +4549,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="C212" s="2">
         <v>2220</v>
@@ -4569,10 +4560,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C213" s="2">
         <v>2220</v>
@@ -4580,10 +4571,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C214" s="2">
         <v>2220</v>
@@ -4594,7 +4585,7 @@
         <v>115</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C215" s="2">
         <v>2220</v>
@@ -4602,10 +4593,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="C216" s="2">
         <v>2220</v>
@@ -4613,10 +4604,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="C217" s="2">
         <v>2220</v>
@@ -4624,10 +4615,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="C218" s="2">
         <v>2220</v>
@@ -4635,10 +4626,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C219" s="2">
         <v>2220</v>
@@ -4646,10 +4637,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C220" s="2">
         <v>2220</v>
@@ -4657,10 +4648,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="C221" s="2">
         <v>2220</v>
@@ -4668,10 +4659,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C222" s="2">
         <v>2220</v>
@@ -4679,10 +4670,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C223" s="2">
         <v>2220</v>
@@ -4690,10 +4681,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="C224" s="2">
         <v>2220</v>
@@ -4701,10 +4692,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="C225" s="2">
         <v>2220</v>
@@ -4712,10 +4703,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="C226" s="2">
         <v>2220</v>
@@ -4723,10 +4714,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C227" s="2">
         <v>2220</v>
@@ -4734,10 +4725,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C228" s="2">
         <v>2220</v>
@@ -4745,10 +4736,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="C229" s="2">
         <v>2220</v>
@@ -4756,10 +4747,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="C230" s="2">
         <v>2220</v>
@@ -4767,10 +4758,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>365</v>
+        <v>476</v>
       </c>
       <c r="C231" s="2">
         <v>2220</v>
@@ -4778,10 +4769,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C232" s="2">
         <v>2220</v>
@@ -4789,10 +4780,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>477</v>
+        <v>364</v>
       </c>
       <c r="C233" s="2">
         <v>2220</v>
@@ -4800,7 +4791,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>478</v>
@@ -4822,7 +4813,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>480</v>
@@ -4877,10 +4868,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C241" s="2">
         <v>2239</v>
@@ -4888,10 +4879,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C242" s="2">
         <v>2239</v>
@@ -4899,10 +4890,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C243" s="2">
         <v>2239</v>
@@ -4910,10 +4901,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C244" s="2">
         <v>2239</v>
@@ -4921,10 +4912,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C245" s="2">
         <v>2239</v>
@@ -4932,10 +4923,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C246" s="2">
         <v>2239</v>
@@ -4943,10 +4934,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="C247" s="2">
         <v>2239</v>
@@ -4954,10 +4945,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C248" s="2">
         <v>2239</v>
@@ -4965,10 +4956,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C249" s="2">
         <v>2239</v>
@@ -4976,10 +4967,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C250" s="2">
         <v>2239</v>
@@ -4987,10 +4978,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C251" s="2">
         <v>2239</v>
@@ -4998,10 +4989,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C252" s="2">
         <v>2239</v>
@@ -5009,10 +5000,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C253" s="2">
         <v>2239</v>
@@ -5020,10 +5011,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C254" s="2">
         <v>2239</v>
@@ -5034,7 +5025,7 @@
         <v>165</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C255" s="2">
         <v>2239</v>
@@ -5042,10 +5033,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C256" s="2">
         <v>2239</v>
@@ -5097,10 +5088,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="C261" s="2">
         <v>2757</v>
@@ -5108,10 +5099,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="C262" s="2">
         <v>2757</v>
@@ -5199,7 +5190,7 @@
         <v>6</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C270" s="2">
         <v>3175</v>
@@ -5207,10 +5198,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="C271" s="2">
         <v>3176</v>
@@ -5218,10 +5209,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="C272" s="2">
         <v>3176</v>
@@ -5383,10 +5374,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>313</v>
+        <v>519</v>
       </c>
       <c r="C287" s="2">
         <v>4221</v>
@@ -5397,7 +5388,7 @@
         <v>189</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C288" s="2">
         <v>4221</v>
@@ -5408,7 +5399,7 @@
         <v>190</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C289" s="2">
         <v>4221</v>
@@ -5416,10 +5407,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>520</v>
+        <v>325</v>
       </c>
       <c r="C290" s="2">
         <v>4221</v>
@@ -5449,7 +5440,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>523</v>
@@ -5460,7 +5451,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>524</v>
@@ -5471,7 +5462,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>525</v>
@@ -5482,7 +5473,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>526</v>
@@ -5650,7 +5641,7 @@
         <v>206</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C311" s="2">
         <v>4747</v>
@@ -5661,7 +5652,7 @@
         <v>192</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C312" s="2">
         <v>4757</v>
@@ -5713,7 +5704,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>545</v>
@@ -5724,7 +5715,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>546</v>
@@ -5779,7 +5770,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>551</v>
@@ -5801,10 +5792,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C325" s="2">
         <v>5449</v>
@@ -5823,10 +5814,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>553</v>
+        <v>276</v>
       </c>
       <c r="C327" s="2">
         <v>5472</v>
@@ -5834,10 +5825,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>274</v>
+        <v>553</v>
       </c>
       <c r="C328" s="2">
         <v>5472</v>
@@ -5845,10 +5836,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C329" s="2">
         <v>5472</v>
@@ -5859,7 +5850,7 @@
         <v>216</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C330" s="2">
         <v>5854</v>
@@ -5922,7 +5913,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>559</v>
@@ -5933,7 +5924,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>560</v>
@@ -5944,7 +5935,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>561</v>
@@ -5955,7 +5946,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>562</v>
@@ -5966,7 +5957,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>563</v>
@@ -5977,7 +5968,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>564</v>
@@ -5988,7 +5979,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>565</v>
@@ -5999,7 +5990,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>566</v>
@@ -6010,7 +6001,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>567</v>
@@ -6021,7 +6012,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>568</v>
@@ -6032,7 +6023,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>569</v>
@@ -6043,7 +6034,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>570</v>
@@ -6054,7 +6045,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>571</v>
@@ -6065,7 +6056,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>572</v>
@@ -6076,7 +6067,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>573</v>
@@ -6087,7 +6078,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>574</v>
@@ -6098,7 +6089,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>575</v>
@@ -6109,7 +6100,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>576</v>
@@ -6120,7 +6111,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>577</v>
@@ -6131,10 +6122,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="C355" s="2">
         <v>5958</v>
@@ -6142,10 +6133,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="C356" s="2">
         <v>5958</v>
@@ -6153,7 +6144,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>579</v>
@@ -6164,7 +6155,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>580</v>
@@ -6175,7 +6166,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>581</v>
@@ -6186,7 +6177,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>582</v>
@@ -6197,7 +6188,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>583</v>
@@ -6208,10 +6199,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C362" s="2">
         <v>6120</v>
@@ -6230,10 +6221,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="C364" s="2">
         <v>6633</v>
@@ -6241,10 +6232,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="C365" s="2">
         <v>6633</v>
@@ -6321,7 +6312,7 @@
         <v>239</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>382</v>
+        <v>591</v>
       </c>
       <c r="C372" s="2">
         <v>8018</v>
@@ -6332,7 +6323,7 @@
         <v>239</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C373" s="2">
         <v>8018</v>
@@ -6340,10 +6331,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>592</v>
+        <v>501</v>
       </c>
       <c r="C374" s="2">
         <v>8018</v>
@@ -6351,7 +6342,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>593</v>
@@ -6362,10 +6353,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>501</v>
+        <v>384</v>
       </c>
       <c r="C376" s="2">
         <v>8018</v>
@@ -6373,40 +6364,40 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C377" s="2">
-        <v>8018</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C378" s="2">
-        <v>8018</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>596</v>
       </c>
       <c r="C379" s="2">
-        <v>8018</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>597</v>
@@ -6417,7 +6408,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>598</v>
@@ -6428,7 +6419,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>599</v>
@@ -6439,131 +6430,131 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C383" s="2">
-        <v>8021</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C384" s="2">
-        <v>8021</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>602</v>
+        <v>549</v>
       </c>
       <c r="C385" s="2">
-        <v>8021</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C386" s="2">
-        <v>8074</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C387" s="2">
-        <v>8075</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>548</v>
+        <v>328</v>
       </c>
       <c r="C388" s="2">
-        <v>8154</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>605</v>
+        <v>329</v>
       </c>
       <c r="C389" s="2">
-        <v>8200</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>606</v>
+        <v>500</v>
       </c>
       <c r="C390" s="2">
-        <v>8200</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>312</v>
+        <v>604</v>
       </c>
       <c r="C391" s="2">
-        <v>8310</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>324</v>
+        <v>466</v>
       </c>
       <c r="C392" s="2">
-        <v>8310</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C393" s="2">
-        <v>8316</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="C394" s="2">
         <v>8514</v>
@@ -6571,10 +6562,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C395" s="2">
         <v>8514</v>
@@ -6582,10 +6573,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C396" s="2">
         <v>8514</v>
@@ -6593,106 +6584,106 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>608</v>
+        <v>293</v>
       </c>
       <c r="C397" s="2">
-        <v>8514</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>477</v>
+        <v>606</v>
       </c>
       <c r="C398" s="2">
-        <v>8514</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>433</v>
+        <v>607</v>
       </c>
       <c r="C399" s="2">
-        <v>8514</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="C400" s="2">
-        <v>8677</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C401" s="2">
-        <v>8677</v>
+        <v>8753</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C402" s="2">
-        <v>8677</v>
+        <v>8753</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>314</v>
+        <v>610</v>
       </c>
       <c r="C403" s="2">
-        <v>8750</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C404" s="2">
-        <v>8753</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C405" s="2">
-        <v>8753</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>613</v>
@@ -6703,10 +6694,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>614</v>
+        <v>363</v>
       </c>
       <c r="C407" s="2">
         <v>9114</v>
@@ -6714,10 +6705,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>363</v>
+        <v>614</v>
       </c>
       <c r="C408" s="2">
         <v>9114</v>
@@ -6725,56 +6716,23 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="C409" s="2">
-        <v>9114</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C410" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C411" s="2">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C412" s="2">
-        <v>9304</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C413" s="2">
         <v>9608</v>
       </c>
     </row>
